--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36C3CDB-49EF-4A74-805F-1D8785753654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6227CF4A-9D2B-4646-B7C7-FC6E0A2E2CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B23A022E-C72E-4B21-B749-DA49231DBF8A}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="noticias_enfragen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_enfragen!$A$1:$I$1354</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_enfragen!$A$1:$I$1364</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9800" uniqueCount="3466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9874" uniqueCount="3487">
   <si>
     <t>Fecha</t>
   </si>
@@ -10421,6 +10421,69 @@
   </si>
   <si>
     <t>['sorpresivo']</t>
+  </si>
+  <si>
+    <t>Afinia sigue mejorando la infraestructura eléctrica en Bolívar y sur del Magdalena</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2025/12/25/afinia-sigue-mejorando-la-infraestructura-electrica-en-bolivar-y-sur-del-magdalena/</t>
+  </si>
+  <si>
+    <t>Afinia hará cortes de luz programados en Cesar para modernizar la red: estas son las fechas y zonas afectadas</t>
+  </si>
+  <si>
+    <t>https://www.pulzo.com/nacion/afinia-anuncia-cortes-programados-de-luz-en-cesar-del-26-al-28-de-diciembre-para-mantenimiento-electrico-PP4968031A</t>
+  </si>
+  <si>
+    <t>['programados', 'afectadas']</t>
+  </si>
+  <si>
+    <t>EPM contrató la póliza todo riesgo de Hidroituango con Previsora Seguros</t>
+  </si>
+  <si>
+    <t>https://www.bluradio.com/actualidad/noticias-del-dia/epm-contrato-la-poliza-todo-riesgo-de-hidroituango-con-previsora-seguros-resumen-de-las-noticias-del-24-de-marzo?00000174-705b-d394-a77f-fb7ba1b30000-page=249</t>
+  </si>
+  <si>
+    <t>Tolima se prepara: estos serán los cortes de luz programados por Celsia durante las fiestas de diciembre</t>
+  </si>
+  <si>
+    <t>https://www.pulzo.com/nacion/celsia-anuncia-suspensiones-programadas-de-energia-en-tolima-para-diciembre-fechas-y-sectores-afectados-PP4967441A</t>
+  </si>
+  <si>
+    <t>Celsia realizará cortes de energía en Tolima al cierre de diciembre: fechas clave y zonas afectadas</t>
+  </si>
+  <si>
+    <t>https://www.pulzo.com/economia/celsia-anuncia-cortes-de-energia-programados-en-tolima-fechas-y-zonas-afectadas-en-diciembre-PP4967443A</t>
+  </si>
+  <si>
+    <t>Ecopetrol asume el 100% de los bloques costa afuera en el Caribe Sur tras cesión de Shell</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/economia/sectores/ecopetrol-asume-el-100-de-los-bloques-costa-afuera-en-el-caribe-sur-tras-cesion-de-shell-3519702</t>
+  </si>
+  <si>
+    <t>Ecopetrol anuncia que asumirá el 100% de participación en bloques en Costa Afuera</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/economia/empresas/articulo/ecopetrol-anuncia-que-asumira-el-100-de-participacion-en-bloques-en-costa-afuera/202541/</t>
+  </si>
+  <si>
+    <t>Ecopetrol asume control total de los proyectos de gas en el Caribe tras oficializarse la salida de la multinacional Shell</t>
+  </si>
+  <si>
+    <t>https://www.bluradio.com/economia/ecopetrol-asume-control-total-de-los-proyectos-de-gas-en-el-caribe-tras-la-salida-de-shell-cb20</t>
+  </si>
+  <si>
+    <t>Ecopetrol asume control total del gas en el Caribe</t>
+  </si>
+  <si>
+    <t>https://www.kienyke.com/colombia/ecopetrol-asume-control-total-del-gas-en-el-caribe</t>
+  </si>
+  <si>
+    <t>Ecopetrol asume el 100 % de los bloques costa afuera en el Caribe Sur tras cesión de Shell</t>
+  </si>
+  <si>
+    <t>https://www.lafm.com.co/economia/ecopetrol-hidrocarburos-exploracion-caribe-costa-afuera-cesion-shell-386333</t>
   </si>
 </sst>
 </file>
@@ -10996,8 +11059,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF8E8F01-2F80-46EC-B1AC-AFCB9B21DA48}" name="Tabla1" displayName="Tabla1" ref="A1:I1354" totalsRowShown="0">
-  <autoFilter ref="A1:I1354" xr:uid="{DF8E8F01-2F80-46EC-B1AC-AFCB9B21DA48}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF8E8F01-2F80-46EC-B1AC-AFCB9B21DA48}" name="Tabla1" displayName="Tabla1" ref="A1:I1364" totalsRowShown="0">
+  <autoFilter ref="A1:I1364" xr:uid="{DF8E8F01-2F80-46EC-B1AC-AFCB9B21DA48}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1334">
     <sortCondition ref="A1:A1334"/>
   </sortState>
@@ -11314,10 +11377,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D04C602-C96F-40D6-BAA4-8C7CDF7A11CB}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1354"/>
+  <dimension ref="A1:I1364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B716" workbookViewId="0">
-      <selection activeCell="E730" sqref="E730"/>
+    <sheetView tabSelected="1" topLeftCell="B1353" workbookViewId="0">
+      <selection activeCell="B1358" sqref="B1358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47494,6 +47557,278 @@
       </c>
       <c r="I1354" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1355" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1355" t="s">
+        <v>3466</v>
+      </c>
+      <c r="C1355" s="3" t="s">
+        <v>3467</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1355" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1355" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1356" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1356" t="s">
+        <v>3468</v>
+      </c>
+      <c r="C1356" s="3" t="s">
+        <v>3469</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>3470</v>
+      </c>
+      <c r="G1356" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>820</v>
+      </c>
+      <c r="I1356" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1357" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1357" t="s">
+        <v>3471</v>
+      </c>
+      <c r="C1357" s="3" t="s">
+        <v>3472</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1357" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1357" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1358" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1358" t="s">
+        <v>3473</v>
+      </c>
+      <c r="C1358" s="3" t="s">
+        <v>3474</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>913</v>
+      </c>
+      <c r="G1358" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>967</v>
+      </c>
+      <c r="I1358" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1359" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1359" t="s">
+        <v>3475</v>
+      </c>
+      <c r="C1359" s="3" t="s">
+        <v>3476</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>259</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>3266</v>
+      </c>
+      <c r="G1359" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>820</v>
+      </c>
+      <c r="I1359" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1360" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1360" t="s">
+        <v>3477</v>
+      </c>
+      <c r="C1360" s="3" t="s">
+        <v>3478</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1360" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="I1360" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1361" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1361" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C1361" s="3" t="s">
+        <v>3480</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1361" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="I1361" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1362" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1362" t="s">
+        <v>3481</v>
+      </c>
+      <c r="C1362" s="3" t="s">
+        <v>3482</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>3343</v>
+      </c>
+      <c r="G1362" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="I1362" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1363" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1363" t="s">
+        <v>3483</v>
+      </c>
+      <c r="C1363" s="3" t="s">
+        <v>3484</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>3343</v>
+      </c>
+      <c r="G1363" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="I1363" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1364" s="1">
+        <v>46017</v>
+      </c>
+      <c r="B1364" t="s">
+        <v>3485</v>
+      </c>
+      <c r="C1364" s="3" t="s">
+        <v>3486</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1364" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1364" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="I1364" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6227CF4A-9D2B-4646-B7C7-FC6E0A2E2CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D614C62E-7550-41D7-998C-EEA1956EE123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B23A022E-C72E-4B21-B749-DA49231DBF8A}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="noticias_enfragen" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_enfragen!$A$1:$I$1364</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_enfragen!$A$1:$I$1369</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9874" uniqueCount="3487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9911" uniqueCount="3498">
   <si>
     <t>Fecha</t>
   </si>
@@ -10484,6 +10484,39 @@
   </si>
   <si>
     <t>https://www.lafm.com.co/economia/ecopetrol-hidrocarburos-exploracion-caribe-costa-afuera-cesion-shell-386333</t>
+  </si>
+  <si>
+    <t>Ecopetrol ofrecerá en venta entre 39 y 68 millones de barriles diarios de gas natural, de enero a mayo de 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxPbjVBWVpOeGxlNjFkWGY4QkYxeGVncGRWbjhvMGFrWjhjN3BhaHVHTzBJWThSQjU0RFpfS0VGZHZaWmlXdWNxcGJWNUV2WHQyTjl3Zk1CLTM1MWZpZGh4NkhuYTZ3cUxGVFdRQXQtb3ZkMG1XOG9URG1SNnlsNC12cDlnNnpIU1cxLU5ndWc4b0dvUU1wRzR1T0oybHp6TkpMWm05QlN5RW9QY18xVHFrUlpUMXFJb29GbWlBVWNXVHNuUHRiaUNGVlozc2dUYkJXNFY2NGI1bHdueXpDR2V6cWlKVnZETkhNM0lSSA?oc=5</t>
+  </si>
+  <si>
+    <t>Air-e en crisis: tarifas bajan, pero deuda de $2,7 billones mantiene en jaque a la empresa</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2025/12/29/air-e-en-crisis-tarifas-bajan-pero-deuda-de-27-billones-mantiene-en-jaque-a-la-empresa/</t>
+  </si>
+  <si>
+    <t>Durante 2025 las tarifas en Air-e bajaron, pero la deuda sigue creciendo</t>
+  </si>
+  <si>
+    <t>https://zonacero.com/generales/durante-2025-las-tarifas-en-air-e-bajaron-pero-la-deuda-sigue-creciendo</t>
+  </si>
+  <si>
+    <t>zonacero.com</t>
+  </si>
+  <si>
+    <t>Ecopetrol toma el control de los pozos gas que tenía la multinacional Shell en el Caribe frente a Urabá</t>
+  </si>
+  <si>
+    <t>https://www.las2orillas.co/ecopetrol-toma-el-control-de-los-pozos-gas-que-tenia-la-multinacional-shell-en-el-caribe-frente-a-uraba/</t>
+  </si>
+  <si>
+    <t>Ecopetrol garantiza disponibilidad de gas entre febrero y mayo de 2026</t>
+  </si>
+  <si>
+    <t>https://www.lafm.com.co/economia/ecopetrol-gas-natural-2026-la-empresa-petrolera-garantiza-disponibilidad-entre-febrero-y-mayo-del-proximo-ano-386526</t>
   </si>
 </sst>
 </file>
@@ -11059,8 +11092,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF8E8F01-2F80-46EC-B1AC-AFCB9B21DA48}" name="Tabla1" displayName="Tabla1" ref="A1:I1364" totalsRowShown="0">
-  <autoFilter ref="A1:I1364" xr:uid="{DF8E8F01-2F80-46EC-B1AC-AFCB9B21DA48}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DF8E8F01-2F80-46EC-B1AC-AFCB9B21DA48}" name="Tabla1" displayName="Tabla1" ref="A1:I1369" totalsRowShown="0">
+  <autoFilter ref="A1:I1369" xr:uid="{DF8E8F01-2F80-46EC-B1AC-AFCB9B21DA48}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1334">
     <sortCondition ref="A1:A1334"/>
   </sortState>
@@ -11377,10 +11410,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D04C602-C96F-40D6-BAA4-8C7CDF7A11CB}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1364"/>
+  <dimension ref="A1:I1369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1353" workbookViewId="0">
-      <selection activeCell="B1358" sqref="B1358"/>
+    <sheetView tabSelected="1" topLeftCell="A1353" workbookViewId="0">
+      <selection activeCell="C1365" sqref="C1365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47828,6 +47861,142 @@
         <v>520</v>
       </c>
       <c r="I1364" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1365" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B1365" t="s">
+        <v>3487</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>3488</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1365" t="s">
+        <v>1616</v>
+      </c>
+      <c r="G1365" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1365" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1366" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B1366" t="s">
+        <v>3489</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>3490</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1366" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1366" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1366" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1367" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B1367" t="s">
+        <v>3491</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>3492</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1367" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>967</v>
+      </c>
+      <c r="I1367" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1368" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B1368" t="s">
+        <v>3494</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>3495</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1368" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="I1368" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1369" s="1">
+        <v>46020</v>
+      </c>
+      <c r="B1369" t="s">
+        <v>3496</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>3497</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1369" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1369" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1369" t="s">
         <v>36</v>
       </c>
     </row>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F811BDF-08B4-447B-81C7-097200B2AF38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{922FD461-8BF7-4ADA-A01E-4600B445E7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9911" uniqueCount="3498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10010" uniqueCount="3532">
   <si>
     <t>Fecha</t>
   </si>
@@ -10514,13 +10514,115 @@
   </si>
   <si>
     <t>https://www.lafm.com.co/economia/ecopetrol-gas-natural-2026-la-empresa-petrolera-garantiza-disponibilidad-entre-febrero-y-mayo-del-proximo-ano-386526</t>
+  </si>
+  <si>
+    <t>Ecopetrol inicia la comercialización de 110 GBTUD de gas importado a través de Coveñas</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/economia/sectores/ecopetrol-inicia-la-comercializacion-de-110-gbtud-de-gas-importado-a-traves-de-covenas-3520559</t>
+  </si>
+  <si>
+    <t>Más de 43 mil paneles conforman esta granja solar impulsada por Ecopetrol. ¿Dónde queda?</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/mejor-colombia/articulo/mas-de-43-mil-paneles-conforman-esta-granja-solar-impulsada-por-ecopetrol-donde-queda/202533/</t>
+  </si>
+  <si>
+    <t>['solar', 'impulsada']</t>
+  </si>
+  <si>
+    <t>Ecopetrol inicia proceso de comercialización de gas importado a través de Coveñas</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/economia/empresas/ecopetrol-inicia-proceso-de-comercializacion-de-gas-importado-a-traves-de-covenas/</t>
+  </si>
+  <si>
+    <t>Ecopetrol abre comercialización de gas importado por Coveñas con contratos a 10 años</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/economia/ecopetrol-abre-comercializacion-de-gas-importado-por-covenas-con-contratos-a-10-anos-4298496</t>
+  </si>
+  <si>
+    <t>Ecopetrol condena hechos en el campo Tibú, en el Catatumbo tras derrame e incineración de vehículo</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2025/12/29/ecopetrol-condena-hechos-en-el-campo-tibu-tras-derrame-e-incineracion-de-vehiculo/</t>
+  </si>
+  <si>
+    <t>['hechos']</t>
+  </si>
+  <si>
+    <t>Ecopetrol rechazó las acciones violentas presentadas en el Catatumbo el pasado fin de semana</t>
+  </si>
+  <si>
+    <t>https://www.wradio.com.co/2025/12/29/ecopetrol-rechazo-las-acciones-violentas-presentadas-en-el-catatumbo-el-pasado-fin-de-semana/?outputType=amp</t>
+  </si>
+  <si>
+    <t>['violentas', 'presentadas', 'pasado']</t>
+  </si>
+  <si>
+    <t>Ecopetrol aumentará la oferta de gas natural para asegurar el abastecimiento en 2026: con volúmenes entre 39 y 68 GBTUD | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://www.elcolombiano.com/negocios/ecopetrol-oferta-gas-natural-2026-EA32105089</t>
+  </si>
+  <si>
+    <t>Ecopetrol apuesta por el gas: así será la oferta récord de entre 39 y 68 GBTUD que llega en 2026 y cómo impactará a Colombia</t>
+  </si>
+  <si>
+    <t>https://www.pulzo.com/economia/ecopetrol-anuncia-oferta-de-gas-natural-en-colombia-para-2026-volumenes-y-modalidades-de-contrato-PP4971438A</t>
+  </si>
+  <si>
+    <t>['récord']</t>
+  </si>
+  <si>
+    <t>Ecopetrol iniciará la comercialización de gas importado por Coveñas a partir de 2027</t>
+  </si>
+  <si>
+    <t>https://www.portafolio.co/energia/ecopetrol-iniciara-la-comercializacion-de-gas-importado-por-covenas-a-partir-de-485444</t>
+  </si>
+  <si>
+    <t>Ecopetrol inició los contratos para vender el gas que se importará desde Coveñas (Sucre)</t>
+  </si>
+  <si>
+    <t>https://www.valoraanalitik.com/ecopetrol-contratos-gas-covenas/</t>
+  </si>
+  <si>
+    <t>Ecopetrol anunció que empezará a importar gas natural desde Coveñas: se conocen cómo serán los contratos y por cuánto tiempo</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2025/12/29/ecopetrol-anuncio-que-empezara-a-importar-gas-natural-desde-covenas-se-conocen-como-seran-los-contratos-y-por-cuanto-tiempo/</t>
+  </si>
+  <si>
+    <t>Ecopetrol pondrá en venta hasta 68 GBTUD de barriles diarios de gas natural entre enero y mayo de 2026</t>
+  </si>
+  <si>
+    <t>https://zonacero.com/generales/ecopetrol-pondra-en-venta-hasta-68-millones-de-barriles-diarios-de-gas-natural-entre</t>
+  </si>
+  <si>
+    <t>Apagón sorpresa deja sin energía a zonas rurales del Cesar: ¿cómo responde Afinia y por qué crece la energía prepagada?</t>
+  </si>
+  <si>
+    <t>https://www.pulzo.com/economia/corte-de-energia-en-cesar-fallas-en-subestacion-arjona-de-afinia-afectan-zonas-rurales-y-motivan-energia-prepagada-PP4971260A</t>
+  </si>
+  <si>
+    <t>['rurales', 'prepagada']</t>
+  </si>
+  <si>
+    <t>Este martes 30 de diciembre: Air-e Intervenida ejecuta maniobras para facilitar conexión eléctrica en constructora en el Corredor Universitario</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2025/12/29/este-martes-30-de-diciembre-air-e-intervenida-ejecuta-maniobras-para-facilitar-conexion-electrica-en-constructora-en-el-corredor-universitario/</t>
+  </si>
+  <si>
+    <t>['Intervenida', 'maniobras', 'eléctrica']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10651,6 +10753,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10959,7 +11069,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -11002,13 +11112,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -11040,6 +11152,7 @@
     <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="42" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11362,10 +11475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
-  <dimension ref="A1:I1369"/>
+  <dimension ref="A1:I1383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1348" workbookViewId="0">
-      <selection activeCell="G1369" sqref="G1355:G1369"/>
+    <sheetView tabSelected="1" topLeftCell="A1363" workbookViewId="0">
+      <selection activeCell="K1375" sqref="K1375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -47945,6 +48058,373 @@
         <v>168</v>
       </c>
     </row>
+    <row r="1370" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1370" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1370" t="s">
+        <v>3498</v>
+      </c>
+      <c r="C1370" s="3" t="s">
+        <v>3499</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>2694</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1370" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1371" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1371" t="s">
+        <v>3500</v>
+      </c>
+      <c r="C1371" s="3" t="s">
+        <v>3501</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>3502</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1371" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1372" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1372" t="s">
+        <v>3503</v>
+      </c>
+      <c r="C1372" s="3" t="s">
+        <v>3504</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1372" t="s">
+        <v>2694</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1372" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1373" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1373" t="s">
+        <v>3505</v>
+      </c>
+      <c r="C1373" s="3" t="s">
+        <v>3506</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>2694</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1373" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1374" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1374" t="s">
+        <v>3507</v>
+      </c>
+      <c r="C1374" s="3" t="s">
+        <v>3508</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1374" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1375" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1375" t="s">
+        <v>3510</v>
+      </c>
+      <c r="C1375" s="3" t="s">
+        <v>3511</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>3512</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1375" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1376" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1376" t="s">
+        <v>3513</v>
+      </c>
+      <c r="C1376" s="3" t="s">
+        <v>3514</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1376" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1377" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1377" t="s">
+        <v>3515</v>
+      </c>
+      <c r="C1377" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>3517</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1377" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1378" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1378" t="s">
+        <v>3518</v>
+      </c>
+      <c r="C1378" s="3" t="s">
+        <v>3519</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>2694</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1379" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1379" t="s">
+        <v>3520</v>
+      </c>
+      <c r="C1379" s="3" t="s">
+        <v>3521</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1379" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1379" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1380" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1380" t="s">
+        <v>3522</v>
+      </c>
+      <c r="C1380" s="3" t="s">
+        <v>3523</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1380" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1380" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1380" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1381" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1381" t="s">
+        <v>3524</v>
+      </c>
+      <c r="C1381" s="3" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1381" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G1381" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1381" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1382" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1382" t="s">
+        <v>3526</v>
+      </c>
+      <c r="C1382" s="3" t="s">
+        <v>3527</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1382" t="s">
+        <v>3528</v>
+      </c>
+      <c r="G1382" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1382" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1383" s="1">
+        <v>46021</v>
+      </c>
+      <c r="B1383" t="s">
+        <v>3529</v>
+      </c>
+      <c r="C1383" s="3" t="s">
+        <v>3530</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1383" t="s">
+        <v>3531</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1383" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{922FD461-8BF7-4ADA-A01E-4600B445E7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26EAD551-BCFA-4E53-9B3F-A0289F3BEDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10010" uniqueCount="3532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10084" uniqueCount="3558">
   <si>
     <t>Fecha</t>
   </si>
@@ -10616,6 +10616,84 @@
   </si>
   <si>
     <t>['Intervenida', 'maniobras', 'eléctrica']</t>
+  </si>
+  <si>
+    <t>Así quedó el precio de la gasolina en las principales ciudades del país para 2026, tras el ajuste anual de la Creg</t>
+  </si>
+  <si>
+    <t>https://www.portafolio.co/economia/regiones/asi-quedo-el-precio-de-la-gasolina-en-las-principales-ciudades-del-pais-para-2026-tras-el-ajuste-anual-de-la-creg-485570</t>
+  </si>
+  <si>
+    <t>['principales', 'anual']</t>
+  </si>
+  <si>
+    <t>Creg fija precios de los combustibles que regirán en 2026</t>
+  </si>
+  <si>
+    <t>https://elmeridiano.co/cordoba/pais/creg-fija-precios-de-los-combustibles-que-regiran-en-2026-kqxuac</t>
+  </si>
+  <si>
+    <t>Explosión en línea de hidrocarburos en Cenit fue por robo de combustible: Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://www.bluradio.com/regiones/santanderes/explosion-en-linea-de-hidrocarburos-en-cenit-fue-por-robo-de-combustible-ecopetrol-rg10</t>
+  </si>
+  <si>
+    <t>explosión, robo</t>
+  </si>
+  <si>
+    <t>Gobierno prepara intervención en el mercado de gas natural: asegura que hay especulación con precios</t>
+  </si>
+  <si>
+    <t>https://www.bluradio.com/economia/gobierno-prepara-intervencion-en-el-mercado-de-gas-natural-asegura-que-hay-especulacion-con-precios-rg10</t>
+  </si>
+  <si>
+    <t>Este 5 de enero de 2026 Afinia retomará mantenimientos en Bolívar</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2025/12/31/este-5-de-enero-de-2026-afinia-retomara-mantenimientos-en-bolivar/</t>
+  </si>
+  <si>
+    <t>EPM avanza en la venta de sus acciones en UNE y abre la segunda etapa del proceso</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/economia/macroeconomia/articulo/epm-avanza-en-la-venta-de-sus-acciones-en-une-y-abre-la-segunda-etapa-del-proceso/202535/</t>
+  </si>
+  <si>
+    <t>EPM avanza en la segunda etapa para vender su participación accionaria en UNE</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2025/12/31/epm-avanza-en-la-segunda-etapa-para-vender-su-participacion-accionaria-en-une/</t>
+  </si>
+  <si>
+    <t>['segunda', 'accionaria']</t>
+  </si>
+  <si>
+    <t>Inicia enajenación de acciones de EPM en Une: más de 70 se adjudicaron en primera etapa</t>
+  </si>
+  <si>
+    <t>https://www.bluradio.com/regiones/antioquia/inicia-enajenacion-de-acciones-de-epm-en-tigo-une-mas-de-70-se-adjudicaron-en-primera-etapa-rg10</t>
+  </si>
+  <si>
+    <t>Crisis laboral en ESSA: trabajadores exigen contratación directa y denuncian falta de avances en negociación colectiva</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2026/01/01/crisis-laboral-en-essa-trabajadores-exigen-contratacion-directa-y-denuncian-falta-de-avances-en-negociacion-colectiva/</t>
+  </si>
+  <si>
+    <t>['laboral', 'directa', 'colectiva']</t>
+  </si>
+  <si>
+    <t>avance, crisis, denuncian</t>
+  </si>
+  <si>
+    <t>Con dos nuevas comisionadas, la CREG vuelve a tener quorum para sesionar</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/economia/con-dos-nuevas-comisionadas-la-creg-vuelve-a-contar-con-quorum-para-sesionar-noticias-hoy/</t>
+  </si>
+  <si>
+    <t>['nuevas']</t>
   </si>
 </sst>
 </file>
@@ -11475,10 +11553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
-  <dimension ref="A1:I1383"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:I1393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1363" workbookViewId="0">
-      <selection activeCell="K1375" sqref="K1375"/>
+    <sheetView tabSelected="1" topLeftCell="A1383" workbookViewId="0">
+      <selection activeCell="D1396" sqref="D1396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48425,6 +48504,278 @@
         <v>56</v>
       </c>
     </row>
+    <row r="1384" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1384" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B1384" t="s">
+        <v>3532</v>
+      </c>
+      <c r="C1384" s="3" t="s">
+        <v>3533</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>3534</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1384" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1385" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B1385" t="s">
+        <v>3535</v>
+      </c>
+      <c r="C1385" s="3" t="s">
+        <v>3536</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1385" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1386" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B1386" t="s">
+        <v>3537</v>
+      </c>
+      <c r="C1386" s="3" t="s">
+        <v>3538</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>3539</v>
+      </c>
+      <c r="I1386" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1387" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B1387" t="s">
+        <v>3540</v>
+      </c>
+      <c r="C1387" s="3" t="s">
+        <v>3541</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1387" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1387" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1388" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B1388" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C1388" s="3" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1388" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1388" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1389" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B1389" t="s">
+        <v>3544</v>
+      </c>
+      <c r="C1389" s="3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1389" t="s">
+        <v>2661</v>
+      </c>
+      <c r="G1389" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I1389" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1390" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B1390" t="s">
+        <v>3546</v>
+      </c>
+      <c r="C1390" s="3" t="s">
+        <v>3547</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>3548</v>
+      </c>
+      <c r="G1390" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I1390" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1391" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B1391" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C1391" s="3" t="s">
+        <v>3550</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1391" t="s">
+        <v>824</v>
+      </c>
+      <c r="G1391" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1391" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1392" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B1392" t="s">
+        <v>3551</v>
+      </c>
+      <c r="C1392" s="3" t="s">
+        <v>3552</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F1392" t="s">
+        <v>3553</v>
+      </c>
+      <c r="G1392" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>3554</v>
+      </c>
+      <c r="I1392" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1393" s="1">
+        <v>46024</v>
+      </c>
+      <c r="B1393" t="s">
+        <v>3555</v>
+      </c>
+      <c r="C1393" s="3" t="s">
+        <v>3556</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1393" t="s">
+        <v>3557</v>
+      </c>
+      <c r="G1393" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1393" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26EAD551-BCFA-4E53-9B3F-A0289F3BEDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1D57E0-9CB6-4199-A140-5584988AB002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10084" uniqueCount="3558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10149" uniqueCount="3584">
   <si>
     <t>Fecha</t>
   </si>
@@ -10694,6 +10694,84 @@
   </si>
   <si>
     <t>['nuevas']</t>
+  </si>
+  <si>
+    <t>India compra por primera vez crudo colombiano bajo contrato con Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://www.diariodelsur.com.co/india-compra-por-primera-vez-crudo-colombiano-bajo-contrato-con-ecopetrol/</t>
+  </si>
+  <si>
+    <t>['primera', 'crudo', 'colombiano']</t>
+  </si>
+  <si>
+    <t>Cortes de luz intermitentes en el Centro Histórico de Cartagena, ¿qué dice Afinia?</t>
+  </si>
+  <si>
+    <t>https://www.lafm.com.co/sociedad/se-registran-cortes-de-luz-en-cartagena-por-una-sobrecarga-386883</t>
+  </si>
+  <si>
+    <t>['intermitentes']</t>
+  </si>
+  <si>
+    <t>Hidroituango multado por $753 millones: ¿daño ambiental o exceso de regulación? EPM responde y se defiende</t>
+  </si>
+  <si>
+    <t>pulzo.com/nacion/anla-impone-multa-de-753-millones-a-hidroituango-por-danos-ambientales-epm-anuncia-defensa-legal-PP4976368A</t>
+  </si>
+  <si>
+    <t>['multado', 'ambiental']</t>
+  </si>
+  <si>
+    <t>Hidroituango recibió millonaria multa por incurrir en presuntos daños ambientales: EPM anunció acciones legales</t>
+  </si>
+  <si>
+    <t>https://www.publimetro.co/noticias/2026/01/03/hidroituango-recibio-millonaria-multa-por-incurrir-en-presuntos-danos-ambientales-epm-anuncio-acciones-legales/</t>
+  </si>
+  <si>
+    <t>['millonaria', 'presuntos', 'ambientales', 'legales']</t>
+  </si>
+  <si>
+    <t>Millonaria multa a Hidroituango por presuntos daños ambientales: EPM anunció acciones legales para impugnar la sanción</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2026/01/02/millonaria-multa-a-hidroituango-por-presuntos-danos-ambientales-epm-anuncio-acciones-legales-para-impugnar-la-sancion/</t>
+  </si>
+  <si>
+    <t>['Millonaria', 'presuntos', 'ambientales', 'legales']</t>
+  </si>
+  <si>
+    <t>daños, GN</t>
+  </si>
+  <si>
+    <t>Ángela Álvarez fue anunciada como la quinta y nueva comisionada experta de la Creg</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/economia/angela-alvarez-fue-anunciada-como-la-quinta-y-nueva-comisionada-experta-de-la-creg-4299787</t>
+  </si>
+  <si>
+    <t>['quinta', 'nueva', 'comisionada', 'experta']</t>
+  </si>
+  <si>
+    <t>La Creg tiene nueva comisionada experta: Ángela Álvarez</t>
+  </si>
+  <si>
+    <t>https://www.eluniversal.com.co/colombia/2026/01/02/la-creg-tiene-nueva-comisionada-experta-angela-alvarez/</t>
+  </si>
+  <si>
+    <t>Ángela Álvarez se convirtió en la quinta comisionada de la CREG</t>
+  </si>
+  <si>
+    <t>https://www.valoraanalitik.com/angela-alvarez-creg/</t>
+  </si>
+  <si>
+    <t>['quinta']</t>
+  </si>
+  <si>
+    <t>Ángela Álvarez se posesionó como experta comisionada de la CREG</t>
+  </si>
+  <si>
+    <t>https://www.elnuevosiglo.com.co/nacion/angela-alvarez-se-posesiono-como-experta-comisionada-de-la-creg</t>
   </si>
 </sst>
 </file>
@@ -11554,10 +11632,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1393"/>
+  <dimension ref="A1:I1402"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1383" workbookViewId="0">
-      <selection activeCell="D1396" sqref="D1396"/>
+      <selection activeCell="A1399" sqref="A1399:XFD1399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -48776,6 +48854,246 @@
         <v>198</v>
       </c>
     </row>
+    <row r="1394" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1394" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B1394" t="s">
+        <v>3558</v>
+      </c>
+      <c r="C1394" s="3" t="s">
+        <v>3559</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1394" t="s">
+        <v>3560</v>
+      </c>
+      <c r="G1394" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1394" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1395" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B1395" t="s">
+        <v>3561</v>
+      </c>
+      <c r="C1395" s="3" t="s">
+        <v>3562</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1395" t="s">
+        <v>3563</v>
+      </c>
+      <c r="G1395" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1395" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1396" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B1396" t="s">
+        <v>3564</v>
+      </c>
+      <c r="C1396" s="3" t="s">
+        <v>3565</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>3566</v>
+      </c>
+      <c r="G1396" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1396" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1397" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B1397" t="s">
+        <v>3567</v>
+      </c>
+      <c r="C1397" s="3" t="s">
+        <v>3568</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>3569</v>
+      </c>
+      <c r="G1397" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>346</v>
+      </c>
+      <c r="I1397" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1398" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B1398" t="s">
+        <v>3570</v>
+      </c>
+      <c r="C1398" s="3" t="s">
+        <v>3571</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>3572</v>
+      </c>
+      <c r="G1398" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>3573</v>
+      </c>
+      <c r="I1398" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1399" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B1399" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C1399" s="3" t="s">
+        <v>3575</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>3576</v>
+      </c>
+      <c r="G1399" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1399" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1400" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B1400" t="s">
+        <v>3577</v>
+      </c>
+      <c r="C1400" s="3" t="s">
+        <v>3578</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>485</v>
+      </c>
+      <c r="G1400" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1400" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1401" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B1401" t="s">
+        <v>3579</v>
+      </c>
+      <c r="C1401" s="3" t="s">
+        <v>3580</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>3581</v>
+      </c>
+      <c r="G1401" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1401" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1402" s="1">
+        <v>46027</v>
+      </c>
+      <c r="B1402" t="s">
+        <v>3582</v>
+      </c>
+      <c r="C1402" s="3" t="s">
+        <v>3583</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1402" t="s">
+        <v>3137</v>
+      </c>
+      <c r="G1402" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1402" t="s">
+        <v>173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1D57E0-9CB6-4199-A140-5584988AB002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0527ECB6-C5CE-4945-8AEB-921420AA7B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10149" uniqueCount="3584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10215" uniqueCount="3602">
   <si>
     <t>Fecha</t>
   </si>
@@ -10772,6 +10772,60 @@
   </si>
   <si>
     <t>https://www.elnuevosiglo.com.co/nacion/angela-alvarez-se-posesiono-como-experta-comisionada-de-la-creg</t>
+  </si>
+  <si>
+    <t>Acción de Ecopetrol y preferencial de Grupo Cibest, las más negociadas de la jornada</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/finanzas/accion-de-ecopetrol-y-preferencial-de-grupo-cibest-las-mas-negociadas-de-la-jornad-4300759</t>
+  </si>
+  <si>
+    <t>['preferencial', 'negociadas']</t>
+  </si>
+  <si>
+    <t>Acción de Ecopetrol alcanzó precio de $2.020 y tuvo un avance de 5,2% en la jornada</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/finanzas/accion-de-ecopetrol-alcanzo-precio-de-2-020-y-tuvo-un-avance-de-4-9-en-la-jornada-4300872</t>
+  </si>
+  <si>
+    <t>El programa de Ecopetrol que creó 440 empleos nuevos en Cartagena</t>
+  </si>
+  <si>
+    <t>https://www.eluniversal.com.co/cartagena/2026/01/05/el-programa-de-ecopetrol-que-creo-440-empleos-nuevos-en-cartagena/</t>
+  </si>
+  <si>
+    <t>Cortes de agua en Medellín y el Valle de Aburrá: EPM anuncia los sectores afectados del 6 al 12 de enero</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/nacion/medellin/articulo/cortes-de-agua-en-medellin-y-el-valle-de-aburra-epm-anuncia-los-sectores-afectados-del-6-al-12-de-enero/202644/</t>
+  </si>
+  <si>
+    <t>Con una inversión de $24.000 millones, EPM recuperó hidroeléctrica de Sonsón, Antioquia | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://www.elcolombiano.com/antioquia/epm-recuperacion-cadena-hidroelectrica-sonson-antioquia-AE32276017</t>
+  </si>
+  <si>
+    <t>¡Vuelven a la vida! EPM reactiva hidroeléctricas en Sonsón y fortalece la energía limpia en Antioquia</t>
+  </si>
+  <si>
+    <t>https://www.pulzo.com/economia/epm-reactiva-pequenas-centrales-hidroelectricas-de-sonson-inversion-energia-limpia-y-desarrollo-local-PP4980310A</t>
+  </si>
+  <si>
+    <t>['reactiva', 'limpia']</t>
+  </si>
+  <si>
+    <t>ESSA y Sindicato de Trabajadores negocian aumento de sueldo: tendrán otros 20 días</t>
+  </si>
+  <si>
+    <t>https://www.bluradio.com/regiones/santanderes/essa-y-sindicato-de-trabajadores-negocian-aumento-de-sueldo-tendran-otros-20-dias-rg10</t>
+  </si>
+  <si>
+    <t>¿Cómo van las negociaciones entre la ESSA y Sintraelecol?</t>
+  </si>
+  <si>
+    <t>https://www.vanguardia.com/economia/local/2026/01/05/como-van-las-negociaciones-entre-la-essa-y-sintraelecol/</t>
   </si>
 </sst>
 </file>
@@ -11632,10 +11686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1402"/>
+  <dimension ref="A1:I1411"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1383" workbookViewId="0">
-      <selection activeCell="A1399" sqref="A1399:XFD1399"/>
+      <selection activeCell="A1403" sqref="A1403:I1411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49094,6 +49148,249 @@
         <v>173</v>
       </c>
     </row>
+    <row r="1403" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1403" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B1403" t="s">
+        <v>3584</v>
+      </c>
+      <c r="C1403" s="3" t="s">
+        <v>3585</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>3586</v>
+      </c>
+      <c r="G1403" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1403" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1404" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B1404" t="s">
+        <v>3587</v>
+      </c>
+      <c r="C1404" s="3" t="s">
+        <v>3588</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1404" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1404" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>644</v>
+      </c>
+      <c r="I1404" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1405" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B1405" t="s">
+        <v>3589</v>
+      </c>
+      <c r="C1405" s="3" t="s">
+        <v>3590</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G1405" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1405" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1406" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B1406" t="s">
+        <v>3542</v>
+      </c>
+      <c r="C1406" s="3" t="s">
+        <v>3543</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1406" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1406" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1406" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1407" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B1407" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C1407" s="3" t="s">
+        <v>3592</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1407" t="s">
+        <v>980</v>
+      </c>
+      <c r="G1407" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1407" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1408" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B1408" t="s">
+        <v>3593</v>
+      </c>
+      <c r="C1408" s="3" t="s">
+        <v>3594</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1408" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1408" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1408" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1409" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B1409" t="s">
+        <v>3595</v>
+      </c>
+      <c r="C1409" s="3" t="s">
+        <v>3596</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1409" t="s">
+        <v>3597</v>
+      </c>
+      <c r="G1409" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>452</v>
+      </c>
+      <c r="I1409" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1410" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B1410" t="s">
+        <v>3598</v>
+      </c>
+      <c r="C1410" s="3" t="s">
+        <v>3599</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1410" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1410" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1411" s="1">
+        <v>46028</v>
+      </c>
+      <c r="B1411" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C1411" s="3" t="s">
+        <v>3601</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F1411" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1411" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1411" t="s">
+        <v>375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0527ECB6-C5CE-4945-8AEB-921420AA7B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED41D245-BEAA-4944-8DBD-5F8DD0D29145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10215" uniqueCount="3602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10282" uniqueCount="3624">
   <si>
     <t>Fecha</t>
   </si>
@@ -10826,6 +10826,72 @@
   </si>
   <si>
     <t>https://www.vanguardia.com/economia/local/2026/01/05/como-van-las-negociaciones-entre-la-essa-y-sintraelecol/</t>
+  </si>
+  <si>
+    <t>Las elecciones y la expectativa regional, lo que ha impulsado a la acción de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/finanzas/razones-de-repunte-de-la-accion-de-ecopetrol-en-2026-4301638</t>
+  </si>
+  <si>
+    <t>['regional']</t>
+  </si>
+  <si>
+    <t>Ecopetrol acordó con JP Morgan reducción de 50% de emisión y cancelación de su ADRs</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/finanzas/ecopetrol-acordo-con-jp-morgan-reduccion-de-50-de-emision-y-cancelacion-de-su-adrs-4301574</t>
+  </si>
+  <si>
+    <t>La acción de Ecopetrol en Wall Street ha crecido más de 3,5% durante su cotización el 6 de enero</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/finanzas/comportamiento-de-la-accion-de-ecopetrol-en-wall-street-4301316</t>
+  </si>
+  <si>
+    <t>Sube la acción de Ecopetrol en Colombia el 6 de enero: es la empresa con mayor alza en la BVC</t>
+  </si>
+  <si>
+    <t>https://www.wradio.com.co/2026/01/06/sube-la-accion-de-ecopetrol-en-colombia-es-la-empresa-con-mayor-alza-en-la-bvc/</t>
+  </si>
+  <si>
+    <t>['mayor']</t>
+  </si>
+  <si>
+    <t>Polémica en Ecopetrol: presunto reparto de $213.000 millones favoreció a contratistas cercanos al poder en el Meta | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://www.elcolombiano.com/negocios/ecopetrol-polemica-contratos-millonarios-meta-CK32292440</t>
+  </si>
+  <si>
+    <t>['presunto', 'cercanos']</t>
+  </si>
+  <si>
+    <t>Ecopetrol y Grupo Cibest lideran la negociación accionaria en la Bolsa de Valores de Colombia</t>
+  </si>
+  <si>
+    <t>https://www.lafm.com.co/economia/ecopetrol-grupo-cibest-negociacion-acciones-bolsa-de-valores-de-colombia-hidrocarburos-economia-387174</t>
+  </si>
+  <si>
+    <t>Ecopetrol acuerda con JP Morgan la reducción de los costos de emisión de sus títulos en Wall Street en un 50%</t>
+  </si>
+  <si>
+    <t>https://www.portafolio.co/negocios/empresas/ecopetrol-acuerda-con-jp-morgan-la-reduccion-de-los-costos-de-emision-de-sus-titulos-en-wall-street-en-un-485836</t>
+  </si>
+  <si>
+    <t>Ecopetrol encabeza la Bolsa de Valores de Colombia tras registrar fuerte repunte en sus acciones</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2026/01/06/ecopetrol-encabeza-la-bolsa-de-valores-de-colombia-tras-registrar-fuerte-repunte-en-sus-acciones/</t>
+  </si>
+  <si>
+    <t>¿Por qué sube la acción de Ecopetrol? El impacto de la caída de Maduro en la BVC</t>
+  </si>
+  <si>
+    <t>https://www.bloomberglinea.com/latinoamerica/colombia/por-que-sube-la-accion-de-ecopetrol-el-impacto-de-la-caida-de-maduro-en-la-bvc/</t>
+  </si>
+  <si>
+    <t>bloomberglinea.com</t>
   </si>
 </sst>
 </file>
@@ -11686,10 +11752,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1411"/>
+  <dimension ref="A1:I1420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1383" workbookViewId="0">
-      <selection activeCell="A1403" sqref="A1403:I1411"/>
+    <sheetView tabSelected="1" topLeftCell="A1409" workbookViewId="0">
+      <selection activeCell="A1412" sqref="A1412:I1420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49391,6 +49457,252 @@
         <v>375</v>
       </c>
     </row>
+    <row r="1412" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1412" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B1412" t="s">
+        <v>3602</v>
+      </c>
+      <c r="C1412" s="3" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>3604</v>
+      </c>
+      <c r="G1412" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>211</v>
+      </c>
+      <c r="I1412" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1413" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B1413" t="s">
+        <v>3605</v>
+      </c>
+      <c r="C1413" s="3" t="s">
+        <v>3606</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1413" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1414" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B1414" t="s">
+        <v>3607</v>
+      </c>
+      <c r="C1414" s="3" t="s">
+        <v>3608</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>880</v>
+      </c>
+      <c r="I1414" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1415" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B1415" t="s">
+        <v>3609</v>
+      </c>
+      <c r="C1415" s="3" t="s">
+        <v>3610</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1415" t="s">
+        <v>3611</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1415" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1416" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B1416" t="s">
+        <v>3612</v>
+      </c>
+      <c r="C1416" s="3" t="s">
+        <v>3613</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1416" t="s">
+        <v>3614</v>
+      </c>
+      <c r="G1416" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I1416" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1417" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B1417" t="s">
+        <v>3615</v>
+      </c>
+      <c r="C1417" s="3" t="s">
+        <v>3616</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>1715</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1417" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1418" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B1418" t="s">
+        <v>3617</v>
+      </c>
+      <c r="C1418" s="3" t="s">
+        <v>3618</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1418" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1418" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1418" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1419" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B1419" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C1419" s="3" t="s">
+        <v>3620</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1419" t="s">
+        <v>478</v>
+      </c>
+      <c r="G1419" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1419" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1420" s="1">
+        <v>46029</v>
+      </c>
+      <c r="B1420" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C1420" s="3" t="s">
+        <v>3622</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>3623</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1420" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1420" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>2947</v>
+      </c>
+      <c r="I1420" t="s">
+        <v>3623</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED41D245-BEAA-4944-8DBD-5F8DD0D29145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{40171824-7CC5-4401-AA0E-9AE271A6B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10282" uniqueCount="3624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10303" uniqueCount="3631">
   <si>
     <t>Fecha</t>
   </si>
@@ -10892,6 +10892,27 @@
   </si>
   <si>
     <t>bloomberglinea.com</t>
+  </si>
+  <si>
+    <t>Sindicatos de Ecopetrol denunciaron capítulos de Convención Colectiva del Trabajo</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/economia/sindicatos-de-ecopetrol-denunciaron-capitulos-de-convencion-colectiva-del-trabajo-4302343</t>
+  </si>
+  <si>
+    <t>Gobierno busca que personas y empresas paguen más por energía para cubrir millonaria deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://www.wradio.com.co/2026/01/08/gobierno-busca-que-personas-y-empresas-paguen-mas-por-energia-para-cubrir-millonaria-deuda-de-air-e/</t>
+  </si>
+  <si>
+    <t>El gobierno Petro alista medida para que los usuarios de energía paguen de su bolsillo por el descalabro de Air-e</t>
+  </si>
+  <si>
+    <t>https://www.portafolio.co/energia/el-gobierno-petro-alista-medida-para-que-los-usuarios-de-energia-paguen-de-su-bolsillo-por-el-descalabro-de-air-e-485890</t>
+  </si>
+  <si>
+    <t>['medida']</t>
   </si>
 </sst>
 </file>
@@ -11752,10 +11773,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1420"/>
+  <dimension ref="A1:I1423"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1409" workbookViewId="0">
-      <selection activeCell="A1412" sqref="A1412:I1420"/>
+      <selection activeCell="E1430" sqref="E1430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49703,6 +49724,84 @@
         <v>3623</v>
       </c>
     </row>
+    <row r="1421" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1421" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B1421" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C1421" s="3" t="s">
+        <v>3625</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1421" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1421" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1421" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1422" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B1422" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C1422" s="3" t="s">
+        <v>3627</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G1422" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1422" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1423" s="1">
+        <v>46030</v>
+      </c>
+      <c r="B1423" t="s">
+        <v>3628</v>
+      </c>
+      <c r="C1423" s="3" t="s">
+        <v>3629</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>3630</v>
+      </c>
+      <c r="G1423" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1423" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40171824-7CC5-4401-AA0E-9AE271A6B5B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F3F7CF-3376-4822-AFC1-72A8D119AB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
   <sheets>
     <sheet name="noticias_enfragen" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">noticias_enfragen!$A$1:$I$1423</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10303" uniqueCount="3631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10468" uniqueCount="3690">
   <si>
     <t>Fecha</t>
   </si>
@@ -10913,6 +10916,183 @@
   </si>
   <si>
     <t>['medida']</t>
+  </si>
+  <si>
+    <t>Afinia avanza en mejoras del servicio eléctrico en barrios de Barranco de Loba</t>
+  </si>
+  <si>
+    <t>https://www.elheraldo.co/region/2026/01/08/afinia-avanza-en-mejoras-del-servicio-electrico-en-barrios-de-barranco-de-loba/</t>
+  </si>
+  <si>
+    <t>Afinia desconecta asentamiento en La Apartada por conexiones ilegales y riesgos eléctricos</t>
+  </si>
+  <si>
+    <t>https://www.chicanoticias.com/2026/01/08/afinia-conexiones-ilegales/</t>
+  </si>
+  <si>
+    <t>['ilegales', 'eléctricos']</t>
+  </si>
+  <si>
+    <t>Región Caribe | Air-e notifica a los usuarios que el precio del kilovatio hora no va a subir para enero de 2026</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/colombia/barranquilla/air-e-mantiene-estable-la-tarifa-de-energia-para-atlantico-magdalena-y-la-guajira-en-enero-de-2026-el-valor-del-kilovatio-hora-no-va-a-subir-3522917</t>
+  </si>
+  <si>
+    <t>['notifica']</t>
+  </si>
+  <si>
+    <t>Air-e anunció que en 2026 no subirá las tarifas de energía para los usuarios de Atlántico, Magdalena y La Guajira</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/economia/sectores/air-e-anuncio-que-en-2026-no-subira-las-tarifas-de-energia-para-los-usuarios-de-atlantico-magdalena-y-la-guajira-3522883</t>
+  </si>
+  <si>
+    <t>Gobierno propone aumento en la tarifa de energía para cubrir deuda de Air-e y proteger el sistema eléctrico</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/economia/sectores/gobierno-propone-aumento-en-la-tarifa-de-energia-para-cubrir-deuda-de-air-e-y-proteger-el-sistema-electrico-3522752</t>
+  </si>
+  <si>
+    <t>Air-e asegura tarifa de energía estable en 2026, pero deuda billonaria presiona al sistema</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/economia/air-e-asegura-tarifa-de-energia-estable-en-2026-pero-deuda-billonaria-presiona-al-sistema/</t>
+  </si>
+  <si>
+    <t>['estable', 'deuda', 'billonaria']</t>
+  </si>
+  <si>
+    <t>MinMinas busca alza de tarifas de energía para garantizar servicio ante deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/economia/minminas-propone-alza-de-tarifas-de-energia-para-garantizar-servicio-por-deuda-de-air-e-4302792</t>
+  </si>
+  <si>
+    <t>Air-e Intervenida anunció que la tarifa de energía no subirá en 2026 en el Caribe</t>
+  </si>
+  <si>
+    <t>Ligas de usuarios reaccionan al plan del Gobierno para cubrir la deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/08/gremios-reaccionan-al-plan-del-gobierno-para-cubrir-la-deuda-de-air-e/</t>
+  </si>
+  <si>
+    <t>MinMinas busca alza de tarifas de energía para garantizar servicio ante deuda de Air-e | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://www.elcolombiano.com/negocios/alza-tarifas-energia-en-colombia-2026-OE32368655</t>
+  </si>
+  <si>
+    <t>Gobierno plantea que usuarios asuman vía tarifa deuda de $2,5 billones de Air-e</t>
+  </si>
+  <si>
+    <t>https://www.elheraldo.co/atlantico/2026/01/09/gobierno-plantea-que-usuarios-asuman-via-tarifa-deuda-de-25-billones-de-air-e/</t>
+  </si>
+  <si>
+    <t>['usuarios', 'deuda']</t>
+  </si>
+  <si>
+    <t>Air-e asegura que para 2026 mantendrá estable la tarifa de energía: “$80 pesos por debajo del precio de las otras comercializadoras”</t>
+  </si>
+  <si>
+    <t>https://www.elheraldo.co/atlantico/2026/01/08/en-2026-se-mantiene-estable-la-tarifa-de-energia-de-air-e/</t>
+  </si>
+  <si>
+    <t>['Air-e', 'estable']</t>
+  </si>
+  <si>
+    <t>Colombianos pagarían más por la luz: polémica alza transitoria busca salvar al sector eléctrico tras crisis de Air-e</t>
+  </si>
+  <si>
+    <t>https://www.pulzo.com/economia/colombia-anuncia-aumento-temporal-en-tarifa-de-energia-para-cubrir-deuda-de-air-e-a-quien-afecta-y-por-que-PP4986327A</t>
+  </si>
+  <si>
+    <t>['polémica', 'transitoria', 'eléctrico']</t>
+  </si>
+  <si>
+    <t>crisis, polémica</t>
+  </si>
+  <si>
+    <t>Alza en las tarifas de energía busca garantizar pago del servicio ante deuda de Air-e, dice Ministerio de Minas</t>
+  </si>
+  <si>
+    <t>https://www.elpais.com.co/economia/alza-en-las-tarifas-de-energia-buscan-garantizar-pago-del-servicio-ante-deuda-de-air-e-dice-ministerio-de-minas-0853.html</t>
+  </si>
+  <si>
+    <t>Gobierno Petro subirá tarifa de energía de todos los colombianos para financiar billonaria deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://www.valoraanalitik.com/gobierno-petro-air-e/</t>
+  </si>
+  <si>
+    <t>['deuda']</t>
+  </si>
+  <si>
+    <t>Minminas plantea aporte obligatorio de usuarios para pagar deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2026/01/08/minminas-plantea-aporte-obligatorio-de-usuarios-para-pagar-deuda-de-air-e/</t>
+  </si>
+  <si>
+    <t>['obligatorio']</t>
+  </si>
+  <si>
+    <t>Tarifa de energía de Air-e no subirá en 2026 como alivio para los usuarios del Caribe</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2026/01/08/tarifa-de-energia-de-air-e-no-subira-en-2026-como-alivio-para-los-usuarios-del-caribe/</t>
+  </si>
+  <si>
+    <t>Gobierno Petro propone que los usuarios de energía paguen la millonaria deuda de Air-e: la crisis que podría llegar a tu factura</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2026/01/08/gobierno-petro-propone-que-los-usuarios-de-energia-paguen-la-millonaria-deuda-de-air-e-la-crisis-que-podria-llegar-a-tu-factura/</t>
+  </si>
+  <si>
+    <t>Ya está publicado el borrador de la resolución con la que el Gobierno buscaría aumentar la tarifa de energía para saldar la deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2026/01/08/ya-esta-publicado-el-borrador-de-la-resolucion-con-la-que-el-gobierno-buscaria-aumentar-la-tarifa-de-energia-para-saldar-la-deuda-de-air-e/</t>
+  </si>
+  <si>
+    <t>['publicado']</t>
+  </si>
+  <si>
+    <t>Sobretasa al servicio de energía, “salvavidas” para Air-e que pagarán los usuarios</t>
+  </si>
+  <si>
+    <t>https://zonacero.com/generales/sobretasa-al-servicio-de-energia-salvavidas-para-air-e-que-pagaran-los-usuarios</t>
+  </si>
+  <si>
+    <t>['salvavidas']</t>
+  </si>
+  <si>
+    <t>Para pagar deuda de Air-e, Minminas plantea cobro adicional de $8 al kilovatios/hora en todo el país</t>
+  </si>
+  <si>
+    <t>https://zonacero.com/generales/para-pagar-deuda-de-air-e-minminas-plantea-cobro-adicional-de-8-al-kilovatioshora-en-todo</t>
+  </si>
+  <si>
+    <t>['adicional']</t>
+  </si>
+  <si>
+    <t>“Es inadmisible”: usuarios por cobro de $8 el kWh para pagar deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://zonacero.com/generales/es-inadmisible-usuarios-por-cobro-de-8-el-kwh-para-pagar-deuda-de-air-e</t>
+  </si>
+  <si>
+    <t>['inadmisible', 'usuarios']</t>
+  </si>
+  <si>
+    <t>Air-e mantendrá en $796 el valor del kilovatio hora en enero, $80 por debajo del promedio nacional</t>
+  </si>
+  <si>
+    <t>https://zonacero.com/generales/air-e-mantendra-en-796-el-valor-del-kilovatio-hora-en-enero-80-por-debajo-del-promedio</t>
+  </si>
+  <si>
+    <t>['Air-e', 'nacional']</t>
   </si>
 </sst>
 </file>
@@ -11773,10 +11953,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1423"/>
+  <dimension ref="A1:I1446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1409" workbookViewId="0">
-      <selection activeCell="E1430" sqref="E1430"/>
+    <sheetView tabSelected="1" topLeftCell="A1419" workbookViewId="0">
+      <selection activeCell="A1424" sqref="A1424:I1446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49802,7 +49982,618 @@
         <v>17</v>
       </c>
     </row>
+    <row r="1424" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1424" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>3631</v>
+      </c>
+      <c r="C1424" s="3" t="s">
+        <v>3632</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G1424" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I1424" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1425" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>3633</v>
+      </c>
+      <c r="C1425" s="3" t="s">
+        <v>3634</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>3269</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>3635</v>
+      </c>
+      <c r="G1425" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1425" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1426" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1426" t="s">
+        <v>3636</v>
+      </c>
+      <c r="C1426" s="3" t="s">
+        <v>3637</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>3638</v>
+      </c>
+      <c r="G1426" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1426" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1427" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1427" t="s">
+        <v>3639</v>
+      </c>
+      <c r="C1427" s="3" t="s">
+        <v>3640</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1427" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1427" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1428" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1428" t="s">
+        <v>3641</v>
+      </c>
+      <c r="C1428" s="3" t="s">
+        <v>3642</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G1428" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1428" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1429" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1429" t="s">
+        <v>3643</v>
+      </c>
+      <c r="C1429" s="3" t="s">
+        <v>3644</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>3645</v>
+      </c>
+      <c r="G1429" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1429" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1430" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1430" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C1430" s="3" t="s">
+        <v>3647</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1430" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1430" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1431" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1431" t="s">
+        <v>3648</v>
+      </c>
+      <c r="C1431" s="3" t="s">
+        <v>3647</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1431" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1431" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1432" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1432" t="s">
+        <v>3649</v>
+      </c>
+      <c r="C1432" s="3" t="s">
+        <v>3650</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1432" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1432" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1433" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1433" t="s">
+        <v>3651</v>
+      </c>
+      <c r="C1433" s="3" t="s">
+        <v>3652</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1433" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1434" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1434" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C1434" s="3" t="s">
+        <v>3654</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>3655</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1435" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1435" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C1435" s="3" t="s">
+        <v>3657</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>3658</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1435" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1436" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1436" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C1436" s="3" t="s">
+        <v>3660</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>3661</v>
+      </c>
+      <c r="G1436" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>3662</v>
+      </c>
+      <c r="I1436" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1437" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1437" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C1437" s="3" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1437" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1437" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1438" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1438" t="s">
+        <v>3665</v>
+      </c>
+      <c r="C1438" s="3" t="s">
+        <v>3666</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>3667</v>
+      </c>
+      <c r="G1438" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1439" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1439" t="s">
+        <v>3668</v>
+      </c>
+      <c r="C1439" s="3" t="s">
+        <v>3669</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>3670</v>
+      </c>
+      <c r="G1439" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1439" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1440" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1440" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C1440" s="3" t="s">
+        <v>3672</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1440" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1441" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1441" t="s">
+        <v>3673</v>
+      </c>
+      <c r="C1441" s="3" t="s">
+        <v>3674</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G1441" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1441" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1442" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1442" t="s">
+        <v>3675</v>
+      </c>
+      <c r="C1442" s="3" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>3677</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1442" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1443" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1443" t="s">
+        <v>3678</v>
+      </c>
+      <c r="C1443" s="3" t="s">
+        <v>3679</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>3680</v>
+      </c>
+      <c r="G1443" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1443" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1444" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1444" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1444" s="3" t="s">
+        <v>3682</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>3683</v>
+      </c>
+      <c r="G1444" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1444" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1445" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1445" t="s">
+        <v>3684</v>
+      </c>
+      <c r="C1445" s="3" t="s">
+        <v>3685</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>3686</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1445" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1446" s="1">
+        <v>46031</v>
+      </c>
+      <c r="B1446" t="s">
+        <v>3687</v>
+      </c>
+      <c r="C1446" s="3" t="s">
+        <v>3688</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>3689</v>
+      </c>
+      <c r="G1446" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1446" t="s">
+        <v>3493</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:I1423" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F3F7CF-3376-4822-AFC1-72A8D119AB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2580563-FD3C-4152-8E83-77D39E98648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10468" uniqueCount="3690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10625" uniqueCount="3743">
   <si>
     <t>Fecha</t>
   </si>
@@ -11093,6 +11093,165 @@
   </si>
   <si>
     <t>['Air-e', 'nacional']</t>
+  </si>
+  <si>
+    <t>Trabajadores de Ecopetrol elegirán a su representante para aspirar a la Junta Directiva; los resultados se</t>
+  </si>
+  <si>
+    <t>https://www.valoraanalitik.com/trabajadores-de-ecopetrol-junta-directiva/</t>
+  </si>
+  <si>
+    <t>MinMinas evalúa importar gas desde Venezuela y revisar proyectos de regasificación</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/economia/minminas-evalua-importar-gas-desde-venezuela-y-revisar-sus-proyectos-de-regasificacion-4303328</t>
+  </si>
+  <si>
+    <t>MinMinas evalúa importar gas desde Venezuela y revisar proyectos de regasificación | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://www.elcolombiano.com/negocios/revisan-planes-de-gas-en-colombia-OK32388767</t>
+  </si>
+  <si>
+    <t>Afinia anuncia cortes programados por modernización eléctrica en Bolívar y Magdalena</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/09/afinia-avanza-en-la-modernizacion-de-la-infraestructura-electrica-en-bolivar-y-el-sur-del-magdalena/</t>
+  </si>
+  <si>
+    <t>['programados', 'eléctrica']</t>
+  </si>
+  <si>
+    <t>Consejo Gremial de Bolívar rechaza propuesta de Minminas para asumir vía tarifa deuda de Air-e y Afinia</t>
+  </si>
+  <si>
+    <t>https://www.elheraldo.co/atlantico/2026/01/09/consejo-gremial-de-bolivar-rechaza-propuesta-de-minminas-para-asumir-via-tarifa-deuda-de-air-e-y-afinia/</t>
+  </si>
+  <si>
+    <t>Empresa Air-e anunció que mantendrá “tarifas justas y estables” durante 2026 para usuarios en Atlántico, Magdalena y La Guajira</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/amp/economia/empresas/articulo/empresa-air-e-anuncio-que-mantendra-tarifas-justas-y-estables-durante-2026-para-usuarios-en-atlantico-magdalena-y-la-guajira/202600/</t>
+  </si>
+  <si>
+    <t>['Air-e', 'justas', 'estables']</t>
+  </si>
+  <si>
+    <t>¿Quién paga la deuda de Air-e? El cobro de $8 por kilovatio que divide al sector eléctrico</t>
+  </si>
+  <si>
+    <t>https://www.elespectador.com/economia/empresas/quien-paga-la-deuda-de-air-e-el-cobro-de-8-por-kilovatio-que-divide-al-sector-electrico/</t>
+  </si>
+  <si>
+    <t>Andeg señala que deuda de Air-e es de $1,6 billones pero no rechaza recargo temporal</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/economia/andeg-senala-que-deuda-de-air-e-es-de-1-6-billones-pero-no-rechaza-recargo-temporal-4303264</t>
+  </si>
+  <si>
+    <t>['temporal']</t>
+  </si>
+  <si>
+    <t>MinMinas responde por alzas de tarifa de luz para salvar a Air-e: “es temporal y solidario”</t>
+  </si>
+  <si>
+    <t>https://www.wradio.com.co/2026/01/09/minminas-responde-por-alzas-de-tarifa-de-luz-para-salvar-a-air-e-es-temporal-y-solidario/</t>
+  </si>
+  <si>
+    <t>['temporal', 'solidario']</t>
+  </si>
+  <si>
+    <t>Intenso debate a propuesta de asumir vía tarifa deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxNTUNsN3NTcld3cFhWR0ROZVJuNXdkaUpjTmR0U0pWT056TkhqbkJoRHlKQVlSTk5OdHFONHFZLWNIajI3UEtZQjN0YTVaVVlrN0E0blJSemRzbXhiZ0pCTW5zeVRKTHBORC16aDJUUzVpNS0wZ2htLWcxV0lnYjNDZHVzRmtDdlZVOTQ3ZUpycGkzdC1IaUVIQkxzQlBsX0dHOHg0Y1VDRXZvbXVsaWfSAcgBQVVfeXFMT3lUSFJ3Q053SUdLcWczYjc5YjU2YTI3dWtlTjc4TmlOWHVLa0lubXRnd0ZNVWRpUnZXLWx0V2djSzdrNG94SW1JazBjUFA0anlwbm5yRHQ4ajM0TWkzVUVnUDhCM0pnT3ZiV0JzdGNGNmVUZ1lpaHM1Ulhxd1Z5aXdpRExZRGhFRVJZLS1scHZ6a29vc0NzZFNuVlQ5clFsNWNPQzJqTW9xa1EzUVBoajM1ZnVvSFpreWFnb0E4MlVKdTVxUzRkMXY?oc=5</t>
+  </si>
+  <si>
+    <t>Asocapitales respalda proyecto para que usuarios del país asuman vía tarifa deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxNclRVTURadmpvVGdOaG5BWF9IS2VHSmVaU2NJMHlCNGFYUi1nVTJSRV9QRXBtVXV4TlVzb0xuSFc1Qk5Ld1plejZ5cmt0ckpKM2xuaGxXQkFrUVJVUjQ0N0NReFpwT21iMWpKa3dpdHNUazJUblJkNVhhUWl4ZEtyeTVOM1BSQTlfdWRmVlo5YWFOVmJUNjdSTGlCNUxZOWs2TFRJdUFWelRRU2gwQjJCUXRRZWl1dDNVMGRYMVpWLWtyYnZWWU1DTmdLdzZnZjNuOUE00gHuAUFVX3lxTFBEd1lNZ0tBbi1HeXRVU19QeFJGVGVDanNsLXVfa0d0a0xzWVVTSzk5Zk5yaGE3Q2pZb1BmcTJNdmI1REZFMVFMQUZjc2w0NUluTzdXTEFZVE04ZVlISlRtLVVHQ2xrSXhSaEt1M2VSTS1Vb0FsVlBjYmhhRDEycjlpQ0tKa0JBanBwRmJaQjdIYTkwNV9EWkNIS2l5XzBuQ1FoMWtyZG5OSUxfMDhrcTRLV2hJRnRoUzhiTlJacmVEOXJ5X3l0bEloaVo2LWZ5Z25pMDlBSEtWTHk2SHhZYkVpT053S1FXdW1QMl8zQlE?oc=5</t>
+  </si>
+  <si>
+    <t>“El problema energético del Caribe no solo es de los costeños, es de carácter nacional”: Minminas defiende proyecto para democratizar deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwJBVV95cUxORXFZb0k1OExiRWpuWDZWS1dGSDBKTDdhRW0wMVNpQnZPVUQ2Yy15aG80YURPaDlnZldwLUY0cEJkd3BvaXJLU1NxQVJkTF9IQTM2cGZEOTU4NE9hTm14QWtja3dGdFplcm1jcWYtOU90NEQ1ODRfaGdyaTJNUzBnbjAycERZMl9pd0dXalBSUXFOYUNibTE2YjZndDdOWWljQWRPQ1JUeE1EQ1hwSjRPNGVSSjRoQmxTN0trUzdLc2lsWFQwcEZDOW1qbEJmb3ZPenBDenBFVF9tSjJYV1pBYzZWU0xCc2tpczR6QkhMb1B6dmpZYzVDQVBnTEtKVHM2TVUxZk93UHY0OS1xcFlTbWpWb2pGNVpCelhZ0gG2AkFVX3lxTE1WUS1sM2QyQVJtc0NER1NTV0hadmF3Zm5aVVRLU015VVloVVNaTEVvdHdWcF9ja0VRYTdlXzQzZHhOM0ZiaFN2NDh5VmV0RldDTWtjUWlSeF9fY28ySGJqTy1ERmxBS3I4UGhPQ2lwamg3OFg1WnJscHBCRTVETDFvUDlWX2tvOG9RSHlMRUlMaUpZajI1RGItcXYyRzJWeXNfeEZSYjU1cmxTVDdJYVBmM0wtNmZBMXpKMlplWXROT1lWX1RjOUlFcDZJMTNIbjJiVE1YMXM3ejd6ZklMYmpHS3Y0UTl3VElCeWx5RGNaaWNhTG9sNGVXTzltRzJJTWNDcUxKZnFkczBvMVV2Y1RmbmRFc0RoZU1Ea3B1NG9LU0lFM2hIY2VCUXdiclZpM3JDbmZnbVE?oc=5</t>
+  </si>
+  <si>
+    <t>['energético', 'nacional']</t>
+  </si>
+  <si>
+    <t>“Si la deuda de Air-e sigue creciendo, colapsará al resto de las empresas del sistema eléctrico”: Andeg</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgJBVV95cUxPRUZfeG0tN0ZCOFp2X2hmbWlNT25ucG9WSzMzYlp1TUJmZDNxNnpweUZNSkl4dEVNY3ZDUks3NVdpdXVEUzI1emZzc0ZlcE1qRmFzX0ZyN3NvZWZLV0YyTmRNV1FDS0VuRWlwVnhmb2E5VFZhVWExY0pPVlpieFZSRFN5NGNsdFljVnhqbGRfT3htTW1hUUtLbTVwaW9IdGstQU80SHcwbW9BRjZqMFg2eUV3M3N3MnRNVFBudjVKeXpTWTVXbjlaS05JeXRwNGktUFJjaENJQW80MUVGc0o2djBReHRudHFMOHFsWmdkeTNEWEhwTHhGZW8xQVVGamRRcWJ6UXlaRktoMjgwb3lxaFJXcVhwZEhuTTNORW5qbHNnd01MNzBpT1dR0gHEAkFVX3lxTE12djlFLTFnTngtdUNPbW9zRHRPWkNmRWxmRmRHTzU2dWkwdHBVcWFnZkQ1Mm9fbU9BV2tycGhVbVpLdTNRa05zUklIWGM3aFF6MlM4czZWb01mYlBPaFJMcTlmbDBRYVEwV3NmdE5UdFF4RE8yeThWWGVYQkRsOFJmNS1jVE50MmxPXzA1UWZGV0JTTnpKNm9Tbl9qQWVjVEstZUozUS1EdmJwT0FXNW1rUHNtcmVVdk9vTUVKaGZTZ2RfdXBYZVZzVXVnX1hkS0lnSkdTMXZzVy1WUEh3Z0k3MlRZZTRmQUlQRmFzamlyN0o4cGM2WGx1WlEyUWtFWGI1Y0lDTzNiVzk1eXFMa1ZGeGo3MnBEWVp5N2JhT3BYT2lvQ2JUb2l5SWhTTE5SaXItWVdWSkROUjU3Rml6YThlQTRMNA?oc=5</t>
+  </si>
+  <si>
+    <t>Comercializadoras de energía proponen alternativas en rechazo a una posible democratización de las deudas de Air-e</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8wFBVV95cUxOSFpwTmdsMzczNjJrLThxZ1VhQ09Qa2EtWTJLT0ItWmg4YlF4SVNrLWl2TlRrZUdUc1ZUX3FlMk14Q1dVYTFaSl83aldURnVMN2czb2RHRVlKa0NuaTNZcGVER2R3RDZiN0tCaldMTlAtY05aMjd3VWVIcHlvQ3pqS3BQaUdUbDF4bzRXS09WOEw0Sl8wcW1wY250UWlUV2pTclR1V1ZqX2ZPZ215bzhwNFVCZFZzVF9kZWJTT2czT2QtUXJSVDNhTDJoS1NxdVNrVzQtMHprdkNtU0swdlFCQzZwRmhYMWdPc1NqeEJOZXFKMkHSAY4CQVVfeXFMTThuS29zc2doSk4tWE43X2JTVlhfQldFYlRTUmpka2IzcVdjdG5GOTdLQjFrdDI4Q1RXMXhnUTRseG9iVUUtOXJZaXdnb19rWms5cC1OZjNKcm5XdlBLQVRKd3NxZE9aWWE2WkZOcDZPdDFiY2kyQnk3cEQ5YzE5bGQ0LWNaZVRHS3RQOTNVQ0hFdkZNYjZYSm1Janp3TWRMeTQzbk9kZUlQR3lyNGZWWTRyWE1FVXdLa21XWG84cmxBdFFQQWt1UEdTN2hqTFNYQ0pfQXBfYUNPMDJGUlFFdVpvUHBTZ05Sb0xDa1NQSlNmSzRuZnRjd1JYLWdFZnBndjNmYkxGSURPeGtGRS1n?oc=5</t>
+  </si>
+  <si>
+    <t>Consejo Gremial de Bolívar rechaza nuevo cobro nacional para cubrir deudas de Air-e</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwAFBVV95cUxPVGJYd0hnRGZUd1U5Y2JqWTZYOERxZm80STlkY0ZUXzNYeF9Dei1Ua1ZfdXVIUXpoMEtyZG0zYVZPb0N5OGQ4Vnc0dVdWQWJJeVRDT19DVkNYMlN3RURrQy1mcFdNYWRFWW5jNHc3STB5UHVqMVp6aVJzX21LblFFN3Y0MEZ2N09jVnhfZjdjZFJTWnF0RUU0dDFZVFRtbUdTTlhKazNZOFoxV25oUzRvRGJtMTZIYVA2RmVXLWNnM3TSAcABQVVfeXFMTWtKbDJLTDQtUFNIdEo3aE9MbkVvT3E5R1A5WTlKbkFISHNZdWFBTGp2Mk12ZGhVNTMzcE9qMlExNXd3ZGMxaTlvbTJrLTJGdWNnSW12enpONDd1OElBU1hiOGhBUWppYkRuaEdUZHhRYUk5b3lWcjVMaWRJNkgtdF95ZlVQdGlwekZ2b0RhdGNrWGhwMWlXMEI0ajdpRnFDVzZuWDNrLVFiOUNjOFd5UU90NG44MXBNOHNScmVoNEdi?oc=5</t>
+  </si>
+  <si>
+    <t>['nuevo', 'nacional']</t>
+  </si>
+  <si>
+    <t>El costo de Air-e lo pagarían los usuarios: Gobierno prepara alza en la tarifa para cubrir la crisis del sistema eléctrico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7wFBVV95cUxPQTVFb01KWjV6SHBSbVJfOWlWaW9QMUZNUG5ZbVFoY293ZEtkYm9PR21XWlFGSzlDb1FfOXpsTGJqMFh3LW1MR2lDMmc4WkdfNm5JY2NDcFZ4NlFJalBnZmlZQlZzVEhSWGFFdjNnWWs0U1pNME5jUFpHd2xvZzdfOE5NVGdhQnBGN1FXakJ6SUhOdFpBbGtiRURsOU1LRmNCRDV6U3B6aW9wZGZ1eERtRm5nc3hocGdnTnpDSkdwRkhScEhFSGpfdENtX1FicEZTLU56b21BUGxSWXU4YldyZDY3TmhIcWtFb0pIeW54VdIB7wFBVV95cUxNa3pyRzBxcDc0c2R2a3BjZnhkS3NKRXNPN21EY2E5WDJnTWU1X2Q5eU5GdExwOHFzcFJpbXVXRTZ2UTJSc09Ud19FelFhbHJJaDB2UWJOOGFqbm9CSDVpMmo5YWdwLUdqUGFKcDlZWnlqODFCSlQ2ZmhyV1hnRWxaMWNnTi1Zd3E4Mjl1aHB5RFNhMjc0c0dvVmtPcEZndDJFazQ2N2dQTFdtalozV3RyXzNSNFRFM0F3WnhwWVRONWF4cDdoMlVQTVNzSkdtcGNHQTdkUjdBNkJTb2U2UlphYjNNdU0zb1M0OTI1a3lXcw?oc=5</t>
+  </si>
+  <si>
+    <t>Advierten que resolución sobre Air-e podría convertirse en un “impuesto” en la factura de energía</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0AFBVV95cUxNTHcxN0hvQ3Y4elJ1bHpkcV9pMHdiUWVkWVJRNFFXS2lPZmNWVFpWTkVoS1lVRVM2UHJ5THV5M1RMeUpiRnRKMW53V01XOUZfczE3LUMydC1yZFFSdHlEU0ZUb1B2czJvdjBCUUhQU0VoWWRVMkszTEoyb0JFMVlRekNRSURwRk5vOTZqWjlmNF9qN0NFX3Rpcy1sQUY0YVk2TEVlWDAzSkhpLVpPQW9mT2lDOHU0cFlBNmFmUllXaF9yLXY2RWtrYVZhdUdaVXVs0gHQAUFVX3lxTE55MXZ0R3JKNlMwcUhHMHJZaVR3YV9CR0RSXzVscUlSMlZsNm5pYzlXbEtTNjZCbkVMMnUtM1J0Yk5yVDJET2RLeHZNSHp0VUNONkpaUlZzNjVDVktEN2EwWGUxSGlrMERyR0wxUldIdmtzbFp1eGg3bnVDcXB1YktKV3ZzSVBBc3dvakE3Z2pGQUtpZjFZMDNFMGdqSmxYQ04yeDhJN1RVc0o0WlVMQXJuSENXUnpXWG9oVDdZbDFtNmNucXREYkZxbjFndGsxUV8?oc=5</t>
+  </si>
+  <si>
+    <t>['impuesto', '”']</t>
+  </si>
+  <si>
+    <t>Cobro extra de 8 pesos por kWh: ¿Por qué los colombianos deben asumir la deuda de Air-e?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxNaVZxYlZWUzBWT2FwcGJ6Q1M1WmZtNFpTdzlvbTFTS0M5QU1TcTZ5OEczSEdLaVZ4ckpNQjZZZkJzSnZaN3FGb1ViRS1JQ1RPcl9HSUxtekVCaGRsYkpPVHgwTW9taUdTLXdicXIxa0JPZ3NxdEFsbzdRQmd6TWY4TFktSFRZTlUzU09Hb1MyRWtkOUdfNjdYZHdPTWZuUkljMEZkNloxNVY2X3V0OGNhMDFRWXNGNGFRMUFUYmhWal9jeERZc2fSAcYBQVVfeXFMT1hXRFZjZWY3a0cwQ1hGdXJHMEdMM0FhMEtCd1NBX1NCcVpoYnkwcXpncHlDVGQyMzRLcFhQNGdVUHpIeHJCWkc2NTZNaHJObEt1WUFTR0JCbmFaN0VrWU5tVjBzaVE0Sm91blhXVjhkNE9VQTJmRTBKSTJDanFjS05YUzZKdEIyYjRGQ0RLMGVReTZ3YWFVTXlRbDVJeFFWZVNDMFNrYlpsZ3NQQ3V1cU9nZ0VQTWh1LVktN2QxWDdPY2dPMWln?oc=5</t>
+  </si>
+  <si>
+    <t>['extra']</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxOODNsR2szbGpYU2tWbWZKZnN1WVRhMWc5V2l0RDNTS284dHlKMDA2OUFpLUJsX2VDcHlxU2FhVTdTZ21GRU9YNWVGVU51U29hZzN0TENRR3lVb0RqaVJfSE1jYXllcVZnQk1ncmZUZTB6OGhJdzB2bnc4cXZwNm9ta3RrWWg0Z0kxNFFjVGdqYlBxREtEa0UxWk53dVVrRUpxaWNkR0xsRGJnYjE2OHI4UDVWM2dFa1QtM0hxQ0NPZzRsXzBiTk5FdHI3eTNKTDA?oc=5</t>
+  </si>
+  <si>
+    <t>Consejo Gremial de Bolívar rechaza que usuarios asuman deudas de Air-e a través de la tarifa eléctrica</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi4wFBVV95cUxOdi1ESlFvTXlmS2ZUM1hVZERCQjRZbUQ0bkJoSzVjQmp4WVBYSzRwd2czc3V1MlB5cndoU0d2N0F5ZEoyUlROX1R0OTV6Y0V0SERSdU9JZld0MTJYcG9TQXA1UlRRMTJ5WHgwejJXc3lRS2RiMlQ3Vml1WEd3eklDNlVVQ1VTd1VRY1BDVWlxWDBRWWZNN1EtYnA2Uk8xX3RuTlRGcVp2V1UxWVFNdGM0QjNEdTduVDQyOHBFOFJzYUZzb01MendYTnFmdVNiWmY1QUFWcUxBZVNBRkt4bUR4czVEcw?oc=5</t>
+  </si>
+  <si>
+    <t>['usuarios', 'eléctrica']</t>
+  </si>
+  <si>
+    <t>Colombianos a pagar la deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxPdzRONU1zd0JDQk9nVjR2YlNsMmc1YkhYNTVLRUJVYjY2X2tkS3JBRG95M2x3eldORHRLZ2R1SGp6QXc1RzNxaTlOcUtrZHU3UEp6bnItUVd2SUxYQklHS1hwNW80SkJiZmRvcWZLSnV6NUZobm9UVjFlVnE0b0FUcHp0SFdXNWwxSDdsa0pvSGlUZw?oc=5</t>
+  </si>
+  <si>
+    <t>['Colombianos']</t>
+  </si>
+  <si>
+    <t>Air-e mantendrá tarifas de energía en 2026 para Atlántico, Magdalena y La Guajira: está en $796 por kilovatio/hora</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxOV2FvSTNaUlhtbUV5QVZUd3VRZ29fOEsxcEpLaUpZSEdlQ1lHSmdXX016dHdrV2JwR0hqdGd4RkdoYW1mOEQyWFdHdHA4N2toR3BUR3ltV3RsYnd3enhWRTNOaV9tYzlocFc1QnlZVDF3anZZclZmSnUtX0hqOXQ1OVFCMFMxYWlOamxMTEplZE9xQ2swZno4SHBMQVM5cG03a3pPeWx1MUdlVGtSYm5ZQUJNbjF2YkJHdWk2NzA2bURvcUZBV01LVzBUT2FUdkJ0Wm9RQ1N4cGtZNHJyNm9JdC0yT09rQ05kZnhpTdIBhwJBVV95cUxONnZTdUoxaERYNGhqci1GM1lZWXV5dklkbjBPbmx6QnlsTGV4azRDSDhUandxWWIwYnczdHQwaEdSY3ZZeXdrdFJwZWUxSGo4U3dZQ0J3VVgxb1BBVzd3d3lUTFB0dkszLTJpU2pHcWlhR1c1TkNyb3hlakxtMlM5WjZuZlhaeU5yYnRfRUFRb1FNdC01WVFpbWl5aDVXd1o1aVFNempxbU1vWW1UNkF2ZTR1LXNwbERZU0JzZnR4SDRSRElZZFh5MEZpdTBUQ0NGcWVkUWZ0WWlZSG42azZHUDVHX3pTcjVuLUthaXdWVUpxMi1UZlRJX3hnZjZEdkROaFg2UTVIaw?oc=5</t>
   </si>
 </sst>
 </file>
@@ -11953,10 +12112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1446"/>
+  <dimension ref="A1:I1468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1419" workbookViewId="0">
-      <selection activeCell="A1424" sqref="A1424:I1446"/>
+    <sheetView tabSelected="1" topLeftCell="A1447" workbookViewId="0">
+      <selection activeCell="J1459" sqref="J1459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -50592,8 +50751,604 @@
         <v>3493</v>
       </c>
     </row>
+    <row r="1447" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1447" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1447" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C1447" s="3" t="s">
+        <v>3691</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1447" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1447" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1448" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1448" t="s">
+        <v>3692</v>
+      </c>
+      <c r="C1448" s="3" t="s">
+        <v>3693</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1448" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1448" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1449" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1449" t="s">
+        <v>3694</v>
+      </c>
+      <c r="C1449" s="3" t="s">
+        <v>3695</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1449" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1449" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1450" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1450" t="s">
+        <v>3696</v>
+      </c>
+      <c r="C1450" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>3698</v>
+      </c>
+      <c r="G1450" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1450" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1451" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1451" t="s">
+        <v>3699</v>
+      </c>
+      <c r="C1451" s="3" t="s">
+        <v>3700</v>
+      </c>
+      <c r="D1451" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1451" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1451" t="s">
+        <v>3667</v>
+      </c>
+      <c r="G1451" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1451" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1452" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1452" t="s">
+        <v>3701</v>
+      </c>
+      <c r="C1452" s="3" t="s">
+        <v>3702</v>
+      </c>
+      <c r="D1452" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1452" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1452" t="s">
+        <v>3703</v>
+      </c>
+      <c r="G1452" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1452" t="s">
+        <v>880</v>
+      </c>
+      <c r="I1452" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1453" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1453" t="s">
+        <v>3704</v>
+      </c>
+      <c r="C1453" s="3" t="s">
+        <v>3705</v>
+      </c>
+      <c r="D1453" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1453" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1453" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G1453" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1453" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1454" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1454" t="s">
+        <v>3706</v>
+      </c>
+      <c r="C1454" s="3" t="s">
+        <v>3707</v>
+      </c>
+      <c r="D1454" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1454" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1454" t="s">
+        <v>3708</v>
+      </c>
+      <c r="G1454" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1454" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1455" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1455" t="s">
+        <v>3709</v>
+      </c>
+      <c r="C1455" s="3" t="s">
+        <v>3710</v>
+      </c>
+      <c r="D1455" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1455" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1455" t="s">
+        <v>3711</v>
+      </c>
+      <c r="G1455" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1455" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1456" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1456" t="s">
+        <v>3712</v>
+      </c>
+      <c r="C1456" s="3" t="s">
+        <v>3713</v>
+      </c>
+      <c r="D1456" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1456" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1456" t="s">
+        <v>3667</v>
+      </c>
+      <c r="G1456" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1456" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1457" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1457" t="s">
+        <v>3714</v>
+      </c>
+      <c r="C1457" s="3" t="s">
+        <v>3715</v>
+      </c>
+      <c r="D1457" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1457" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1457" t="s">
+        <v>3667</v>
+      </c>
+      <c r="G1457" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1457" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1458" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1458" t="s">
+        <v>3716</v>
+      </c>
+      <c r="C1458" s="3" t="s">
+        <v>3717</v>
+      </c>
+      <c r="D1458" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1458" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1458" t="s">
+        <v>3718</v>
+      </c>
+      <c r="G1458" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1458" t="s">
+        <v>1206</v>
+      </c>
+      <c r="I1458" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1459" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1459" t="s">
+        <v>3719</v>
+      </c>
+      <c r="C1459" s="3" t="s">
+        <v>3720</v>
+      </c>
+      <c r="D1459" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1459" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1459" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G1459" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1459" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1460" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1460" t="s">
+        <v>3721</v>
+      </c>
+      <c r="C1460" s="3" t="s">
+        <v>3722</v>
+      </c>
+      <c r="D1460" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1460" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1460" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G1460" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1460" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1461" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1461" t="s">
+        <v>3723</v>
+      </c>
+      <c r="C1461" s="3" t="s">
+        <v>3724</v>
+      </c>
+      <c r="D1461" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1461" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1461" t="s">
+        <v>3725</v>
+      </c>
+      <c r="G1461" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1461" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1462" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1462" t="s">
+        <v>3726</v>
+      </c>
+      <c r="C1462" s="3" t="s">
+        <v>3727</v>
+      </c>
+      <c r="D1462" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1462" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1462" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G1462" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1462" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1462" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1463" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1463" t="s">
+        <v>3728</v>
+      </c>
+      <c r="C1463" s="3" t="s">
+        <v>3729</v>
+      </c>
+      <c r="D1463" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1463" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1463" t="s">
+        <v>3730</v>
+      </c>
+      <c r="G1463" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1463" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1464" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1464" t="s">
+        <v>3731</v>
+      </c>
+      <c r="C1464" s="3" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D1464" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1464" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1464" t="s">
+        <v>3733</v>
+      </c>
+      <c r="G1464" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1464" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1465" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1465" t="s">
+        <v>3671</v>
+      </c>
+      <c r="C1465" s="3" t="s">
+        <v>3734</v>
+      </c>
+      <c r="D1465" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1465" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1465" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1465" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1465" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1466" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1466" t="s">
+        <v>3735</v>
+      </c>
+      <c r="C1466" s="3" t="s">
+        <v>3736</v>
+      </c>
+      <c r="D1466" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1466" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1466" t="s">
+        <v>3737</v>
+      </c>
+      <c r="G1466" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1466" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1467" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1467" t="s">
+        <v>3738</v>
+      </c>
+      <c r="C1467" s="3" t="s">
+        <v>3739</v>
+      </c>
+      <c r="D1467" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E1467" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1467" t="s">
+        <v>3740</v>
+      </c>
+      <c r="G1467" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1467" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1468" s="1">
+        <v>46034</v>
+      </c>
+      <c r="B1468" t="s">
+        <v>3741</v>
+      </c>
+      <c r="C1468" s="3" t="s">
+        <v>3742</v>
+      </c>
+      <c r="D1468" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1468" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1468" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1468" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1468" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:I1423" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}"/>
+  <hyperlinks>
+    <hyperlink ref="C1456" r:id="rId1" display="https://news.google.com/rss/articles/CBMirgFBVV95cUxNTUNsN3NTcld3cFhWR0ROZVJuNXdkaUpjTmR0U0pWT056TkhqbkJoRHlKQVlSTk5OdHFONHFZLWNIajI3UEtZQjN0YTVaVVlrN0E0blJSemRzbXhiZ0pCTW5zeVRKTHBORC16aDJUUzVpNS0wZ2htLWcxV0lnYjNDZHVzRmtDdlZVOTQ3ZUpycGkzdC1IaUVIQkxzQlBsX0dHOHg0Y1VDRXZvbXVsaWfSAcgBQVVfeXFMT3lUSFJ3Q053SUdLcWczYjc5YjU2YTI3dWtlTjc4TmlOWHVLa0lubXRnd0ZNVWRpUnZXLWx0V2djSzdrNG94SW1JazBjUFA0anlwbm5yRHQ4ajM0TWkzVUVnUDhCM0pnT3ZiV0JzdGNGNmVUZ1lpaHM1Ulhxd1Z5aXdpRExZRGhFRVJZLS1scHZ6a29vc0NzZFNuVlQ5clFsNWNPQzJqTW9xa1EzUVBoajM1ZnVvSFpreWFnb0E4MlVKdTVxUzRkMXY?oc=5" xr:uid="{4401F002-1983-4AFE-8DCF-EC7C89C9EBDA}"/>
+    <hyperlink ref="C1457" r:id="rId2" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxNclRVTURadmpvVGdOaG5BWF9IS2VHSmVaU2NJMHlCNGFYUi1nVTJSRV9QRXBtVXV4TlVzb0xuSFc1Qk5Ld1plejZ5cmt0ckpKM2xuaGxXQkFrUVJVUjQ0N0NReFpwT21iMWpKa3dpdHNUazJUblJkNVhhUWl4ZEtyeTVOM1BSQTlfdWRmVlo5YWFOVmJUNjdSTGlCNUxZOWs2TFRJdUFWelRRU2gwQjJCUXRRZWl1dDNVMGRYMVpWLWtyYnZWWU1DTmdLdzZnZjNuOUE00gHuAUFVX3lxTFBEd1lNZ0tBbi1HeXRVU19QeFJGVGVDanNsLXVfa0d0a0xzWVVTSzk5Zk5yaGE3Q2pZb1BmcTJNdmI1REZFMVFMQUZjc2w0NUluTzdXTEFZVE04ZVlISlRtLVVHQ2xrSXhSaEt1M2VSTS1Vb0FsVlBjYmhhRDEycjlpQ0tKa0JBanBwRmJaQjdIYTkwNV9EWkNIS2l5XzBuQ1FoMWtyZG5OSUxfMDhrcTRLV2hJRnRoUzhiTlJacmVEOXJ5X3l0bEloaVo2LWZ5Z25pMDlBSEtWTHk2SHhZYkVpT053S1FXdW1QMl8zQlE?oc=5" xr:uid="{8D4DA27F-419D-4529-9139-0AAAB880E1F1}"/>
+    <hyperlink ref="C1458" r:id="rId3" display="https://news.google.com/rss/articles/CBMimwJBVV95cUxORXFZb0k1OExiRWpuWDZWS1dGSDBKTDdhRW0wMVNpQnZPVUQ2Yy15aG80YURPaDlnZldwLUY0cEJkd3BvaXJLU1NxQVJkTF9IQTM2cGZEOTU4NE9hTm14QWtja3dGdFplcm1jcWYtOU90NEQ1ODRfaGdyaTJNUzBnbjAycERZMl9pd0dXalBSUXFOYUNibTE2YjZndDdOWWljQWRPQ1JUeE1EQ1hwSjRPNGVSSjRoQmxTN0trUzdLc2lsWFQwcEZDOW1qbEJmb3ZPenBDenBFVF9tSjJYV1pBYzZWU0xCc2tpczR6QkhMb1B6dmpZYzVDQVBnTEtKVHM2TVUxZk93UHY0OS1xcFlTbWpWb2pGNVpCelhZ0gG2AkFVX3lxTE1WUS1sM2QyQVJtc0NER1NTV0hadmF3Zm5aVVRLU015VVloVVNaTEVvdHdWcF9ja0VRYTdlXzQzZHhOM0ZiaFN2NDh5VmV0RldDTWtjUWlSeF9fY28ySGJqTy1ERmxBS3I4UGhPQ2lwamg3OFg1WnJscHBCRTVETDFvUDlWX2tvOG9RSHlMRUlMaUpZajI1RGItcXYyRzJWeXNfeEZSYjU1cmxTVDdJYVBmM0wtNmZBMXpKMlplWXROT1lWX1RjOUlFcDZJMTNIbjJiVE1YMXM3ejd6ZklMYmpHS3Y0UTl3VElCeWx5RGNaaWNhTG9sNGVXTzltRzJJTWNDcUxKZnFkczBvMVV2Y1RmbmRFc0RoZU1Ea3B1NG9LU0lFM2hIY2VCUXdiclZpM3JDbmZnbVE?oc=5" xr:uid="{A93A78F1-117E-4762-B9E9-301CB3064093}"/>
+    <hyperlink ref="C1459" r:id="rId4" display="https://news.google.com/rss/articles/CBMiqgJBVV95cUxPRUZfeG0tN0ZCOFp2X2hmbWlNT25ucG9WSzMzYlp1TUJmZDNxNnpweUZNSkl4dEVNY3ZDUks3NVdpdXVEUzI1emZzc0ZlcE1qRmFzX0ZyN3NvZWZLV0YyTmRNV1FDS0VuRWlwVnhmb2E5VFZhVWExY0pPVlpieFZSRFN5NGNsdFljVnhqbGRfT3htTW1hUUtLbTVwaW9IdGstQU80SHcwbW9BRjZqMFg2eUV3M3N3MnRNVFBudjVKeXpTWTVXbjlaS05JeXRwNGktUFJjaENJQW80MUVGc0o2djBReHRudHFMOHFsWmdkeTNEWEhwTHhGZW8xQVVGamRRcWJ6UXlaRktoMjgwb3lxaFJXcVhwZEhuTTNORW5qbHNnd01MNzBpT1dR0gHEAkFVX3lxTE12djlFLTFnTngtdUNPbW9zRHRPWkNmRWxmRmRHTzU2dWkwdHBVcWFnZkQ1Mm9fbU9BV2tycGhVbVpLdTNRa05zUklIWGM3aFF6MlM4czZWb01mYlBPaFJMcTlmbDBRYVEwV3NmdE5UdFF4RE8yeThWWGVYQkRsOFJmNS1jVE50MmxPXzA1UWZGV0JTTnpKNm9Tbl9qQWVjVEstZUozUS1EdmJwT0FXNW1rUHNtcmVVdk9vTUVKaGZTZ2RfdXBYZVZzVXVnX1hkS0lnSkdTMXZzVy1WUEh3Z0k3MlRZZTRmQUlQRmFzamlyN0o4cGM2WGx1WlEyUWtFWGI1Y0lDTzNiVzk1eXFMa1ZGeGo3MnBEWVp5N2JhT3BYT2lvQ2JUb2l5SWhTTE5SaXItWVdWSkROUjU3Rml6YThlQTRMNA?oc=5" xr:uid="{FFCD970F-6038-4FD6-A275-4DB394AE0904}"/>
+    <hyperlink ref="C1460" r:id="rId5" display="https://news.google.com/rss/articles/CBMi8wFBVV95cUxOSFpwTmdsMzczNjJrLThxZ1VhQ09Qa2EtWTJLT0ItWmg4YlF4SVNrLWl2TlRrZUdUc1ZUX3FlMk14Q1dVYTFaSl83aldURnVMN2czb2RHRVlKa0NuaTNZcGVER2R3RDZiN0tCaldMTlAtY05aMjd3VWVIcHlvQ3pqS3BQaUdUbDF4bzRXS09WOEw0Sl8wcW1wY250UWlUV2pTclR1V1ZqX2ZPZ215bzhwNFVCZFZzVF9kZWJTT2czT2QtUXJSVDNhTDJoS1NxdVNrVzQtMHprdkNtU0swdlFCQzZwRmhYMWdPc1NqeEJOZXFKMkHSAY4CQVVfeXFMTThuS29zc2doSk4tWE43X2JTVlhfQldFYlRTUmpka2IzcVdjdG5GOTdLQjFrdDI4Q1RXMXhnUTRseG9iVUUtOXJZaXdnb19rWms5cC1OZjNKcm5XdlBLQVRKd3NxZE9aWWE2WkZOcDZPdDFiY2kyQnk3cEQ5YzE5bGQ0LWNaZVRHS3RQOTNVQ0hFdkZNYjZYSm1Janp3TWRMeTQzbk9kZUlQR3lyNGZWWTRyWE1FVXdLa21XWG84cmxBdFFQQWt1UEdTN2hqTFNYQ0pfQXBfYUNPMDJGUlFFdVpvUHBTZ05Sb0xDa1NQSlNmSzRuZnRjd1JYLWdFZnBndjNmYkxGSURPeGtGRS1n?oc=5" xr:uid="{D5BDBCCF-D902-4A8F-8973-AFD88E36A787}"/>
+    <hyperlink ref="C1461" r:id="rId6" display="https://news.google.com/rss/articles/CBMiwAFBVV95cUxPVGJYd0hnRGZUd1U5Y2JqWTZYOERxZm80STlkY0ZUXzNYeF9Dei1Ua1ZfdXVIUXpoMEtyZG0zYVZPb0N5OGQ4Vnc0dVdWQWJJeVRDT19DVkNYMlN3RURrQy1mcFdNYWRFWW5jNHc3STB5UHVqMVp6aVJzX21LblFFN3Y0MEZ2N09jVnhfZjdjZFJTWnF0RUU0dDFZVFRtbUdTTlhKazNZOFoxV25oUzRvRGJtMTZIYVA2RmVXLWNnM3TSAcABQVVfeXFMTWtKbDJLTDQtUFNIdEo3aE9MbkVvT3E5R1A5WTlKbkFISHNZdWFBTGp2Mk12ZGhVNTMzcE9qMlExNXd3ZGMxaTlvbTJrLTJGdWNnSW12enpONDd1OElBU1hiOGhBUWppYkRuaEdUZHhRYUk5b3lWcjVMaWRJNkgtdF95ZlVQdGlwekZ2b0RhdGNrWGhwMWlXMEI0ajdpRnFDVzZuWDNrLVFiOUNjOFd5UU90NG44MXBNOHNScmVoNEdi?oc=5" xr:uid="{A40496E4-F2DD-400A-A00F-697B9D9BB03E}"/>
+    <hyperlink ref="C1462" r:id="rId7" display="https://news.google.com/rss/articles/CBMi7wFBVV95cUxPQTVFb01KWjV6SHBSbVJfOWlWaW9QMUZNUG5ZbVFoY293ZEtkYm9PR21XWlFGSzlDb1FfOXpsTGJqMFh3LW1MR2lDMmc4WkdfNm5JY2NDcFZ4NlFJalBnZmlZQlZzVEhSWGFFdjNnWWs0U1pNME5jUFpHd2xvZzdfOE5NVGdhQnBGN1FXakJ6SUhOdFpBbGtiRURsOU1LRmNCRDV6U3B6aW9wZGZ1eERtRm5nc3hocGdnTnpDSkdwRkhScEhFSGpfdENtX1FicEZTLU56b21BUGxSWXU4YldyZDY3TmhIcWtFb0pIeW54VdIB7wFBVV95cUxNa3pyRzBxcDc0c2R2a3BjZnhkS3NKRXNPN21EY2E5WDJnTWU1X2Q5eU5GdExwOHFzcFJpbXVXRTZ2UTJSc09Ud19FelFhbHJJaDB2UWJOOGFqbm9CSDVpMmo5YWdwLUdqUGFKcDlZWnlqODFCSlQ2ZmhyV1hnRWxaMWNnTi1Zd3E4Mjl1aHB5RFNhMjc0c0dvVmtPcEZndDJFazQ2N2dQTFdtalozV3RyXzNSNFRFM0F3WnhwWVRONWF4cDdoMlVQTVNzSkdtcGNHQTdkUjdBNkJTb2U2UlphYjNNdU0zb1M0OTI1a3lXcw?oc=5" xr:uid="{5AB21C91-8EE1-4F9B-9C0C-BED5EC164106}"/>
+    <hyperlink ref="C1463" r:id="rId8" display="https://news.google.com/rss/articles/CBMi0AFBVV95cUxNTHcxN0hvQ3Y4elJ1bHpkcV9pMHdiUWVkWVJRNFFXS2lPZmNWVFpWTkVoS1lVRVM2UHJ5THV5M1RMeUpiRnRKMW53V01XOUZfczE3LUMydC1yZFFSdHlEU0ZUb1B2czJvdjBCUUhQU0VoWWRVMkszTEoyb0JFMVlRekNRSURwRk5vOTZqWjlmNF9qN0NFX3Rpcy1sQUY0YVk2TEVlWDAzSkhpLVpPQW9mT2lDOHU0cFlBNmFmUllXaF9yLXY2RWtrYVZhdUdaVXVs0gHQAUFVX3lxTE55MXZ0R3JKNlMwcUhHMHJZaVR3YV9CR0RSXzVscUlSMlZsNm5pYzlXbEtTNjZCbkVMMnUtM1J0Yk5yVDJET2RLeHZNSHp0VUNONkpaUlZzNjVDVktEN2EwWGUxSGlrMERyR0wxUldIdmtzbFp1eGg3bnVDcXB1YktKV3ZzSVBBc3dvakE3Z2pGQUtpZjFZMDNFMGdqSmxYQ04yeDhJN1RVc0o0WlVMQXJuSENXUnpXWG9oVDdZbDFtNmNucXREYkZxbjFndGsxUV8?oc=5" xr:uid="{BD893F39-CA51-40B5-BEE9-8A23386B3E43}"/>
+    <hyperlink ref="C1464" r:id="rId9" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxNaVZxYlZWUzBWT2FwcGJ6Q1M1WmZtNFpTdzlvbTFTS0M5QU1TcTZ5OEczSEdLaVZ4ckpNQjZZZkJzSnZaN3FGb1ViRS1JQ1RPcl9HSUxtekVCaGRsYkpPVHgwTW9taUdTLXdicXIxa0JPZ3NxdEFsbzdRQmd6TWY4TFktSFRZTlUzU09Hb1MyRWtkOUdfNjdYZHdPTWZuUkljMEZkNloxNVY2X3V0OGNhMDFRWXNGNGFRMUFUYmhWal9jeERZc2fSAcYBQVVfeXFMT1hXRFZjZWY3a0cwQ1hGdXJHMEdMM0FhMEtCd1NBX1NCcVpoYnkwcXpncHlDVGQyMzRLcFhQNGdVUHpIeHJCWkc2NTZNaHJObEt1WUFTR0JCbmFaN0VrWU5tVjBzaVE0Sm91blhXVjhkNE9VQTJmRTBKSTJDanFjS05YUzZKdEIyYjRGQ0RLMGVReTZ3YWFVTXlRbDVJeFFWZVNDMFNrYlpsZ3NQQ3V1cU9nZ0VQTWh1LVktN2QxWDdPY2dPMWln?oc=5" xr:uid="{9C869F15-E0FC-404B-9514-7B6508F666E4}"/>
+    <hyperlink ref="C1465" r:id="rId10" display="https://news.google.com/rss/articles/CBMizwFBVV95cUxOODNsR2szbGpYU2tWbWZKZnN1WVRhMWc5V2l0RDNTS284dHlKMDA2OUFpLUJsX2VDcHlxU2FhVTdTZ21GRU9YNWVGVU51U29hZzN0TENRR3lVb0RqaVJfSE1jYXllcVZnQk1ncmZUZTB6OGhJdzB2bnc4cXZwNm9ta3RrWWg0Z0kxNFFjVGdqYlBxREtEa0UxWk53dVVrRUpxaWNkR0xsRGJnYjE2OHI4UDVWM2dFa1QtM0hxQ0NPZzRsXzBiTk5FdHI3eTNKTDA?oc=5" xr:uid="{58960A75-91A3-4105-AE4E-5353D60744FB}"/>
+    <hyperlink ref="C1466" r:id="rId11" display="https://news.google.com/rss/articles/CBMi4wFBVV95cUxOdi1ESlFvTXlmS2ZUM1hVZERCQjRZbUQ0bkJoSzVjQmp4WVBYSzRwd2czc3V1MlB5cndoU0d2N0F5ZEoyUlROX1R0OTV6Y0V0SERSdU9JZld0MTJYcG9TQXA1UlRRMTJ5WHgwejJXc3lRS2RiMlQ3Vml1WEd3eklDNlVVQ1VTd1VRY1BDVWlxWDBRWWZNN1EtYnA2Uk8xX3RuTlRGcVp2V1UxWVFNdGM0QjNEdTduVDQyOHBFOFJzYUZzb01MendYTnFmdVNiWmY1QUFWcUxBZVNBRkt4bUR4czVEcw?oc=5" xr:uid="{AC8779E6-75D4-4583-AD5A-26BE648E449E}"/>
+    <hyperlink ref="C1467" r:id="rId12" xr:uid="{E0E1D099-A659-4C2D-A537-181C67D82233}"/>
+    <hyperlink ref="C1468" r:id="rId13" display="https://news.google.com/rss/articles/CBMi7AFBVV95cUxOV2FvSTNaUlhtbUV5QVZUd3VRZ29fOEsxcEpLaUpZSEdlQ1lHSmdXX016dHdrV2JwR0hqdGd4RkdoYW1mOEQyWFdHdHA4N2toR3BUR3ltV3RsYnd3enhWRTNOaV9tYzlocFc1QnlZVDF3anZZclZmSnUtX0hqOXQ1OVFCMFMxYWlOamxMTEplZE9xQ2swZno4SHBMQVM5cG03a3pPeWx1MUdlVGtSYm5ZQUJNbjF2YkJHdWk2NzA2bURvcUZBV01LVzBUT2FUdkJ0Wm9RQ1N4cGtZNHJyNm9JdC0yT09rQ05kZnhpTdIBhwJBVV95cUxONnZTdUoxaERYNGhqci1GM1lZWXV5dklkbjBPbmx6QnlsTGV4azRDSDhUandxWWIwYnczdHQwaEdSY3ZZeXdrdFJwZWUxSGo4U3dZQ0J3VVgxb1BBVzd3d3lUTFB0dkszLTJpU2pHcWlhR1c1TkNyb3hlakxtMlM5WjZuZlhaeU5yYnRfRUFRb1FNdC01WVFpbWl5aDVXd1o1aVFNempxbU1vWW1UNkF2ZTR1LXNwbERZU0JzZnR4SDRSRElZZFh5MEZpdTBUQ0NGcWVkUWZ0WWlZSG42azZHUDVHX3pTcjVuLUthaXdWVUpxMi1UZlRJX3hnZjZEdkROaFg2UTVIaw?oc=5" xr:uid="{4216D335-A398-4630-871D-A20618A60A07}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2580563-FD3C-4152-8E83-77D39E98648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29F1335-8051-48ED-9046-3659B92D568E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10625" uniqueCount="3743">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10647" uniqueCount="3751">
   <si>
     <t>Fecha</t>
   </si>
@@ -11252,6 +11252,30 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxOV2FvSTNaUlhtbUV5QVZUd3VRZ29fOEsxcEpLaUpZSEdlQ1lHSmdXX016dHdrV2JwR0hqdGd4RkdoYW1mOEQyWFdHdHA4N2toR3BUR3ltV3RsYnd3enhWRTNOaV9tYzlocFc1QnlZVDF3anZZclZmSnUtX0hqOXQ1OVFCMFMxYWlOamxMTEplZE9xQ2swZno4SHBMQVM5cG03a3pPeWx1MUdlVGtSYm5ZQUJNbjF2YkJHdWk2NzA2bURvcUZBV01LVzBUT2FUdkJ0Wm9RQ1N4cGtZNHJyNm9JdC0yT09rQ05kZnhpTdIBhwJBVV95cUxONnZTdUoxaERYNGhqci1GM1lZWXV5dklkbjBPbmx6QnlsTGV4azRDSDhUandxWWIwYnczdHQwaEdSY3ZZeXdrdFJwZWUxSGo4U3dZQ0J3VVgxb1BBVzd3d3lUTFB0dkszLTJpU2pHcWlhR1c1TkNyb3hlakxtMlM5WjZuZlhaeU5yYnRfRUFRb1FNdC01WVFpbWl5aDVXd1o1aVFNempxbU1vWW1UNkF2ZTR1LXNwbERZU0JzZnR4SDRSRElZZFh5MEZpdTBUQ0NGcWVkUWZ0WWlZSG42azZHUDVHX3pTcjVuLUthaXdWVUpxMi1UZlRJX3hnZjZEdkROaFg2UTVIaw?oc=5</t>
+  </si>
+  <si>
+    <t>Operarios de Afinia se accidentaron en el sur de Sucre y sufrieron lesiones leves</t>
+  </si>
+  <si>
+    <t>https://www.elheraldo.co/sucre/2026/01/12/operarios-de-afinia-se-accidentaron-en-el-sur-de-sucre-y-sufrieron-lesiones-leves/</t>
+  </si>
+  <si>
+    <t>['leves']</t>
+  </si>
+  <si>
+    <t>Piden soluciones para Afinia tras polémica propuesta para pagar deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://www.eluniversal.com.co/cartagena/2026/01/12/piden-soluciones-para-afinia-tras-polemica-propuesta-para-pagar-deuda-de-air-e/</t>
+  </si>
+  <si>
+    <t>['polémica']</t>
+  </si>
+  <si>
+    <t>Air-e realizará labores de poda y mejora de redes eléctricas este martes en Pendales y Soledad</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2026/01/12/air-e-realizara-labores-de-poda-y-mejora-de-redes-electricas-este-martes-en-pendales-y-soledad/</t>
   </si>
 </sst>
 </file>
@@ -12112,10 +12136,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1468"/>
+  <dimension ref="A1:I1471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1447" workbookViewId="0">
-      <selection activeCell="J1459" sqref="J1459"/>
+    <sheetView tabSelected="1" topLeftCell="A1456" workbookViewId="0">
+      <selection activeCell="A1469" sqref="A1469:I1471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51330,6 +51354,87 @@
       </c>
       <c r="I1468" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1469" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B1469" t="s">
+        <v>3743</v>
+      </c>
+      <c r="C1469" t="s">
+        <v>3744</v>
+      </c>
+      <c r="D1469" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1469" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1469" t="s">
+        <v>3745</v>
+      </c>
+      <c r="G1469" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1469" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1470" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B1470" t="s">
+        <v>3746</v>
+      </c>
+      <c r="C1470" t="s">
+        <v>3747</v>
+      </c>
+      <c r="D1470" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1470" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1470" t="s">
+        <v>3748</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1470" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I1470" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1471" s="1">
+        <v>46035</v>
+      </c>
+      <c r="B1471" t="s">
+        <v>3749</v>
+      </c>
+      <c r="C1471" t="s">
+        <v>3750</v>
+      </c>
+      <c r="D1471" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1471" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1471" t="s">
+        <v>2964</v>
+      </c>
+      <c r="G1471" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1471" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29F1335-8051-48ED-9046-3659B92D568E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8238712F-7B41-4A72-A68D-5A251E62CE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10647" uniqueCount="3751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10775" uniqueCount="3795">
   <si>
     <t>Fecha</t>
   </si>
@@ -11276,6 +11276,138 @@
   </si>
   <si>
     <t>https://diariolalibertad.com/sitio/2026/01/12/air-e-realizara-labores-de-poda-y-mejora-de-redes-electricas-este-martes-en-pendales-y-soledad/</t>
+  </si>
+  <si>
+    <t>Trabajadores de Ecopetrol piden frenar la elección del representante de los trabajadores en junta directiva por presuntas irregularidades</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/economia/sectores/trabajadores-de-ecopetrol-piden-frenar-la-eleccion-del-representante-de-los-trabajadores-en-junta-directiva-por-presuntas-irregularidades-3523926</t>
+  </si>
+  <si>
+    <t>['directiva', 'presuntas']</t>
+  </si>
+  <si>
+    <t>Juez niega medida provisional sobre elección del representante de trabajadores en Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxOQmZsWmg5ZG9tNGVqVnhUMzNmM0tMUEZEQThGN0kxYnBVbmUtR2JYZnhleHZQWlczRm5pSG5pMlpaZDg3M1RkN1RTVWxqN1ZzMkRiQ19aLXduUlRJbXBqYk9NVThseGdTMjJoNzRVeFltVDF1MEFvekVQemhOT1piZ3pfM1UwNTJkSHhpbnhkcEM5MjFXSDJqYnFoV0RNSE5fVVYwd1NTdUctTnZmQ3c3STJHVDVEQ3pJRVJlS19sUjl1OFZY0gHYAUFVX3lxTE4tdW5rWTVSNDlfY2l6YXQ5ZEcyVVFKQktKd1dsSUxBNG5oU1VOSDNWS2xYek5GdUR2WXdzNmQtZHV5UkRRa3lYLTVldWNPTlA2UUhSdURibVotX0NIVmljS1p4Si0xUG9qV0txUHlGLUJuNzQ3ME50T0RnVTZCSkFXMDRuY0lvLWxpZDZ4MGtlNERjRmZwRlBRT1RLQ2QzdFM0bUVNM1dWc2JHbXVjb3lBM01DckZ6MTdyaGhFSW53MU5fcVFVTXV5ZkFfdE9lWkdSemxCSktfQg?oc=5</t>
+  </si>
+  <si>
+    <t>['provisional']</t>
+  </si>
+  <si>
+    <t>Entutelan elección del representante de los trabajadores de Ecopetrol por cambio de cronograma</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxPYXJBRXNlU0RyMW1sbVI0RGg1MjZydHZ0Z3BuU0F4aGV2UG9xV19BaDQxTTBhdF9HMzBILVQ2YmpLLXlWRUVnUzhYbkh2VjhzajhiZmFoTWY1UFhyWkNSelNwTk5Tb1QzbG92MXI0SkJzLUlyYVR4VkhjNEtNTHJUUURpU0c2OTd3cDliNFdlOTMweUFqbFpYZmFtandabGNLLVhLbmZIc3lDZzNOS2szOURJVTJFb2RLWVpvdjN4UmE1OXl0b1pvUC04UG5BQdIB2wFBVV95cUxQb0dwUlF5bzlXVzMzRHE5eGpEYy1CRHk1ZXVWckhZVFVWMm5oTDd4WS1lb1pGZThaOEU1ZXN3ZDFfTFZPNFgtSEVCaGVzZnBQMTVHVHFWS2lIb3oxRVJ4SGp2Tk1YNDJTRGNQbnhfdDJwMk50TEpWaVZrdlN4UEstNl83MzFoTHBXaTB2c2xHa29UcHduVk5fdkRsbXFVTDZKMkZrZ3pKSVphMUpIVFc1R18zYTdBUElHUkZZWDdYRGExaHBNc3duODJxMGN5bkxleTJyX09uQm9SbmM?oc=5</t>
+  </si>
+  <si>
+    <t>Trabajadores de Ecopetrol acudieron a la Justicia para frenar proceso electoral interno: juzgado negó petición</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8gFBVV95cUxQaVQ0cHFMYl9yMjdDR1dTUFlFeHVPcjBJREFncGZ5dEV6QUI2U1FYcmxJa3F4NDRYNGFpQkdVeEs5dWw3aFU0OWNIclNGOVlqUG8ydl9EbG1GMF9BbXNJQUNfMnhfSlhDT3VYS2wxLThJaDZMZktEUWNqUHZEeWprOWlkSUI1S3o0NEUyOV8xdWlGOVl3MVlZdVNXeGlGRmtXSmx6Z2stdWxwZzJGU3JCdzgwOVBBYmpPanB4OXh4NjdyTmx6X3ZjLVN0dF9PM19vZTljZ3pXTExmZkNXU05RVFRjVnA2TnZaRGtySE1lanN1UdIB9wFBVV95cUxQdnU4LVl1QVEtbk0xQ0tla1FDX0xOM1NMSWRoM2pZcC1hLUtibFdaQ3dMZ2U4WkNwNjhnaTJsMTFsbE96NEZTS202a3VtdGVKS1hLcFQtbDVFMUotSjFWa1g4THRUa0xLdmtNT0c3U1hYQkY5WWZuVm9qcGMzMjhOV2toOGdFYy1SdkI0UFVIc2JwZVdnZVMxYzBaSmpMaE1GOHgtSXBfYi1FQTZ0dU5jMnFZSWVSMHV2VHF6VmhmWW1Vam9qQnBMY1RSNUlPX1RZOUhqY0h3ZFlUUU9RU0s2VzNZZ3F5SzdiaHgxX3Y0d01zYW41Vk1N?oc=5</t>
+  </si>
+  <si>
+    <t>['electoral', 'interno']</t>
+  </si>
+  <si>
+    <t>Disputa de trabajadores por ingreso a junta de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiowFBVV95cUxOdTl0Nmk3N0dlQ2VTTlNiQ3lDYzJOSG1TcGZZbDlfNEQxRTB0NnpKVVZlSjByZzRTelZDcmtncGFIMmZzYjgyaFhUd3VzcEJQVWVTMTdpc2w1OU9WNHlobG5Kb1BnVU5GbmtpYUNnN0xLdV81YVlmdzM0RVNNbktIV2JsZTZpaXIzc2VXNWZoTGszdngwWFFRMzAxTWdOSUZMMHpj0gGjAUFVX3lxTE51OXQ2aTc3R2VDZVNOU2JDeUNjMk5IbVNwZllsOV80RDFFMHQ2ekpVVmVKMHJnNFN6VkNya2dwYUgyZnNiODJoWFR3dXNwQlBVZVMxN2lzbDU5T1Y0eWhsbkpvUGdVTkZua2lhQ2c3TEt1XzVhWWZ3MzRFU01uS0hXYmxlNmlpcjNzZVc1ZmhMazN2eDBYUVEzMDFNZ05JRkwwemM?oc=5</t>
+  </si>
+  <si>
+    <t>canal1.com.co</t>
+  </si>
+  <si>
+    <t>Carro de Afinia se salió de la vía, no hubo heridos</t>
+  </si>
+  <si>
+    <t>https://elmeridiano.co/sucre/magangue/carro-de-afinia-se-salio-de-la-via-no-hubo-heridos-elfy9e</t>
+  </si>
+  <si>
+    <t>https://www.elcolombiano.com/opinion/editoriales/estragos-financieros-de-la-crisis-de-epm-OA13468420</t>
+  </si>
+  <si>
+    <t>Hurtan vehículo contratista de CENS en zona rural de Cúcuta</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/13/hurtan-vehiculo-contratista-de-cens-en-zona-rural-de-cucuta/</t>
+  </si>
+  <si>
+    <t>['contratista', 'rural']</t>
+  </si>
+  <si>
+    <t>Estratos 1 y 2 no pagarán sobretasa destinado para el pago de las deudas de Air-e: esto se sabe</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/14/estratos-1-y-2-no-pagaran-sobretasa-destinado-para-el-pago-de-las-deudas-de-air-e-esto-se-sabe/</t>
+  </si>
+  <si>
+    <t>['destinado']</t>
+  </si>
+  <si>
+    <t>Estratos 1 y 2, excluidos de cobro de sobretasa para el pago de deudas de Air-e</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxQLUhjRDVWN3pzSU1FcVNZZF9sc0tVb0hvbGsyZVdvUTd1czdRUS1QRWFMY3BNRzd1U1dSYjJ3dnVtUGJxbnN3Zk5aMEVmNlY0UFBYVlc4Rnk2aEFYMnFzYXFIWldHQk5HVElKUDhaWmdIb0RFY0NUZEExUGZaVi1vT05ZdjE0d1puMXJIbGdtYXZqcUZDUjVhUFBEdHhKandoa0dTTGk2SWtVb0U5cTRKOWxydV94RU9NU0I2QXVWV042T3dVZXZmTmR4RjgtN3N5UXpkeDhxOVA5OHE5S0dkbHktd1LSAf8BQVVfeXFMT1dqUi1mbFl4c1J1ajlsUWlxWVJlemlOWlpjZEtVb2JjWUNIeHhEZWNtc0RYUTVEbnEtUk91dDY4V2ZxVFJJdW1OXzB5a2ZzcTVKRC10ZmVubmpDT0RNNDBpVlM3WEtBeHNtMGhqT0tYck1uSEtuQkJTVWdNQWJvLWVCY3ZyeGkwSU1pSXIyQWJuY0NGb2pjSVBrcUN0ME5aNlFUYlNLT0VDZnY1RTRONTFfbjVQanZaUWNtRlRHRkd2VG9yRXkzbjBWWFVmMXp4Q0NfSnlTN1NZa2xjaEh1T2J0d1ZRSHdBWUwwX3JLTGxmMzJwdE1GekpfVEEySXNr?oc=5</t>
+  </si>
+  <si>
+    <t>['excluidos']</t>
+  </si>
+  <si>
+    <t>‘Ponte Bacano’: Air-e reporta más de 46.000 acuerdos de pago en 2025</t>
+  </si>
+  <si>
+    <t>https://www.elheraldo.co/atlantico/2026/01/13/ponte-bacano-air-e-reporta-mas-de-46000-acuerdos-de-pago-en-2025/</t>
+  </si>
+  <si>
+    <t>Propuesta de Minminas para pagar deuda de Air-e es dolorosa para usuarios: presidente de ANDEG</t>
+  </si>
+  <si>
+    <t>https://www.eluniversal.com.co/economica/2026/01/13/propuesta-de-minminas-para-pagar-deuda-de-air-e-dolorosa-para-usuarios/</t>
+  </si>
+  <si>
+    <t>['dolorosa']</t>
+  </si>
+  <si>
+    <t>Aspirante al Senado Sandra Fonseca cuestiona plan del Gobierno para trasladar deuda de Air-e a usuarios de energía</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2026/01/13/fonseca-cuestiona-plan-del-gobierno-para-trasladar-deuda-de-air-e-a-usuarios-de-energia/</t>
+  </si>
+  <si>
+    <t>Gobierno posesiona a Adriana Jiménez como nueva experta comisionada de la Creg</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/economia/gobierno-posesiona-a-adriana-jimenez-como-nueva-experta-comisionada-de-la-creg-4304725</t>
+  </si>
+  <si>
+    <t>['nueva', 'comisionada']</t>
+  </si>
+  <si>
+    <t>Adriana Jiménez fue designada como nueva experta comisionada de la CREG</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPdDlfUjJhUGFFSnlHUW5HeFdJVzZGcnJFbWpKRDZTdzRaZ2lBdjVPcFQxZG9CaVItS19vTlhQTTBrSFVTN2N5NDNQWmxvamtNbXdkSGpFZ0IzMHM3RWxEMkI4d19XXzk0amRfT0dVTklSWGVxbHZRcjcyQ3R2Y3FYeXdaV1FOaDR0NlE3X0hSRFRINi01Z1VxY1FtVDE2SHB2dTMzeGlFSExUUdIBvgFBVV95cUxOYWZiUTFzQXc0am43U1F2cDNmNVFoYWU5c1NQbjAyVEd4dXFseDdmYlFoZUpWajdSZDQybjBaZmNIVHVzOEJySzJIN3EyV3NHTmdGVGotUktGWmtjNy0ybHpZUUFEY1Z4TlU4U2QzQ1RneGtpQmJQbkR1VzRWdDhpYmdnMmxfaUN1UVEtbWlYdUtURGRpWmw5OVoySjg0bTFkc2c0aUN6MWtDV3ZCUUJMbGZTTlp5TjFoZGlUTVBB?oc=5</t>
+  </si>
+  <si>
+    <t>Adriana Jiménez asume como comisionada Creg; se completa quórum en la institución</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiuAFBVV95cUxPcUNhTGRYaklwb1FUb1NLMlhIemlEMmtkbTRfWFR0aXg3eTdvZmw2YThYMTdNczk3cV8zTXpGSFRtTGt6NDQtbVZJLTBlSXhXUTZkUjNFRkhZRWQzVU9RMHc3RklLek9BQmp0OTlqby1kR191bnJKQVltVVR0aHFvU2JpaGdETlpsdDlhSWRoXzZGaklScUlpZ3hiVi1jREdMSDRRZGNmN3FZc2lvV2lkSXU1c05LeTlh0gHGAUFVX3lxTE1pLXpxVWhRTkU2RGIzS3ZyMnJrU0g2NWFPbXRyc0xONkE2bmJLd0R6NkFkWjlWM0JndlFEbmVVR1Q3T3FzNDJMQS1WdmNYcWc3UzU1T1BuTnYwMFVJcEZXcWFHUWxzek1qc0lJdTNEcEVJS0kxYXI0aktHLUc2WHYtMDVXNlVhNEFLNTFFRlVucWduMVoxMzVkanJVNjh1Skx6c3lWS09pYmdjTkcxd1J4RDd2OFZSRWNiVmlaRkp0eDlTZmZPUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Adriana Jiménez es la nueva comisionada de la CREG: ya fueron nombrados todos los expertos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiYkFVX3lxTE54VDA5RXhQcS1JZEZISThzQXZjblZWWDFwOUhseU1NN0U4OVBEZm5hWUhTZWFuQzRLWmVuMlFUWlRKaEpJbDhreUcwZEhEMHgtdTNCQl81MDFTSVUyemw3dDVB0gFnQVVfeXFMUEh5azkzWldZNm01ZjFrdXo1akdEbUJKbmpqbnRBNGUtcDFja2k5Z3ExZWk3LU5nbjFNcVBrNDJIYnlVcFA0MTlqTlZQYkg5QnRqc0NjUDJPVjdjMzREX0Z1bVpMSmdWUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Adriana Jiménez se posesionó como experta comisionada de la CREG</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQUnhyTUNJUEZ6MXFvdEIzRjBMMUJrd2N2OGZMT0tWWl9fTlJoQ1N5TmQ2RGFiSWxTaEpYUUtSMmNBRUlmOHUyeFQybjM2UFpHMDFuQnZadEc0X0xkZlM4YTJxU2RhM25YUnRrc1pBUV9PajEwbl8zWEJrSElkNWdTZkdEcjQwQlo2Y0s0UFBpaU0xYW8?oc=5</t>
   </si>
 </sst>
 </file>
@@ -12136,10 +12268,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1471"/>
+  <dimension ref="A1:I1489"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1456" workbookViewId="0">
-      <selection activeCell="A1469" sqref="A1469:I1471"/>
+      <selection activeCell="A1472" sqref="A1472:I1489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51435,6 +51567,480 @@
       </c>
       <c r="I1471" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1472" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1472" t="s">
+        <v>3751</v>
+      </c>
+      <c r="C1472" s="3" t="s">
+        <v>3752</v>
+      </c>
+      <c r="D1472" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1472" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1472" t="s">
+        <v>3753</v>
+      </c>
+      <c r="G1472" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1472" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1473" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1473" t="s">
+        <v>3754</v>
+      </c>
+      <c r="C1473" s="3" t="s">
+        <v>3755</v>
+      </c>
+      <c r="D1473" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1473" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1473" t="s">
+        <v>3756</v>
+      </c>
+      <c r="G1473" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1473" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1474" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1474" t="s">
+        <v>3757</v>
+      </c>
+      <c r="C1474" s="3" t="s">
+        <v>3758</v>
+      </c>
+      <c r="D1474" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1474" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1474" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1474" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1474" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1475" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1475" t="s">
+        <v>3759</v>
+      </c>
+      <c r="C1475" s="3" t="s">
+        <v>3760</v>
+      </c>
+      <c r="D1475" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1475" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1475" t="s">
+        <v>3761</v>
+      </c>
+      <c r="G1475" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1475" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1476" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1476" t="s">
+        <v>3762</v>
+      </c>
+      <c r="C1476" s="3" t="s">
+        <v>3763</v>
+      </c>
+      <c r="D1476" t="s">
+        <v>3764</v>
+      </c>
+      <c r="E1476" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1476" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1476" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1476" t="s">
+        <v>3764</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1477" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1477" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C1477" s="3" t="s">
+        <v>3766</v>
+      </c>
+      <c r="D1477" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E1477" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1477" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1477" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1477" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1478" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1478" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C1478" s="3" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D1478" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1478" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1478" t="s">
+        <v>3191</v>
+      </c>
+      <c r="G1478" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1478" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1478" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1479" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1479" t="s">
+        <v>3768</v>
+      </c>
+      <c r="C1479" s="3" t="s">
+        <v>3769</v>
+      </c>
+      <c r="D1479" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1479" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1479" t="s">
+        <v>3770</v>
+      </c>
+      <c r="G1479" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1479" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1480" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1480" t="s">
+        <v>3771</v>
+      </c>
+      <c r="C1480" s="3" t="s">
+        <v>3772</v>
+      </c>
+      <c r="D1480" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1480" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1480" t="s">
+        <v>3773</v>
+      </c>
+      <c r="G1480" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1480" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1481" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1481" t="s">
+        <v>3774</v>
+      </c>
+      <c r="C1481" s="3" t="s">
+        <v>3775</v>
+      </c>
+      <c r="D1481" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1481" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1481" t="s">
+        <v>3776</v>
+      </c>
+      <c r="G1481" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1481" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1482" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1482" t="s">
+        <v>3777</v>
+      </c>
+      <c r="C1482" s="3" t="s">
+        <v>3778</v>
+      </c>
+      <c r="D1482" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1482" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1482" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1482" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1482" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1483" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1483" t="s">
+        <v>3779</v>
+      </c>
+      <c r="C1483" s="3" t="s">
+        <v>3780</v>
+      </c>
+      <c r="D1483" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1483" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1483" t="s">
+        <v>3781</v>
+      </c>
+      <c r="G1483" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1483" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1484" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1484" t="s">
+        <v>3782</v>
+      </c>
+      <c r="C1484" s="3" t="s">
+        <v>3783</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1484" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1485" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1485" t="s">
+        <v>3784</v>
+      </c>
+      <c r="C1485" s="3" t="s">
+        <v>3785</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>3786</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1485" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1486" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1486" t="s">
+        <v>3787</v>
+      </c>
+      <c r="C1486" s="3" t="s">
+        <v>3788</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>3786</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1486" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1487" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1487" t="s">
+        <v>3789</v>
+      </c>
+      <c r="C1487" s="3" t="s">
+        <v>3790</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>3137</v>
+      </c>
+      <c r="G1487" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1487" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1488" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1488" t="s">
+        <v>3791</v>
+      </c>
+      <c r="C1488" s="3" t="s">
+        <v>3792</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>485</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1488" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1489" s="1">
+        <v>46036</v>
+      </c>
+      <c r="B1489" t="s">
+        <v>3793</v>
+      </c>
+      <c r="C1489" s="3" t="s">
+        <v>3794</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>3137</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1489" t="s">
+        <v>3287</v>
       </c>
     </row>
   </sheetData>
@@ -51453,6 +52059,15 @@
     <hyperlink ref="C1466" r:id="rId11" display="https://news.google.com/rss/articles/CBMi4wFBVV95cUxOdi1ESlFvTXlmS2ZUM1hVZERCQjRZbUQ0bkJoSzVjQmp4WVBYSzRwd2czc3V1MlB5cndoU0d2N0F5ZEoyUlROX1R0OTV6Y0V0SERSdU9JZld0MTJYcG9TQXA1UlRRMTJ5WHgwejJXc3lRS2RiMlQ3Vml1WEd3eklDNlVVQ1VTd1VRY1BDVWlxWDBRWWZNN1EtYnA2Uk8xX3RuTlRGcVp2V1UxWVFNdGM0QjNEdTduVDQyOHBFOFJzYUZzb01MendYTnFmdVNiWmY1QUFWcUxBZVNBRkt4bUR4czVEcw?oc=5" xr:uid="{AC8779E6-75D4-4583-AD5A-26BE648E449E}"/>
     <hyperlink ref="C1467" r:id="rId12" xr:uid="{E0E1D099-A659-4C2D-A537-181C67D82233}"/>
     <hyperlink ref="C1468" r:id="rId13" display="https://news.google.com/rss/articles/CBMi7AFBVV95cUxOV2FvSTNaUlhtbUV5QVZUd3VRZ29fOEsxcEpLaUpZSEdlQ1lHSmdXX016dHdrV2JwR0hqdGd4RkdoYW1mOEQyWFdHdHA4N2toR3BUR3ltV3RsYnd3enhWRTNOaV9tYzlocFc1QnlZVDF3anZZclZmSnUtX0hqOXQ1OVFCMFMxYWlOamxMTEplZE9xQ2swZno4SHBMQVM5cG03a3pPeWx1MUdlVGtSYm5ZQUJNbjF2YkJHdWk2NzA2bURvcUZBV01LVzBUT2FUdkJ0Wm9RQ1N4cGtZNHJyNm9JdC0yT09rQ05kZnhpTdIBhwJBVV95cUxONnZTdUoxaERYNGhqci1GM1lZWXV5dklkbjBPbmx6QnlsTGV4azRDSDhUandxWWIwYnczdHQwaEdSY3ZZeXdrdFJwZWUxSGo4U3dZQ0J3VVgxb1BBVzd3d3lUTFB0dkszLTJpU2pHcWlhR1c1TkNyb3hlakxtMlM5WjZuZlhaeU5yYnRfRUFRb1FNdC01WVFpbWl5aDVXd1o1aVFNempxbU1vWW1UNkF2ZTR1LXNwbERZU0JzZnR4SDRSRElZZFh5MEZpdTBUQ0NGcWVkUWZ0WWlZSG42azZHUDVHX3pTcjVuLUthaXdWVUpxMi1UZlRJX3hnZjZEdkROaFg2UTVIaw?oc=5" xr:uid="{4216D335-A398-4630-871D-A20618A60A07}"/>
+    <hyperlink ref="C1473" r:id="rId14" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxOQmZsWmg5ZG9tNGVqVnhUMzNmM0tMUEZEQThGN0kxYnBVbmUtR2JYZnhleHZQWlczRm5pSG5pMlpaZDg3M1RkN1RTVWxqN1ZzMkRiQ19aLXduUlRJbXBqYk9NVThseGdTMjJoNzRVeFltVDF1MEFvekVQemhOT1piZ3pfM1UwNTJkSHhpbnhkcEM5MjFXSDJqYnFoV0RNSE5fVVYwd1NTdUctTnZmQ3c3STJHVDVEQ3pJRVJlS19sUjl1OFZY0gHYAUFVX3lxTE4tdW5rWTVSNDlfY2l6YXQ5ZEcyVVFKQktKd1dsSUxBNG5oU1VOSDNWS2xYek5GdUR2WXdzNmQtZHV5UkRRa3lYLTVldWNPTlA2UUhSdURibVotX0NIVmljS1p4Si0xUG9qV0txUHlGLUJuNzQ3ME50T0RnVTZCSkFXMDRuY0lvLWxpZDZ4MGtlNERjRmZwRlBRT1RLQ2QzdFM0bUVNM1dWc2JHbXVjb3lBM01DckZ6MTdyaGhFSW53MU5fcVFVTXV5ZkFfdE9lWkdSemxCSktfQg?oc=5" xr:uid="{225FE187-D8CF-4194-8127-190E2BF43898}"/>
+    <hyperlink ref="C1474" r:id="rId15" display="https://news.google.com/rss/articles/CBMizgFBVV95cUxPYXJBRXNlU0RyMW1sbVI0RGg1MjZydHZ0Z3BuU0F4aGV2UG9xV19BaDQxTTBhdF9HMzBILVQ2YmpLLXlWRUVnUzhYbkh2VjhzajhiZmFoTWY1UFhyWkNSelNwTk5Tb1QzbG92MXI0SkJzLUlyYVR4VkhjNEtNTHJUUURpU0c2OTd3cDliNFdlOTMweUFqbFpYZmFtandabGNLLVhLbmZIc3lDZzNOS2szOURJVTJFb2RLWVpvdjN4UmE1OXl0b1pvUC04UG5BQdIB2wFBVV95cUxQb0dwUlF5bzlXVzMzRHE5eGpEYy1CRHk1ZXVWckhZVFVWMm5oTDd4WS1lb1pGZThaOEU1ZXN3ZDFfTFZPNFgtSEVCaGVzZnBQMTVHVHFWS2lIb3oxRVJ4SGp2Tk1YNDJTRGNQbnhfdDJwMk50TEpWaVZrdlN4UEstNl83MzFoTHBXaTB2c2xHa29UcHduVk5fdkRsbXFVTDZKMkZrZ3pKSVphMUpIVFc1R18zYTdBUElHUkZZWDdYRGExaHBNc3duODJxMGN5bkxleTJyX09uQm9SbmM?oc=5" xr:uid="{E4FE6106-993B-47E0-A07B-1D29897F65D4}"/>
+    <hyperlink ref="C1475" r:id="rId16" display="https://news.google.com/rss/articles/CBMi8gFBVV95cUxQaVQ0cHFMYl9yMjdDR1dTUFlFeHVPcjBJREFncGZ5dEV6QUI2U1FYcmxJa3F4NDRYNGFpQkdVeEs5dWw3aFU0OWNIclNGOVlqUG8ydl9EbG1GMF9BbXNJQUNfMnhfSlhDT3VYS2wxLThJaDZMZktEUWNqUHZEeWprOWlkSUI1S3o0NEUyOV8xdWlGOVl3MVlZdVNXeGlGRmtXSmx6Z2stdWxwZzJGU3JCdzgwOVBBYmpPanB4OXh4NjdyTmx6X3ZjLVN0dF9PM19vZTljZ3pXTExmZkNXU05RVFRjVnA2TnZaRGtySE1lanN1UdIB9wFBVV95cUxQdnU4LVl1QVEtbk0xQ0tla1FDX0xOM1NMSWRoM2pZcC1hLUtibFdaQ3dMZ2U4WkNwNjhnaTJsMTFsbE96NEZTS202a3VtdGVKS1hLcFQtbDVFMUotSjFWa1g4THRUa0xLdmtNT0c3U1hYQkY5WWZuVm9qcGMzMjhOV2toOGdFYy1SdkI0UFVIc2JwZVdnZVMxYzBaSmpMaE1GOHgtSXBfYi1FQTZ0dU5jMnFZSWVSMHV2VHF6VmhmWW1Vam9qQnBMY1RSNUlPX1RZOUhqY0h3ZFlUUU9RU0s2VzNZZ3F5SzdiaHgxX3Y0d01zYW41Vk1N?oc=5" xr:uid="{C8379F53-5F56-46F3-A6FE-0AEBF1E5B0D2}"/>
+    <hyperlink ref="C1476" r:id="rId17" display="https://news.google.com/rss/articles/CBMiowFBVV95cUxOdTl0Nmk3N0dlQ2VTTlNiQ3lDYzJOSG1TcGZZbDlfNEQxRTB0NnpKVVZlSjByZzRTelZDcmtncGFIMmZzYjgyaFhUd3VzcEJQVWVTMTdpc2w1OU9WNHlobG5Kb1BnVU5GbmtpYUNnN0xLdV81YVlmdzM0RVNNbktIV2JsZTZpaXIzc2VXNWZoTGszdngwWFFRMzAxTWdOSUZMMHpj0gGjAUFVX3lxTE51OXQ2aTc3R2VDZVNOU2JDeUNjMk5IbVNwZllsOV80RDFFMHQ2ekpVVmVKMHJnNFN6VkNya2dwYUgyZnNiODJoWFR3dXNwQlBVZVMxN2lzbDU5T1Y0eWhsbkpvUGdVTkZua2lhQ2c3TEt1XzVhWWZ3MzRFU01uS0hXYmxlNmlpcjNzZVc1ZmhMazN2eDBYUVEzMDFNZ05JRkwwemM?oc=5" xr:uid="{480195C8-DEF9-4F7F-BD96-73EBF473D94B}"/>
+    <hyperlink ref="C1481" r:id="rId18" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxQLUhjRDVWN3pzSU1FcVNZZF9sc0tVb0hvbGsyZVdvUTd1czdRUS1QRWFMY3BNRzd1U1dSYjJ3dnVtUGJxbnN3Zk5aMEVmNlY0UFBYVlc4Rnk2aEFYMnFzYXFIWldHQk5HVElKUDhaWmdIb0RFY0NUZEExUGZaVi1vT05ZdjE0d1puMXJIbGdtYXZqcUZDUjVhUFBEdHhKandoa0dTTGk2SWtVb0U5cTRKOWxydV94RU9NU0I2QXVWV042T3dVZXZmTmR4RjgtN3N5UXpkeDhxOVA5OHE5S0dkbHktd1LSAf8BQVVfeXFMT1dqUi1mbFl4c1J1ajlsUWlxWVJlemlOWlpjZEtVb2JjWUNIeHhEZWNtc0RYUTVEbnEtUk91dDY4V2ZxVFJJdW1OXzB5a2ZzcTVKRC10ZmVubmpDT0RNNDBpVlM3WEtBeHNtMGhqT0tYck1uSEtuQkJTVWdNQWJvLWVCY3ZyeGkwSU1pSXIyQWJuY0NGb2pjSVBrcUN0ME5aNlFUYlNLT0VDZnY1RTRONTFfbjVQanZaUWNtRlRHRkd2VG9yRXkzbjBWWFVmMXp4Q0NfSnlTN1NZa2xjaEh1T2J0d1ZRSHdBWUwwX3JLTGxmMzJwdE1GekpfVEEySXNr?oc=5" xr:uid="{118BEBFF-6A3A-4DCF-98A8-33452E85EA42}"/>
+    <hyperlink ref="C1486" r:id="rId19" display="https://news.google.com/rss/articles/CBMiqgFBVV95cUxPdDlfUjJhUGFFSnlHUW5HeFdJVzZGcnJFbWpKRDZTdzRaZ2lBdjVPcFQxZG9CaVItS19vTlhQTTBrSFVTN2N5NDNQWmxvamtNbXdkSGpFZ0IzMHM3RWxEMkI4d19XXzk0amRfT0dVTklSWGVxbHZRcjcyQ3R2Y3FYeXdaV1FOaDR0NlE3X0hSRFRINi01Z1VxY1FtVDE2SHB2dTMzeGlFSExUUdIBvgFBVV95cUxOYWZiUTFzQXc0am43U1F2cDNmNVFoYWU5c1NQbjAyVEd4dXFseDdmYlFoZUpWajdSZDQybjBaZmNIVHVzOEJySzJIN3EyV3NHTmdGVGotUktGWmtjNy0ybHpZUUFEY1Z4TlU4U2QzQ1RneGtpQmJQbkR1VzRWdDhpYmdnMmxfaUN1UVEtbWlYdUtURGRpWmw5OVoySjg0bTFkc2c0aUN6MWtDV3ZCUUJMbGZTTlp5TjFoZGlUTVBB?oc=5" xr:uid="{AC16A3BC-8B87-49BD-8D42-682B7598CB80}"/>
+    <hyperlink ref="C1487" r:id="rId20" display="https://news.google.com/rss/articles/CBMiuAFBVV95cUxPcUNhTGRYaklwb1FUb1NLMlhIemlEMmtkbTRfWFR0aXg3eTdvZmw2YThYMTdNczk3cV8zTXpGSFRtTGt6NDQtbVZJLTBlSXhXUTZkUjNFRkhZRWQzVU9RMHc3RklLek9BQmp0OTlqby1kR191bnJKQVltVVR0aHFvU2JpaGdETlpsdDlhSWRoXzZGaklScUlpZ3hiVi1jREdMSDRRZGNmN3FZc2lvV2lkSXU1c05LeTlh0gHGAUFVX3lxTE1pLXpxVWhRTkU2RGIzS3ZyMnJrU0g2NWFPbXRyc0xONkE2bmJLd0R6NkFkWjlWM0JndlFEbmVVR1Q3T3FzNDJMQS1WdmNYcWc3UzU1T1BuTnYwMFVJcEZXcWFHUWxzek1qc0lJdTNEcEVJS0kxYXI0aktHLUc2WHYtMDVXNlVhNEFLNTFFRlVucWduMVoxMzVkanJVNjh1Skx6c3lWS09pYmdjTkcxd1J4RDd2OFZSRWNiVmlaRkp0eDlTZmZPUQ?oc=5" xr:uid="{C4BDAA5B-1716-4F1D-8CE2-1F172E2F9BE5}"/>
+    <hyperlink ref="C1488" r:id="rId21" display="https://news.google.com/rss/articles/CBMiYkFVX3lxTE54VDA5RXhQcS1JZEZISThzQXZjblZWWDFwOUhseU1NN0U4OVBEZm5hWUhTZWFuQzRLWmVuMlFUWlRKaEpJbDhreUcwZEhEMHgtdTNCQl81MDFTSVUyemw3dDVB0gFnQVVfeXFMUEh5azkzWldZNm01ZjFrdXo1akdEbUJKbmpqbnRBNGUtcDFja2k5Z3ExZWk3LU5nbjFNcVBrNDJIYnlVcFA0MTlqTlZQYkg5QnRqc0NjUDJPVjdjMzREX0Z1bVpMSmdWUQ?oc=5" xr:uid="{B0D40148-9016-4777-8A68-9BA0DAD618A0}"/>
+    <hyperlink ref="C1489" r:id="rId22" xr:uid="{77FA11A3-4192-4F83-B9A9-41DA185EFE1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8238712F-7B41-4A72-A68D-5A251E62CE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070EFF9F-DFD2-417B-BAD2-BA0B0A480274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10775" uniqueCount="3795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10889" uniqueCount="3836">
   <si>
     <t>Fecha</t>
   </si>
@@ -11408,6 +11408,129 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMikwFBVV95cUxQUnhyTUNJUEZ6MXFvdEIzRjBMMUJrd2N2OGZMT0tWWl9fTlJoQ1N5TmQ2RGFiSWxTaEpYUUtSMmNBRUlmOHUyeFQybjM2UFpHMDFuQnZadEc0X0xkZlM4YTJxU2RhM25YUnRrc1pBUV9PajEwbl8zWEJrSElkNWdTZkdEcjQwQlo2Y0s0UFBpaU0xYW8?oc=5</t>
+  </si>
+  <si>
+    <t>Presidente de Ecopetrol, Ricardo Roa, denunció suplantación de identidad desde un número telefónico: 'No he solicitado ni autorizado ningún trámite'</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/justicia/delitos/presidente-de-ecopetrol-ricardo-roa-denuncio-suplantacion-de-identidad-desde-un-numero-telefonico-no-he-solicitado-ni-autorizado-ningun-tramite-3524169</t>
+  </si>
+  <si>
+    <t>['telefónico']</t>
+  </si>
+  <si>
+    <t>Presidente de Ecopetrol denuncia suplantación de identidad y pide ignorar mensajes de cuenta falsa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7gFBVV95cUxPUVFCQTk0V2hXOWRMNzJRX19ZcmNGTkVsUXI2blNtaXphVUlZckd5TVZRX082VlRqX2lrcGhNby1IdUtobzB3NmM1ejZ1OW14M0pCTjkxVDRWRW9YeDNkQnNZcVlvbnYzSkpVXzltelZjc1pwWWhpNXVaSXM1Q3J2bjJEWlhNX1l6NUs5M0FyMGJEVTYtMWt6UHhvMTQyTEQ4SzdXM0FDaGpGMS1SSVQ2TXpXRTBHaGlZLTc2YlhTMGxIbnAtRnVhX0IySngyeHRFcFJZOFlMZ3M0c2tpWnd2U2JqVm5MRnlKTjlNU2JB0gHuAUFVX3lxTE9RUUJBOTRXaFc5ZEw3MlFfX1lyY0ZORWxRcjZuU21pemFVSVlyR3lNVlFfTzZWVGpfaWtwaE1vLUh1S2hvMHc2YzV6NnU5bXgzSkJOOTFUNFZFb1h4M2RCc1lxWW9udjNKSlVfOW16VmNzWnBZaGk1dVpJczVDcnZuMkRaWE1fWXo1SzkzQXIwYkRVNi0xa3pQeG8xNDJMRDhLN1czQUNoakYxLVJJVDZNeldFMEdoaVktNzZiWFMwbEhucC1GdWFfQjJKeDJ4dEVwUlk4WUxnczRza2lad3ZTYmpWbkxGeUpOOU1TYkE?oc=5</t>
+  </si>
+  <si>
+    <t>['falsa']</t>
+  </si>
+  <si>
+    <t>Acción de Ecopetrol se ha recuperado 13% en dos semanas por el ambiente electoral</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/finanzas/la-accion-de-ecopetrol-ha-subido-4-6-en-el-mercado-local-a-un-precio-de-2-160-4305277</t>
+  </si>
+  <si>
+    <t>['electoral']</t>
+  </si>
+  <si>
+    <t>Cambios en Junta Directiva de Ecopetrol: Gobierno presentó 2 nombres como reemplazo de García Realpe</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/15/cambios-en-junta-directiva-de-ecopetrol-gobierno-presento-2-nombres-como-reemplazo-de-garcia-realpe/</t>
+  </si>
+  <si>
+    <t>Fuerte pulso entre trabajadores de Ecopetrol por la silla en junta directiva: reclaman transparencia</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/14/fuerte-pulso-entre-trabajadores-de-ecopetrol-por-la-silla-en-junta-directiva-reclaman-transparencia/</t>
+  </si>
+  <si>
+    <t>['Fuerte', 'directiva']</t>
+  </si>
+  <si>
+    <t>Sigue controversia por elección del representante de trabajadores a la Junta Directiva de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1AFBVV95cUxNNnJ5LXRtUkxvaDAzX0NWeFA1NnpYMTBGNzdUMFM1MDlIYmhDd1Ywb2IwRnhFWDQyS1pXUmVQclB4RFZMaURib1FZRUxpUFVrSDRzU1daQm9XbS1IMGNqeWtMMF9ZNlR2MmNMdkhwTGVRaFJrMVNXLUI5Wmd5b3piR1puaGc4TlJiZWprOUtpRTlxLUJUcFZZSkVyd1J1cGJSbUxDcUozS1VzSXBvSTJHeXBQZGNZNXJnUmtITGxUQ3FIOElSc1paSERibUNMOVlVamNBS9IB4gFBVV95cUxNdTFEWmtSWEpFdlo3WEhGdlZiV2t4RE5kTnd4V2RwZHdGb0lHcWpGbDhLQnVRT1hHX1lPakhEN1REa1JodkpSVW9kV3ItdFE1MEVSd2VFamFJTGlnZDZCbHBKUVM3MmVEdTA3RTJ0ZzhraWZHbDNFTTIyOGlQYmNCZ0RlT3A0QWNUX0ZJR1JmRDAxWWhzN1YxVWVoM3FmRHRxWXF1amtLMm5JNVhsTEs5LTdrLWhkQ01kX3ptdkROQVd2ckU3YzJlS1ctZUZqNVpFcjVReTdBSTdDQjdrcDRSb1l3?oc=5</t>
+  </si>
+  <si>
+    <t>['controversia']</t>
+  </si>
+  <si>
+    <t>Admiten tutela contra Ecopetrol por elección del representante de los trabajadores en su Junta Directiva</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi3AFBVV95cUxOeUFzU0dCXzR4MmlMODRERFR5em13cVdYcUFyUFRZWHNVN2lrMU9xbHR5aExxM2R5TmFqWWlTcllOdHNXUnpoU0JJTk44WG44eDdxWGF6VXd4ZEk2a1A1T1JpQ1BzT3lSUVF4TVNtLUliTW1md2hneHAzUFF3S2Z4ZHBzWjRSVGljOXZkNktKbjlVLWVXVDFlOWFrTVhhdjBWUGNaM25pOUQwSURiOEFmZVZpbzFfWFlnZ2R6Si1SSFkxNEdJUWR5cmtSVGxEck13SWljR0UyOUpyWXo30gHcAUFVX3lxTE1FdG9zcE5mckNPRmlFMG5VdHkyelp3VUtsckMtRXJjUEtwbFlHOFd4R2tjNkFjZFUwclU0RzJJUDU3UzVHbndwUTQtYlRGMzU5S2lPYk1pazNHVDlMT1FjMDduUWdZRWd6U1VBQVJzMzlKUmt0U2ZSOU1MeTl5NUsyaENaTHZwQW5yakFjdEJnSU1uRVRkWG5Lc3J3SDZwRFVNYVcwdi1KTy1NN3IwZG1QOG1RUGlWQ1JKLUhiNUhHa1c3cFJPdXhWUzZHZ2Y4ZEJJNk9VTElGMkV5WjE?oc=5</t>
+  </si>
+  <si>
+    <t>Ricardo Roa fue suplantado por WhatsApp: habrían pedido en su nombre información delicada a altos mandos de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8wFBVV95cUxNMURFOWtfb1RpbXRHZ0tkUjAySUdNN21MYVo2YWNXcEJNNHhoelBMdjZPTWxoeVNmbVNMcUZxdGRUeTFCVGsxaWZlZG1DdWRJUXpQcUk5T2FQX0E4ZFBNNHBsWEtDT2xWSldvUW54eko5elBlYWU2ek5oaVJpaHR5aUFTZFJVN3ZVa2R5d3Axby01b2VrQ05sOVBvOHI4QlFPXzVwT1ZKYkZnMERKYVU5UVZPdDNlUGFseVZobGcwdkItcFJZbmZWcko4REw2Zk5YcGxDYzVMTkRGNVhxb3pDLTBUSGJqMW5vbXpFcGQwY25iVXPSAY4CQVVfeXFMTk5ZbEVzMEtRdDZScDJKTUFLbGhtazdITVBaX0lRM0V0QTVhZi1QOTFtVlk4aUlwbWRQUVFLSHFXUGVMSHRkRVJBTkJSelphRHF5a3JnYjdIM05SdHBxNzNyd3JpanFrNENVODVPYVpTMVpmSUVaUDRvWnY4cUtuOTlRWDY4eXFsT2Y3WWZMa3p2N1ItS3JjRlViVGE3UlZkS2ZObzByYmlGR1JhNGFDNmt3THVmaDN0dklmZGh1WDFfbTNMTEttUGNCUnd1S0lKVmJiREl6aDA5d19iN3hDZFA1TjZJOFd2eGx2WjktNXh4bDdOUXVIc3BZWW9uWkswS04xVXFOdW1XdXFEbXhB?oc=5</t>
+  </si>
+  <si>
+    <t>['delicada', 'altos']</t>
+  </si>
+  <si>
+    <t>Presidente de Ecopetrol denunció que está siendo víctima de suplantación</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipgFBVV95cUxOdEpfUjRNdFRHZHhCTHZlV1RXM09mZXJwRGFWOGRfY1JoRmhFeURPNnUwZldxSHMyMEhJVF9HbmlQWTVkZTZybjF2VHJEdW9rU2dFMEpHRUNfdVNwb0d5MUZWNWUtUDNvcUVQRHBQSTZfNXJsVVRzUHNxTkJaS2l2THMzQ3ViMFdXRnhJQnM3WDAxMjZYam5kTFc0UFFWVkUxWktMc3VB?oc=5</t>
+  </si>
+  <si>
+    <t>Ricardo Roa denunció suplantación de identidad y alertó sobre comunicaciones falsas a nombre de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxPa3pQOTBhWVF2NS10WFJOM0plSmtzM3NCNGJsT0FFcERQamhrTklJUUQwVjlGbVlLMTdJOWNPalcwSnNSS19VeW44azMwNjA4V1doSzAwNWoyT2E0MDBubzVTNE9RZUVjT3ZydDFmbTY5X3hVUXhPQkNnb2ZPb2l5Umo4ZVJwczNMRUxiNExxcmRBSmtTRnhST2Q4cUJEZ1Iwa2piLTRiQ3JidjFTUWFyT3JnRjBDTnlRX3k2U3Zpb3hKb3pRckNjY2p3?oc=5</t>
+  </si>
+  <si>
+    <t>['falsas']</t>
+  </si>
+  <si>
+    <t>Preocupante comportamiento del uso del gas natural en el sector industrial: Entre noviembre y diciembre, la demanda industrial de gas natural cayó un 23 %</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/opinion/articulo/preocupante-comportamiento-del-uso-del-gas-natural-en-el-sector-industrial/202600/</t>
+  </si>
+  <si>
+    <t>['natural', 'industrial']</t>
+  </si>
+  <si>
+    <t>Gas natural vehicular aumentó 80 % desde 2022; fuerte alza del salario mínimo es una de las causas</t>
+  </si>
+  <si>
+    <t>https://www.valoraanalitik.com/gas-natural-vehicular-salario-minimo/</t>
+  </si>
+  <si>
+    <t>['natural', 'vehicular', 'fuerte', 'mínimo']</t>
+  </si>
+  <si>
+    <t>Air-e detecta casos de hurto de energía en Puerto Colombia y Barranquilla</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivAFBVV95cUxPNmVFODlkbmNLSXVIcDF0U0x5RTdITDdMcGhoanVQRFNjemlRZGV1QzVIRjN3MDlTMjIxZDQzeW1sWG9kQnh0RXFIZk1sNFg3RjZSRzJfMTRKOWJ3MlRndkhYZV9ISXdTZFNKOFAybm9rS0E3b2g3STk1LXhweWcxZ190enpBYzhiWUxOemJ1NXUwWWc2LU5VbmFWdHhuLVpxTFN1ODRsZnY3clRNcnNGU242em1xMktxWmQxcw?oc=5</t>
+  </si>
+  <si>
+    <t>Usuarios de estratos 1 y 2 quedan exentos de nueva sobretasa por crisis de Air-e</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2026/01/14/usuarios-de-estratos-1-y-2-quedan-exentos-de-nueva-sobretasa-por-crisis-de-air-e/</t>
+  </si>
+  <si>
+    <t>El Ministerio de Minas y Energía realizará seguimientos a los proyectos de gas en Colombia</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxPV3FsdDFNYlFBNTVsVzBVX0wxZXUxMWphbnZmX09YQnVRMEdFVXdCaDlad085NDhUZDRTSllDb0lWY0JTNFF2SDdEWG1GNnlQYW1MdkoyNzhnZHcwUG9LbzF1TWxIWHBfem10QVRLcDFRWFliX0Ztc1J2SnNjS19WUUJ0dFlaNll5ZWd5NnB0TG9fZlNfZDk0TFM1ZFNYcFJlTWVGSjAyd2laQWpUNWVCbUYtTmJaQXFvUmNQY09OWjdPeHZ3eDJTbW5oY1dMRlgtX0ItR2dTQlhSd9IB3wFBVV95cUxQcnF4Qll0RmZCYlI3YlVORnVYSE9fb08zOFJsU2s2d3RyUzVfeUpsSTk3RnJqeHZIX19mVEZDTm95TWdNcUNjQ3U5N3BnYndfZWt0MkZBU01nXzdOR1ZpRHRSbmNQY1V1bFNMX2pyaVhFQnJWZGtRYWR6TGhsNGZLWmM1bHNVQWJ0bUpTQzVOclotQ1RfQU9TNmEzT05UeVVLSW9KTFd0NkhjUm0tSC1VTG1IcW1aTjVXemdmTHgtQ1M3NHNHSmJVVUdEd1Q5NG1QNWphTE9oWUU5Wl9ac0JV?oc=5</t>
+  </si>
+  <si>
+    <t>El Presidente de Ecopetrol, Ricardo Roa, denunció una suplantación de su identidad</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxNNHJPMUdNSG1MM2dsbnN6VFpOd19uZ0ppQ2hrRlBuZ1haYjg1dFNObnVsYjNxNXhFcHNhMFNHOUlDNVpNNlFoQTB0ZFRwT3dqX3lqZklwS2xuME5lRkIxUmNIeG5YaWhnZjdoZE9RRHQyMFpXbWVTdGVYVnJ3OGdUWklHQTEtVE4zX3YxUWlyd2lXUzEyemR6ZlVidjBMVHRUdGFiS1FsS241ODBObjVZSHJrTVFRQlBJamM3aVNUQTAwMHNS?oc=5</t>
   </si>
 </sst>
 </file>
@@ -12268,10 +12391,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1489"/>
+  <dimension ref="A1:I1505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1456" workbookViewId="0">
-      <selection activeCell="A1472" sqref="A1472:I1489"/>
+    <sheetView tabSelected="1" topLeftCell="A1485" workbookViewId="0">
+      <selection activeCell="A1490" sqref="A1490:I1505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52041,6 +52164,428 @@
       </c>
       <c r="I1489" t="s">
         <v>3287</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1490" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1490" t="s">
+        <v>3795</v>
+      </c>
+      <c r="C1490" s="3" t="s">
+        <v>3796</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>3797</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1490" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1491" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1491" t="s">
+        <v>3798</v>
+      </c>
+      <c r="C1491" s="3" t="s">
+        <v>3799</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>3800</v>
+      </c>
+      <c r="G1491" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1491" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1491" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1492" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1492" t="s">
+        <v>3801</v>
+      </c>
+      <c r="C1492" s="3" t="s">
+        <v>3802</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>3803</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1492" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1493" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1493" t="s">
+        <v>3804</v>
+      </c>
+      <c r="C1493" s="3" t="s">
+        <v>3805</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1493" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1494" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1494" t="s">
+        <v>3806</v>
+      </c>
+      <c r="C1494" s="3" t="s">
+        <v>3807</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>3808</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1494" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1495" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1495" t="s">
+        <v>3809</v>
+      </c>
+      <c r="C1495" s="3" t="s">
+        <v>3810</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>3811</v>
+      </c>
+      <c r="G1495" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1495" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1496" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1496" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C1496" s="3" t="s">
+        <v>3813</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1496" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1496" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1497" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1497" t="s">
+        <v>3814</v>
+      </c>
+      <c r="C1497" s="3" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>3816</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1497" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1498" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1498" t="s">
+        <v>3817</v>
+      </c>
+      <c r="C1498" s="3" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1498" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1498" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1498" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1499" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1499" t="s">
+        <v>3819</v>
+      </c>
+      <c r="C1499" s="3" t="s">
+        <v>3820</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1499" t="s">
+        <v>3821</v>
+      </c>
+      <c r="G1499" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1499" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1500" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1500" t="s">
+        <v>3822</v>
+      </c>
+      <c r="C1500" s="3" t="s">
+        <v>3823</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>3824</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1500" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1501" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1501" t="s">
+        <v>3825</v>
+      </c>
+      <c r="C1501" s="3" t="s">
+        <v>3826</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1501" t="s">
+        <v>3827</v>
+      </c>
+      <c r="G1501" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1501" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1502" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1502" t="s">
+        <v>3828</v>
+      </c>
+      <c r="C1502" s="3" t="s">
+        <v>3829</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1502" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1502" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1502" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1503" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1503" t="s">
+        <v>3830</v>
+      </c>
+      <c r="C1503" s="3" t="s">
+        <v>3831</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1503" t="s">
+        <v>485</v>
+      </c>
+      <c r="G1503" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1503" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1503" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1504" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1504" t="s">
+        <v>3832</v>
+      </c>
+      <c r="C1504" s="3" t="s">
+        <v>3833</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1504" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1504" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1504" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1505" s="1">
+        <v>46037</v>
+      </c>
+      <c r="B1505" t="s">
+        <v>3834</v>
+      </c>
+      <c r="C1505" s="3" t="s">
+        <v>3835</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1505" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1505" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1505" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -52068,6 +52613,15 @@
     <hyperlink ref="C1487" r:id="rId20" display="https://news.google.com/rss/articles/CBMiuAFBVV95cUxPcUNhTGRYaklwb1FUb1NLMlhIemlEMmtkbTRfWFR0aXg3eTdvZmw2YThYMTdNczk3cV8zTXpGSFRtTGt6NDQtbVZJLTBlSXhXUTZkUjNFRkhZRWQzVU9RMHc3RklLek9BQmp0OTlqby1kR191bnJKQVltVVR0aHFvU2JpaGdETlpsdDlhSWRoXzZGaklScUlpZ3hiVi1jREdMSDRRZGNmN3FZc2lvV2lkSXU1c05LeTlh0gHGAUFVX3lxTE1pLXpxVWhRTkU2RGIzS3ZyMnJrU0g2NWFPbXRyc0xONkE2bmJLd0R6NkFkWjlWM0JndlFEbmVVR1Q3T3FzNDJMQS1WdmNYcWc3UzU1T1BuTnYwMFVJcEZXcWFHUWxzek1qc0lJdTNEcEVJS0kxYXI0aktHLUc2WHYtMDVXNlVhNEFLNTFFRlVucWduMVoxMzVkanJVNjh1Skx6c3lWS09pYmdjTkcxd1J4RDd2OFZSRWNiVmlaRkp0eDlTZmZPUQ?oc=5" xr:uid="{C4BDAA5B-1716-4F1D-8CE2-1F172E2F9BE5}"/>
     <hyperlink ref="C1488" r:id="rId21" display="https://news.google.com/rss/articles/CBMiYkFVX3lxTE54VDA5RXhQcS1JZEZISThzQXZjblZWWDFwOUhseU1NN0U4OVBEZm5hWUhTZWFuQzRLWmVuMlFUWlRKaEpJbDhreUcwZEhEMHgtdTNCQl81MDFTSVUyemw3dDVB0gFnQVVfeXFMUEh5azkzWldZNm01ZjFrdXo1akdEbUJKbmpqbnRBNGUtcDFja2k5Z3ExZWk3LU5nbjFNcVBrNDJIYnlVcFA0MTlqTlZQYkg5QnRqc0NjUDJPVjdjMzREX0Z1bVpMSmdWUQ?oc=5" xr:uid="{B0D40148-9016-4777-8A68-9BA0DAD618A0}"/>
     <hyperlink ref="C1489" r:id="rId22" xr:uid="{77FA11A3-4192-4F83-B9A9-41DA185EFE1E}"/>
+    <hyperlink ref="C1491" r:id="rId23" display="https://news.google.com/rss/articles/CBMi7gFBVV95cUxPUVFCQTk0V2hXOWRMNzJRX19ZcmNGTkVsUXI2blNtaXphVUlZckd5TVZRX082VlRqX2lrcGhNby1IdUtobzB3NmM1ejZ1OW14M0pCTjkxVDRWRW9YeDNkQnNZcVlvbnYzSkpVXzltelZjc1pwWWhpNXVaSXM1Q3J2bjJEWlhNX1l6NUs5M0FyMGJEVTYtMWt6UHhvMTQyTEQ4SzdXM0FDaGpGMS1SSVQ2TXpXRTBHaGlZLTc2YlhTMGxIbnAtRnVhX0IySngyeHRFcFJZOFlMZ3M0c2tpWnd2U2JqVm5MRnlKTjlNU2JB0gHuAUFVX3lxTE9RUUJBOTRXaFc5ZEw3MlFfX1lyY0ZORWxRcjZuU21pemFVSVlyR3lNVlFfTzZWVGpfaWtwaE1vLUh1S2hvMHc2YzV6NnU5bXgzSkJOOTFUNFZFb1h4M2RCc1lxWW9udjNKSlVfOW16VmNzWnBZaGk1dVpJczVDcnZuMkRaWE1fWXo1SzkzQXIwYkRVNi0xa3pQeG8xNDJMRDhLN1czQUNoakYxLVJJVDZNeldFMEdoaVktNzZiWFMwbEhucC1GdWFfQjJKeDJ4dEVwUlk4WUxnczRza2lad3ZTYmpWbkxGeUpOOU1TYkE?oc=5" xr:uid="{557661E7-791D-47B2-9D31-468CF1B66E93}"/>
+    <hyperlink ref="C1495" r:id="rId24" display="https://news.google.com/rss/articles/CBMi1AFBVV95cUxNNnJ5LXRtUkxvaDAzX0NWeFA1NnpYMTBGNzdUMFM1MDlIYmhDd1Ywb2IwRnhFWDQyS1pXUmVQclB4RFZMaURib1FZRUxpUFVrSDRzU1daQm9XbS1IMGNqeWtMMF9ZNlR2MmNMdkhwTGVRaFJrMVNXLUI5Wmd5b3piR1puaGc4TlJiZWprOUtpRTlxLUJUcFZZSkVyd1J1cGJSbUxDcUozS1VzSXBvSTJHeXBQZGNZNXJnUmtITGxUQ3FIOElSc1paSERibUNMOVlVamNBS9IB4gFBVV95cUxNdTFEWmtSWEpFdlo3WEhGdlZiV2t4RE5kTnd4V2RwZHdGb0lHcWpGbDhLQnVRT1hHX1lPakhEN1REa1JodkpSVW9kV3ItdFE1MEVSd2VFamFJTGlnZDZCbHBKUVM3MmVEdTA3RTJ0ZzhraWZHbDNFTTIyOGlQYmNCZ0RlT3A0QWNUX0ZJR1JmRDAxWWhzN1YxVWVoM3FmRHRxWXF1amtLMm5JNVhsTEs5LTdrLWhkQ01kX3ptdkROQVd2ckU3YzJlS1ctZUZqNVpFcjVReTdBSTdDQjdrcDRSb1l3?oc=5" xr:uid="{5231844B-2861-4FCC-9F1E-E0CDCB53CB2E}"/>
+    <hyperlink ref="C1496" r:id="rId25" display="https://news.google.com/rss/articles/CBMi3AFBVV95cUxOeUFzU0dCXzR4MmlMODRERFR5em13cVdYcUFyUFRZWHNVN2lrMU9xbHR5aExxM2R5TmFqWWlTcllOdHNXUnpoU0JJTk44WG44eDdxWGF6VXd4ZEk2a1A1T1JpQ1BzT3lSUVF4TVNtLUliTW1md2hneHAzUFF3S2Z4ZHBzWjRSVGljOXZkNktKbjlVLWVXVDFlOWFrTVhhdjBWUGNaM25pOUQwSURiOEFmZVZpbzFfWFlnZ2R6Si1SSFkxNEdJUWR5cmtSVGxEck13SWljR0UyOUpyWXo30gHcAUFVX3lxTE1FdG9zcE5mckNPRmlFMG5VdHkyelp3VUtsckMtRXJjUEtwbFlHOFd4R2tjNkFjZFUwclU0RzJJUDU3UzVHbndwUTQtYlRGMzU5S2lPYk1pazNHVDlMT1FjMDduUWdZRWd6U1VBQVJzMzlKUmt0U2ZSOU1MeTl5NUsyaENaTHZwQW5yakFjdEJnSU1uRVRkWG5Lc3J3SDZwRFVNYVcwdi1KTy1NN3IwZG1QOG1RUGlWQ1JKLUhiNUhHa1c3cFJPdXhWUzZHZ2Y4ZEJJNk9VTElGMkV5WjE?oc=5" xr:uid="{28412CC8-58CD-45FE-9C3C-68D384130A24}"/>
+    <hyperlink ref="C1497" r:id="rId26" display="https://news.google.com/rss/articles/CBMi8wFBVV95cUxNMURFOWtfb1RpbXRHZ0tkUjAySUdNN21MYVo2YWNXcEJNNHhoelBMdjZPTWxoeVNmbVNMcUZxdGRUeTFCVGsxaWZlZG1DdWRJUXpQcUk5T2FQX0E4ZFBNNHBsWEtDT2xWSldvUW54eko5elBlYWU2ek5oaVJpaHR5aUFTZFJVN3ZVa2R5d3Axby01b2VrQ05sOVBvOHI4QlFPXzVwT1ZKYkZnMERKYVU5UVZPdDNlUGFseVZobGcwdkItcFJZbmZWcko4REw2Zk5YcGxDYzVMTkRGNVhxb3pDLTBUSGJqMW5vbXpFcGQwY25iVXPSAY4CQVVfeXFMTk5ZbEVzMEtRdDZScDJKTUFLbGhtazdITVBaX0lRM0V0QTVhZi1QOTFtVlk4aUlwbWRQUVFLSHFXUGVMSHRkRVJBTkJSelphRHF5a3JnYjdIM05SdHBxNzNyd3JpanFrNENVODVPYVpTMVpmSUVaUDRvWnY4cUtuOTlRWDY4eXFsT2Y3WWZMa3p2N1ItS3JjRlViVGE3UlZkS2ZObzByYmlGR1JhNGFDNmt3THVmaDN0dklmZGh1WDFfbTNMTEttUGNCUnd1S0lKVmJiREl6aDA5d19iN3hDZFA1TjZJOFd2eGx2WjktNXh4bDdOUXVIc3BZWW9uWkswS04xVXFOdW1XdXFEbXhB?oc=5" xr:uid="{9F985206-DD53-4B62-A1C9-FFA93CCA51C2}"/>
+    <hyperlink ref="C1498" r:id="rId27" display="https://news.google.com/rss/articles/CBMipgFBVV95cUxOdEpfUjRNdFRHZHhCTHZlV1RXM09mZXJwRGFWOGRfY1JoRmhFeURPNnUwZldxSHMyMEhJVF9HbmlQWTVkZTZybjF2VHJEdW9rU2dFMEpHRUNfdVNwb0d5MUZWNWUtUDNvcUVQRHBQSTZfNXJsVVRzUHNxTkJaS2l2THMzQ3ViMFdXRnhJQnM3WDAxMjZYam5kTFc0UFFWVkUxWktMc3VB?oc=5" xr:uid="{90AB5715-5B12-4902-8B0A-E931E8D16EF7}"/>
+    <hyperlink ref="C1499" r:id="rId28" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxPa3pQOTBhWVF2NS10WFJOM0plSmtzM3NCNGJsT0FFcERQamhrTklJUUQwVjlGbVlLMTdJOWNPalcwSnNSS19VeW44azMwNjA4V1doSzAwNWoyT2E0MDBubzVTNE9RZUVjT3ZydDFmbTY5X3hVUXhPQkNnb2ZPb2l5Umo4ZVJwczNMRUxiNExxcmRBSmtTRnhST2Q4cUJEZ1Iwa2piLTRiQ3JidjFTUWFyT3JnRjBDTnlRX3k2U3Zpb3hKb3pRckNjY2p3?oc=5" xr:uid="{6185CDF8-1122-48B1-ADFE-A10EF195E544}"/>
+    <hyperlink ref="C1502" r:id="rId29" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxPNmVFODlkbmNLSXVIcDF0U0x5RTdITDdMcGhoanVQRFNjemlRZGV1QzVIRjN3MDlTMjIxZDQzeW1sWG9kQnh0RXFIZk1sNFg3RjZSRzJfMTRKOWJ3MlRndkhYZV9ISXdTZFNKOFAybm9rS0E3b2g3STk1LXhweWcxZ190enpBYzhiWUxOemJ1NXUwWWc2LU5VbmFWdHhuLVpxTFN1ODRsZnY3clRNcnNGU242em1xMktxWmQxcw?oc=5" xr:uid="{2594A512-73D5-46BB-B965-CBD88DBE1A3A}"/>
+    <hyperlink ref="C1504" r:id="rId30" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxPV3FsdDFNYlFBNTVsVzBVX0wxZXUxMWphbnZmX09YQnVRMEdFVXdCaDlad085NDhUZDRTSllDb0lWY0JTNFF2SDdEWG1GNnlQYW1MdkoyNzhnZHcwUG9LbzF1TWxIWHBfem10QVRLcDFRWFliX0Ztc1J2SnNjS19WUUJ0dFlaNll5ZWd5NnB0TG9fZlNfZDk0TFM1ZFNYcFJlTWVGSjAyd2laQWpUNWVCbUYtTmJaQXFvUmNQY09OWjdPeHZ3eDJTbW5oY1dMRlgtX0ItR2dTQlhSd9IB3wFBVV95cUxQcnF4Qll0RmZCYlI3YlVORnVYSE9fb08zOFJsU2s2d3RyUzVfeUpsSTk3RnJqeHZIX19mVEZDTm95TWdNcUNjQ3U5N3BnYndfZWt0MkZBU01nXzdOR1ZpRHRSbmNQY1V1bFNMX2pyaVhFQnJWZGtRYWR6TGhsNGZLWmM1bHNVQWJ0bUpTQzVOclotQ1RfQU9TNmEzT05UeVVLSW9KTFd0NkhjUm0tSC1VTG1IcW1aTjVXemdmTHgtQ1M3NHNHSmJVVUdEd1Q5NG1QNWphTE9oWUU5Wl9ac0JV?oc=5" xr:uid="{B1142677-FD66-4004-8DFE-3361EFB7C9A2}"/>
+    <hyperlink ref="C1505" r:id="rId31" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxNNHJPMUdNSG1MM2dsbnN6VFpOd19uZ0ppQ2hrRlBuZ1haYjg1dFNObnVsYjNxNXhFcHNhMFNHOUlDNVpNNlFoQTB0ZFRwT3dqX3lqZklwS2xuME5lRkIxUmNIeG5YaWhnZjdoZE9RRHQyMFpXbWVTdGVYVnJ3OGdUWklHQTEtVE4zX3YxUWlyd2lXUzEyemR6ZlVidjBMVHRUdGFiS1FsS241ODBObjVZSHJrTVFRQlBJamM3aVNUQTAwMHNS?oc=5" xr:uid="{31EA91F7-5B73-4D2F-A261-52415E66DBA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070EFF9F-DFD2-417B-BAD2-BA0B0A480274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0633A6B9-0953-416A-9569-3D3269A8C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10889" uniqueCount="3836">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11054" uniqueCount="3890">
   <si>
     <t>Fecha</t>
   </si>
@@ -11531,6 +11531,168 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxNNHJPMUdNSG1MM2dsbnN6VFpOd19uZ0ppQ2hrRlBuZ1haYjg1dFNObnVsYjNxNXhFcHNhMFNHOUlDNVpNNlFoQTB0ZFRwT3dqX3lqZklwS2xuME5lRkIxUmNIeG5YaWhnZjdoZE9RRHQyMFpXbWVTdGVYVnJ3OGdUWklHQTEtVE4zX3YxUWlyd2lXUzEyemR6ZlVidjBMVHRUdGFiS1FsS241ODBObjVZSHJrTVFRQlBJamM3aVNUQTAwMHNS?oc=5</t>
+  </si>
+  <si>
+    <t>Ratifican a dos miembros de junta de Ecopetrol; pero sacarían a otro para abrirle paso a candidata que vinculan con la senadora Isabel Zuleta</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/unidad-investigativa/ratifican-a-dos-miembros-de-junta-de-ecopetrol-pero-sacarian-a-otro-para-abrirle-paso-a-candidata-que-vinculan-con-la-senadora-isabel-zuleta-3524356</t>
+  </si>
+  <si>
+    <t>Senadora Isabel Zuleta dice que sí conoce a candidata a la junta de Ecopetrol, pero que</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMilgJBVV95cUxOdklveF9EY2tMSlpKNlpRdXJuUXFMN0FsSG01eGFZeC13eDkycHo5cG9WZGNJcTcyQ0cxVDdmT1EycjlLUktCNmxKUjRlSHB1b3VodHROZEFGNUVCT3IyU3Y4d2JXZ1ZWREpHVkhIOVRPY3BxeXNkb21Jd19taVlSenJFUldHYW9yd0szNk1SWXdtb3JvdDc3OTExa0lpUUt4a0xQV3owNjhkZUhoYW1UNkJrS200WElYNkVfaHU1a1F5LVZGMXdEQlBNQ2F2NVpOcDgxR2VKb25ibk5kMXR4MjY4Y0M3Z3YwV3N3Z2xWaTR6MzNPVW5hYWlPZ0gzSWhEbEJBY0Fvam1xTjRhMXdiSXJKem5Udw?oc=5</t>
+  </si>
+  <si>
+    <t>Ecopetrol informó que se eligió como candidato a la Junta Directiva a Cesar Eduardo Loza</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxNcm9EaGJnLTFWdkRmakJIOHNDTS14bUl4XzFlVzBMUG42RFBGQ0FJeUhCblBoMFMzUWloNkc2VWFfb3J6X2VSVHh1b2JNVElpLVo1d3A0cVNSbWtGYzdJWlg2M3BRczlWV3RnNklua3FkRjM3QUZJVWlqc0hBT2dIMXFsTmdUSlZkNFhMMi1DZFNLNDE5Tl84V1hfZVl2NVhYU1RFYzlBamtmcVNPaVhJNk1PMWNRcUhnUU1kMFEydllsMmN4TmdwNzdzQljSAcwBQVVfeXFMUGpZMGxCX3FzMkxkTERoRHJxZ21PQUttZnpMd0hUVWdrbFZXel95WXpieS1USVJOc0JFeGo3eHlYbmdVV3hSbW5LbU40b0tTYkFYNEhWbTV1c2dvVXVsWnNacnlyUnBldUtJVTRCa0hZTFFheUhzLXlFQ0Zkb0FRSXE4VHQtZ1NscEZKVnZycE1iM1g1WUFmQ2w3ZEhILTlPS1FicWgtQTlyWmZLeUt5QTlTSjZwcmFOX2ZfVjBzdXdia05hQWU3MjNmNHFQ?oc=5&amp;hl=es-419&amp;gl=MX&amp;ceid=MX:es-419</t>
+  </si>
+  <si>
+    <t>Empiezan a conocerse fichas para elegir nuevos miembros de junta directiva de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxNaFVGNUNGUTdITmQxcUszaU1yejFaQXgyZHJuMXluQUdHZ25QbTNoY21pWU44YXlhRTdHWHE2a3RySVJmUU96Y2NXTzBYX2llZ3MyMzB1dnFDMXo3ZlFvUXdsRFV2MlZIdDAtTlJ4VXZUOGNvMHBYZ0xaYmVuTlB0NkpaMU5FMEI2R0VZMFl1cDYzZzBKQlhaaFdCMzJ0Z2lRSGIwZnI4QzdhejdlbG9lclozSGpIVTlLY0ZOZ2tDR2dad1Rha0N0atIByAFBVV95cUxNU09zT0dkUlYzNU9EeXAwcXhfTFo2UnV4OEV0djJnc0tXalRtTlhaQ1V1WVQxd04wMHdKOWFZa3UyMU0zSXJUdkxDUHBtcllYb2VQOFBjRkoxOGRVaUVsaU9QVkVBZVVKaWpzRUtzODNmcE96UUhRVnlsRm9oZEp0YWx6XzNmOXdYbEdyTWRYY0pLRGFjcFVBaTlDd0Z1VkN1WTRRZVVveWdnUWY1Q0ctb2hiMXFUakVvVVBFdF9ZSV85Y3pLZklvYw?oc=5</t>
+  </si>
+  <si>
+    <t>['nuevos', 'directiva']</t>
+  </si>
+  <si>
+    <t>Por primera vez, la Unión Sindical Obrera entrará a la Junta Directiva de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/economia/por-primera-vez-la-union-sindical-obrera-entrara-a-la-junta-directiva-de-ecopetrol-4306196</t>
+  </si>
+  <si>
+    <t>Roa defiende transparencia en elección del representante de trabajadores en Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1gFBVV95cUxQaFd2T1FReElTV0dKRmNaYjFXMmxBUklvZjJfWXNDWi1XYTNSZ1RSUjJQcTV1RjNiU0gzR1phQ3FDR3pmbTRBT19ZS194OFFwVFg1Xzhoel9QV2VWaDBlQ1RQY2hBVWhuWC1GYkh0cXJsQVR0eThWVVhTVnlJZEdkR2FpRXk4ek9KTzFreFBwYjdxVFFHNHpYWWUxT0lLS3JpOFVJVDBjbmRfV3VXSk9zWVlRb1FNSVREbHJ5WUd2X19RR3I3Z0RmdC15dmFpWERZN2FEUXZn0gHWAUFVX3lxTFBqZG5yWmNzajFuOHMxTGRlR2hIcUUxWVIwc21jN0hLeGlReTlERmNYVXB2Y1ZwaFRmN09oRk9UZlk2QzA3Z3FPQWZmNmFYR2dpT1NNME0ydFR4cjdEbndaT0pOV1JZVnVGWTgyWDNoX3FZclBLYkFLaHV3XzlkdE5mOUZPU010dTNrSFIzajZiTE9YMXQ3QUlrdWxLTnRBdDlXajQxZUxaRElXaGlvUjNHR1JUWFJSM2JWdWJEWUxKYnQxRXU1WE1vazV3ZUphX3pNMWRtcVE?oc=5</t>
+  </si>
+  <si>
+    <t>Ecopetrol invirtió más de $70 mil millones en proyectos sociales en el Magdalena Medio durante 2025</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/15/ecopetrol-invirtio-mas-de-70-mil-millones-en-proyectos-sociales-en-el-magdalena-medio-durante-2025/</t>
+  </si>
+  <si>
+    <t>['sociales']</t>
+  </si>
+  <si>
+    <t>Gobierno Petro presenta dos nombres para mover la junta de Ecopetrol en reemplazo de Mónica de Greiff y Guillermo García | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiwwFBVV95cUxPczlRRVJkWTJiMVE5cEpUcFdjX0d6NkdveVlINFNsVHFMYUEyT1B4c0xFT2JUZzI5cng0UDVtOWdQSk9DcmFfNXgwSV9vdElJaFpEU1VzaTFCUkpuSWwwSWUyaGdxOGR4dXJRS3BicDRQVXpaQ09HLVFNUVNUNXNQc2dwS092c2FjWVNIMEhSd3lpYTd2eW9BWTBTbnZzeXBYWng3dEQyMXBELXVxZXotcGJlWHZ3U1V4WEVfSUVFdXZ2ZmPSAcgBQVVfeXFMT3FrSlZhWmdmckNDa2ZTOVZxNHF3LUZCVFF3ZEZrcU5EdTEweFFIWlF1TzhwaVZrNlVyc0UyTEd4VFZqLVhrem5HVkR1MTV0V2t2WXB5SVhMYTA0MTJUeXFCbzJnRElLeW9Qck1DaFpHZnkwalFSSVVMVFNLYnI5ck9Kam9aeG1zTjNrRWVsM29VNFVhOGVYWmJLUWF5MDdJT0VXaDdsaXBiX3BJazVlOHhaUTRQV0RIX2RWaDJScHI1eUFuMmN3NXo?oc=5</t>
+  </si>
+  <si>
+    <t>Dos perfiles anti-fracking presenta Petro para completar Junta de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://www.lasillavacia.com/en-vivo/dos-perfiles-anti-fracking-presenta-petro-para-completar-junta-de-ecopetrol/</t>
+  </si>
+  <si>
+    <t>['anti-fracking']</t>
+  </si>
+  <si>
+    <t>Gobierno mencionó dos nombres en la junta de Ecopetrol para reemplazar a Mónica de Greiff y Guillermo García Realpe</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi8wFBVV95cUxNS1IyZkwwZFh0Mi1UcTFzLV91TU1jV00tclBYX250OHJTOTZCT21rTUpjZXA1NDluTGVqd2tkLVVBWm9NVy00SzIxdGZqX20wbHh5M0dXdFJCV3pnbk1xNWEyRHhUVHVkYUd6WDNHbHVCbGt4UGM0QU9pVm9ZcHVtSnBUbHVlUnhiQ1RSM2h2N0l2N21lUTdFVXBMbmc4T2ZKOWxzVkhQbVpjYjIxVTNXWXNjUVlta3YzbzY5MS1OWExIV2tDZHI3ZHIwOGZCZ0p2ajQyV3NDZGc4RWxtUTlLSXZNMi1qNkNmdEFXaHVsLXNkSVXSAY4CQVVfeXFMTVI0cWtFeHZzNHNsUjMwTUtQbDd5ZTRTZG9fRWUxUnZhOXMtOV84UG5icGpVUjloajhwN1R1RFhWN0ljb2tGUTVlcTRvRzFuY1pKNWlCTlN2dTRaZW96VjRUTTFubXBRNzRibWVwbDU3REtXM0h1aTVhQUg3SnFQTUszTzI0V01PakFuYklNX3ZldGdlNi0xMWZ6Si1STWJSeTRKZ09RN1BBdUs4T2dVV05mODJJYThuZVdKNk9JRmlmZ2dKQmh2VHRVSWcwZlA5cHpWSlM0MGI0cGJOLUFyUmdGWC1MOFkxdERNSXhMT293UnNCQ2lfYTFCUWRDeFhxQXRaUDkxUHhGZWVFeHRR?oc=5</t>
+  </si>
+  <si>
+    <t>Pelea sindical en Ecopetrol: denuncian irregularidades para escoger al trabajador que estará en la junta directiva</t>
+  </si>
+  <si>
+    <t>https://cambiocolombia.com/empresas/articulo/2026/1/pelea-sindical-en-ecopetrol-denuncian-irregularidades-para-escoger-al-trabajador-que-estara-en-la-junta-directiva/</t>
+  </si>
+  <si>
+    <t>['sindical', 'directiva']</t>
+  </si>
+  <si>
+    <t>Se define puesto clave de los trabajadores en Junta de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinAFBVV95cUxOT3VNSGZqQzdFSC1xTFEwOUlOTkRuQXBQb1RjNjN1ZjF0WFRpY1BNSEhkdTExSUxtRFZfbGJhOEwzMXppZm9zZFp3QjVQY0tFcTBqbVp3N2VIbVY3OE1KT0Q0R1pZQWE1NWtYa09CN2JqdktGU1BMQ3FiaTV6Szdaamptano4RVl2ZWJfa1I1VFU5YWtMN3ZDTWFqWlXSAaIBQVVfeXFMTVIwTzFjbTFNdHBZcGVwOHVOeU5IaU5pNjFPeVVGeUFTaElmb1ExZlRyS0tLTF9pQlFCVDBlRkN4TnRGOWZKUXgxWEYxZ0NBOV9neWtPeTdTNjFfbURtcV9COHU4dllUU2ZZOEsyWFQ0djdTM1d5VXNpd0F5WnNkek9pYnFVZVVUa0xueXVEMkxBbHVmZFdKVnQ3SVY3cjd0ZlBR?oc=5</t>
+  </si>
+  <si>
+    <t>['puesto']</t>
+  </si>
+  <si>
+    <t>Ecopetrol ratifica a dos miembros de su junta directiva, pero se prepara salida para incorporar a nueva candidata vinculada a la senadora Isabel Zuleta</t>
+  </si>
+  <si>
+    <t>https://www.diariodelsur.com.co/ecopetrol-ratifica-a-dos-miembros-de-su-junta-directiva-pero-se-prepara-salida-para-incorporar-a-nueva-candidata-vinculada-a-la-senadora-isabel-zuleta/</t>
+  </si>
+  <si>
+    <t>['directiva', 'nueva', 'vinculada']</t>
+  </si>
+  <si>
+    <t>Ricardo Roa defendió el proceso de elección del representante de los trabajadores en Ecopetrol y anunció que se abstuvo de votar por “imparcialidad”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMimwJBVV95cUxOU1NRRUttVEtTZzlrZHV0MEt2TF8za3A0dWh5NHNFa1I4UjFzVGVPQWdGaXNpTmRLNnJrY2pCSFlmeVpvN2wxRjNWMHhtZnp1Z2lIdXhrbnFMZ3NqRkhJbDNMY3dTalgwZm9ILUVnLVRmalM1QVA2ellTYkRYSUlBWTlVUWNwMEh3b0o4eU4wdnp3c3FpMkpUVTZ2SG9OVW12VnFLX2ZSUEJ6QUl6dk5OLVd1U2Jhb1lnYldGd1RuVWZtX1hldlF6eEJ5VW0zSTNKZmFwVFl6dWN1dGgwdTZFS2JyNEVFYTRCNHMzUHpOTnA0dHFNeGxxbXhqQ3RpT3g3UTFQdzlOQ3ZWaGZjSWt6LUF2VUZ4VVRTVXlR0gG2AkFVX3lxTE9uTnlaVmVxNm9OUWJNZVVpX2FpWC13T25OeFJ1S0lVMnBjWmM5WG92dF93LVdwMkY4d0RCQk85Uk1QTG1YZ0ZFY2F1WHc0YnVrVFJySXg3STBfVzhLVWFGaHlCYlJRSzBWSkxrazNFN3N4M3RSb1J3V2VhWlNOSzN3T0w1M3FnY1ZXY29jWmpoTWZ2bjdkVG1icTZIUmNXV3oyTF8wTnV3ekh0OTlILWMwZVNOdXpWMTJKYllTQnk5czRDS3pxSEVucGM1OEVkVkRfQnh6TFRYUnAzVnNqSnhTNENCUkM3QWh4YUExQTQxRkFNd1Z5OGs5YzUwWFJmSVpmZEMyb0JGQTlsQTJFQkE5aXZ1d0RYSFBhSjlBZWdyZ0xfS184dE9mSzQ1NmFqdTlTYk51U1E?oc=5</t>
+  </si>
+  <si>
+    <t>Afinia advierte crítico panorama financiero por el bajo recaudo</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/16/afinia-advierte-critico-panorama-financiero-por-el-bajo-recaudo/</t>
+  </si>
+  <si>
+    <t>['crítico', 'financiero', 'bajo']</t>
+  </si>
+  <si>
+    <t>Afinia optimizará subestaciones Pradera y Río Sinú con trabajos programados este domingo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMifkFVX3lxTE5GUnpoS0F1R293SGt5aTlKSUQ3eGtRZkhzaWsyM2FLb093aEtkTVFpUDRFMl9xM29rV3Fkc2ZhZzAzblJ6aW9SRlQ1YVIxQ3RHbzVyTTgzcEdOak9VWWtoamxZSlhzZ1ZrMDM2UWc3MThRdFN6RkdhNVFBVDJYQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Air-e denunció casos de robo de energía en La Guajira, Magdalena y Atlántico</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxPMFJKa2x4SWNFUWtOTDdkZDRXSU44MHl1ZVMxVWZfcEtlb2gwM25Rem15LXZSRjZiRjQtcjZ2T2R2R1hEWk1WQ2ltcGVnOVZLbGZkR2VseXN0QVQ1N0ZuZGRFaHZJaHdBLVRvYjZ4eFRURFhYazhZc3dLdktzV2w0Z2ZsYVIxalU1M1BrRXRDR0dPaktHQ1RNN1pOU3NaY3hWMk9sdGJ4eGt6dWFERDRnaFhqMlNtc0szcFM1TWoybmE5Uk1SeXBnUm1MSVBJQ1ltTUxz?oc=5</t>
+  </si>
+  <si>
+    <t>Cobro de $8 por kilovatio hora por deuda de Air-e cubriría parcialmente la deuda en $650.000 millones anuales</t>
+  </si>
+  <si>
+    <t>https://www.portafolio.co/energia/cobro-de-8-por-kilovatio-hora-por-deuda-de-air-e-cubriria-parcialmente-la-deuda-en-650-000-millones-anuales-486358</t>
+  </si>
+  <si>
+    <t>['anuales']</t>
+  </si>
+  <si>
+    <t>Incremento en tarifa de energía sería de $45 kilovatio hora ante subida del mínimo, deuda de Air-e y tributaria</t>
+  </si>
+  <si>
+    <t>https://www.portafolio.co/energia/incremento-en-tarifa-de-energia-seria-de-45-kilovatio-hora-ante-subida-de-salario-deuda-de-air-e-y-tributaria-486348</t>
+  </si>
+  <si>
+    <t>['mínimo', 'tributaria']</t>
+  </si>
+  <si>
+    <t>Atlántico, Magdalena y La Guajira registran el mejor servicio eléctrico de su historia con Air-e</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2gFBVV95cUxOaGg5dk9LRVBZTExCZWsyVkpyVTJhQ3kzaE05dXBHZVpuSEFWbEdmSmxPR0lNeF9YZUlPVjFFQkpkNHBBOG5jQk0yMFZKd1VqbXJQQVVYQ0E3Y19WdUdVcHg1Xy0zUVdGZjcxcDJUQzJiQk9RYlQtQkY1ZjNLRkFxUjVrRjQtM3o0X3hON091WXBEaGdXSDFoRVViX2NUUnpYdllHd3o0ay1vb3ZIODBoQy01M1poWnpKX2diR1RTcUNVeTdGalpPd1k4VExYX3c3N2tZNFI5cjBmQQ?oc=5</t>
+  </si>
+  <si>
+    <t>['mejor', 'eléctrico']</t>
+  </si>
+  <si>
+    <t>Presidente de la USO fue designado como representante en la junta directiva de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizAFBVV95cUxQb0JyVGJ1VmZ6Q0xDSVhxVUV4WEtFbXFvNE5nWlhJczZzWDdRNWF3Q0xLS0FrcFdIWC1VUFFlbVgySnFYenhzVXcyb0tOc0taX2xfcW9SQUVNZlhXNGVEeEVsRmFNbGlsWHVCVGVUVVVfYTZVVHAwWlNRYkIxalF2Z1Zpa3hxR0RJc3IwZzItWm5oY0RER09mUV9NbHNzT2FMd1k3TWpaYkQwSVBBa2RmaHlvUVcxRm53OV9Ydi1VVU9KNkpqX1BCeVBMeGrSAcwBQVVfeXFMUHZqVmdKQkhWaVFvZEo5SkpUVTZnSXdUa0d4NS1XTmdRbHBuNzRnN2k2anJUVVd0WFh4SUc3X252UHlFQlVhdDhER0hYajBUa3lSOGJJUk1xNjBZc2dQa2J5Yk5JMmRZYzdDaTFjQ01CZ1RTQVBNUHlKdnd2QTg4V1ZqZ21IZHpLTjFJTHZGNS1DRDFtQ3dCR3FNTldybkthUjg2TWpBOFVqVlJsZHFuanBEZjBUcEM3RWszVU5jWVZLYUI1b1BVd2lfdmhZ?oc=5</t>
+  </si>
+  <si>
+    <t>Así serán las pruebas piloto de inyección de hidrógeno en tractomulas del Ministerio de Minas y Energía</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxOcFdHQmFRN1Y1Vm51RXQyOFlmY1NtTE9hWEVwU3ZDZ2ZHVkxpd1MtbVRHNFByNHRDVWdBd1Y4anktcFZiOTM1YmJadlp0QUZOcWNXVVgxT3FVUWlpUXVyVzZoWUpDOGNEUUppSnFTeXBCQ3lIYlFSUkRkQkw0NWxKY0dOVnRyU0gxcnIzX1JpSWlPZk5UZE1seHZmRnhBbmpDMUJnLWpGQzNOTGNIYWVnd0FRSlhxRml0X3QzdWx6RWxobWxRUklCLUhR?oc=5</t>
   </si>
 </sst>
 </file>
@@ -12391,10 +12553,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1505"/>
+  <dimension ref="A1:I1528"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1485" workbookViewId="0">
-      <selection activeCell="A1490" sqref="A1490:I1505"/>
+    <sheetView tabSelected="1" topLeftCell="A1507" workbookViewId="0">
+      <selection activeCell="A1506" sqref="A1506:I1528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -52586,6 +52748,616 @@
       </c>
       <c r="I1505" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1506" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1506" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C1506" s="3" t="s">
+        <v>3837</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1506" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1506" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1506" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1507" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1507" t="s">
+        <v>3838</v>
+      </c>
+      <c r="C1507" s="3" t="s">
+        <v>3839</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1507" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1507" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1508" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1508" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C1508" s="3" t="s">
+        <v>3841</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1508" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1508" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1509" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1509" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C1509" s="3" t="s">
+        <v>3843</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>3844</v>
+      </c>
+      <c r="G1509" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1509" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1510" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1510" t="s">
+        <v>3845</v>
+      </c>
+      <c r="C1510" s="3" t="s">
+        <v>3846</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1510" t="s">
+        <v>824</v>
+      </c>
+      <c r="G1510" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1510" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1511" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1511" t="s">
+        <v>3847</v>
+      </c>
+      <c r="C1511" s="3" t="s">
+        <v>3848</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1511" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1511" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1511" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1512" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1512" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C1512" s="3" t="s">
+        <v>3850</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1512" t="s">
+        <v>3851</v>
+      </c>
+      <c r="G1512" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1512" t="s">
+        <v>880</v>
+      </c>
+      <c r="I1512" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1513" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1513" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C1513" s="3" t="s">
+        <v>3853</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1513" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1513" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1513" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1514" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1514" t="s">
+        <v>3854</v>
+      </c>
+      <c r="C1514" s="3" t="s">
+        <v>3855</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1514" t="s">
+        <v>3856</v>
+      </c>
+      <c r="G1514" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1514" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1515" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1515" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C1515" s="3" t="s">
+        <v>3858</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1515" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1515" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1515" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1516" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1516" t="s">
+        <v>3859</v>
+      </c>
+      <c r="C1516" s="3" t="s">
+        <v>3860</v>
+      </c>
+      <c r="D1516" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1516" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1516" t="s">
+        <v>3861</v>
+      </c>
+      <c r="G1516" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1516" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1516" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1517" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1517" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C1517" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="D1517" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1517" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1517" t="s">
+        <v>3864</v>
+      </c>
+      <c r="G1517" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1517" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1518" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1518" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C1518" s="3" t="s">
+        <v>3866</v>
+      </c>
+      <c r="D1518" t="s">
+        <v>1960</v>
+      </c>
+      <c r="E1518" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1518" t="s">
+        <v>3867</v>
+      </c>
+      <c r="G1518" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1518" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1519" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1519" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C1519" s="3" t="s">
+        <v>3869</v>
+      </c>
+      <c r="D1519" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1519" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1519" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1519" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1519" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1520" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1520" t="s">
+        <v>3870</v>
+      </c>
+      <c r="C1520" s="3" t="s">
+        <v>3871</v>
+      </c>
+      <c r="D1520" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1520" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1520" t="s">
+        <v>3872</v>
+      </c>
+      <c r="G1520" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1520" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1521" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1521" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C1521" s="3" t="s">
+        <v>3874</v>
+      </c>
+      <c r="D1521" t="s">
+        <v>3269</v>
+      </c>
+      <c r="E1521" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1521" t="s">
+        <v>2399</v>
+      </c>
+      <c r="G1521" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1521" t="s">
+        <v>3269</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1522" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1522" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C1522" s="3" t="s">
+        <v>3876</v>
+      </c>
+      <c r="D1522" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1522" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1522" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1522" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1522" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1522" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1523" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1523" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C1523" s="3" t="s">
+        <v>3664</v>
+      </c>
+      <c r="D1523" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1523" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1523" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1523" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1523" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1524" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1524" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C1524" s="3" t="s">
+        <v>3878</v>
+      </c>
+      <c r="D1524" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1524" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1524" t="s">
+        <v>3879</v>
+      </c>
+      <c r="G1524" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1524" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1525" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1525" t="s">
+        <v>3880</v>
+      </c>
+      <c r="C1525" s="3" t="s">
+        <v>3881</v>
+      </c>
+      <c r="D1525" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1525" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1525" t="s">
+        <v>3882</v>
+      </c>
+      <c r="G1525" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1525" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1526" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1526" t="s">
+        <v>3883</v>
+      </c>
+      <c r="C1526" s="3" t="s">
+        <v>3884</v>
+      </c>
+      <c r="D1526" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1526" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1526" t="s">
+        <v>3885</v>
+      </c>
+      <c r="G1526" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1526" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1527" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1527" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C1527" s="3" t="s">
+        <v>3887</v>
+      </c>
+      <c r="D1527" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1527" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1527" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1527" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1527" t="s">
+        <v>502</v>
+      </c>
+      <c r="I1527" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1528" s="1">
+        <v>46038</v>
+      </c>
+      <c r="B1528" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C1528" s="3" t="s">
+        <v>3889</v>
+      </c>
+      <c r="D1528" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1528" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1528" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1528" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1528" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -52622,6 +53394,18 @@
     <hyperlink ref="C1502" r:id="rId29" display="https://news.google.com/rss/articles/CBMivAFBVV95cUxPNmVFODlkbmNLSXVIcDF0U0x5RTdITDdMcGhoanVQRFNjemlRZGV1QzVIRjN3MDlTMjIxZDQzeW1sWG9kQnh0RXFIZk1sNFg3RjZSRzJfMTRKOWJ3MlRndkhYZV9ISXdTZFNKOFAybm9rS0E3b2g3STk1LXhweWcxZ190enpBYzhiWUxOemJ1NXUwWWc2LU5VbmFWdHhuLVpxTFN1ODRsZnY3clRNcnNGU242em1xMktxWmQxcw?oc=5" xr:uid="{2594A512-73D5-46BB-B965-CBD88DBE1A3A}"/>
     <hyperlink ref="C1504" r:id="rId30" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxPV3FsdDFNYlFBNTVsVzBVX0wxZXUxMWphbnZmX09YQnVRMEdFVXdCaDlad085NDhUZDRTSllDb0lWY0JTNFF2SDdEWG1GNnlQYW1MdkoyNzhnZHcwUG9LbzF1TWxIWHBfem10QVRLcDFRWFliX0Ztc1J2SnNjS19WUUJ0dFlaNll5ZWd5NnB0TG9fZlNfZDk0TFM1ZFNYcFJlTWVGSjAyd2laQWpUNWVCbUYtTmJaQXFvUmNQY09OWjdPeHZ3eDJTbW5oY1dMRlgtX0ItR2dTQlhSd9IB3wFBVV95cUxQcnF4Qll0RmZCYlI3YlVORnVYSE9fb08zOFJsU2s2d3RyUzVfeUpsSTk3RnJqeHZIX19mVEZDTm95TWdNcUNjQ3U5N3BnYndfZWt0MkZBU01nXzdOR1ZpRHRSbmNQY1V1bFNMX2pyaVhFQnJWZGtRYWR6TGhsNGZLWmM1bHNVQWJ0bUpTQzVOclotQ1RfQU9TNmEzT05UeVVLSW9KTFd0NkhjUm0tSC1VTG1IcW1aTjVXemdmTHgtQ1M3NHNHSmJVVUdEd1Q5NG1QNWphTE9oWUU5Wl9ac0JV?oc=5" xr:uid="{B1142677-FD66-4004-8DFE-3361EFB7C9A2}"/>
     <hyperlink ref="C1505" r:id="rId31" display="https://news.google.com/rss/articles/CBMixAFBVV95cUxNNHJPMUdNSG1MM2dsbnN6VFpOd19uZ0ppQ2hrRlBuZ1haYjg1dFNObnVsYjNxNXhFcHNhMFNHOUlDNVpNNlFoQTB0ZFRwT3dqX3lqZklwS2xuME5lRkIxUmNIeG5YaWhnZjdoZE9RRHQyMFpXbWVTdGVYVnJ3OGdUWklHQTEtVE4zX3YxUWlyd2lXUzEyemR6ZlVidjBMVHRUdGFiS1FsS241ODBObjVZSHJrTVFRQlBJamM3aVNUQTAwMHNS?oc=5" xr:uid="{31EA91F7-5B73-4D2F-A261-52415E66DBA7}"/>
+    <hyperlink ref="C1507" r:id="rId32" display="https://news.google.com/rss/articles/CBMilgJBVV95cUxOdklveF9EY2tMSlpKNlpRdXJuUXFMN0FsSG01eGFZeC13eDkycHo5cG9WZGNJcTcyQ0cxVDdmT1EycjlLUktCNmxKUjRlSHB1b3VodHROZEFGNUVCT3IyU3Y4d2JXZ1ZWREpHVkhIOVRPY3BxeXNkb21Jd19taVlSenJFUldHYW9yd0szNk1SWXdtb3JvdDc3OTExa0lpUUt4a0xQV3owNjhkZUhoYW1UNkJrS200WElYNkVfaHU1a1F5LVZGMXdEQlBNQ2F2NVpOcDgxR2VKb25ibk5kMXR4MjY4Y0M3Z3YwV3N3Z2xWaTR6MzNPVW5hYWlPZ0gzSWhEbEJBY0Fvam1xTjRhMXdiSXJKem5Udw?oc=5" xr:uid="{4985B091-C31C-4E18-AF61-29C548868DDA}"/>
+    <hyperlink ref="C1509" r:id="rId33" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxNaFVGNUNGUTdITmQxcUszaU1yejFaQXgyZHJuMXluQUdHZ25QbTNoY21pWU44YXlhRTdHWHE2a3RySVJmUU96Y2NXTzBYX2llZ3MyMzB1dnFDMXo3ZlFvUXdsRFV2MlZIdDAtTlJ4VXZUOGNvMHBYZ0xaYmVuTlB0NkpaMU5FMEI2R0VZMFl1cDYzZzBKQlhaaFdCMzJ0Z2lRSGIwZnI4QzdhejdlbG9lclozSGpIVTlLY0ZOZ2tDR2dad1Rha0N0atIByAFBVV95cUxNU09zT0dkUlYzNU9EeXAwcXhfTFo2UnV4OEV0djJnc0tXalRtTlhaQ1V1WVQxd04wMHdKOWFZa3UyMU0zSXJUdkxDUHBtcllYb2VQOFBjRkoxOGRVaUVsaU9QVkVBZVVKaWpzRUtzODNmcE96UUhRVnlsRm9oZEp0YWx6XzNmOXdYbEdyTWRYY0pLRGFjcFVBaTlDd0Z1VkN1WTRRZVVveWdnUWY1Q0ctb2hiMXFUakVvVVBFdF9ZSV85Y3pLZklvYw?oc=5" xr:uid="{362A68C1-2220-4CFE-B3FE-9BE0224130AB}"/>
+    <hyperlink ref="C1511" r:id="rId34" display="https://news.google.com/rss/articles/CBMi1gFBVV95cUxQaFd2T1FReElTV0dKRmNaYjFXMmxBUklvZjJfWXNDWi1XYTNSZ1RSUjJQcTV1RjNiU0gzR1phQ3FDR3pmbTRBT19ZS194OFFwVFg1Xzhoel9QV2VWaDBlQ1RQY2hBVWhuWC1GYkh0cXJsQVR0eThWVVhTVnlJZEdkR2FpRXk4ek9KTzFreFBwYjdxVFFHNHpYWWUxT0lLS3JpOFVJVDBjbmRfV3VXSk9zWVlRb1FNSVREbHJ5WUd2X19RR3I3Z0RmdC15dmFpWERZN2FEUXZn0gHWAUFVX3lxTFBqZG5yWmNzajFuOHMxTGRlR2hIcUUxWVIwc21jN0hLeGlReTlERmNYVXB2Y1ZwaFRmN09oRk9UZlk2QzA3Z3FPQWZmNmFYR2dpT1NNME0ydFR4cjdEbndaT0pOV1JZVnVGWTgyWDNoX3FZclBLYkFLaHV3XzlkdE5mOUZPU010dTNrSFIzajZiTE9YMXQ3QUlrdWxLTnRBdDlXajQxZUxaRElXaGlvUjNHR1JUWFJSM2JWdWJEWUxKYnQxRXU1WE1vazV3ZUphX3pNMWRtcVE?oc=5" xr:uid="{830AA475-B702-4FDD-ACE4-B9DE645DBE4C}"/>
+    <hyperlink ref="C1513" r:id="rId35" display="https://news.google.com/rss/articles/CBMiwwFBVV95cUxPczlRRVJkWTJiMVE5cEpUcFdjX0d6NkdveVlINFNsVHFMYUEyT1B4c0xFT2JUZzI5cng0UDVtOWdQSk9DcmFfNXgwSV9vdElJaFpEU1VzaTFCUkpuSWwwSWUyaGdxOGR4dXJRS3BicDRQVXpaQ09HLVFNUVNUNXNQc2dwS092c2FjWVNIMEhSd3lpYTd2eW9BWTBTbnZzeXBYWng3dEQyMXBELXVxZXotcGJlWHZ3U1V4WEVfSUVFdXZ2ZmPSAcgBQVVfeXFMT3FrSlZhWmdmckNDa2ZTOVZxNHF3LUZCVFF3ZEZrcU5EdTEweFFIWlF1TzhwaVZrNlVyc0UyTEd4VFZqLVhrem5HVkR1MTV0V2t2WXB5SVhMYTA0MTJUeXFCbzJnRElLeW9Qck1DaFpHZnkwalFSSVVMVFNLYnI5ck9Kam9aeG1zTjNrRWVsM29VNFVhOGVYWmJLUWF5MDdJT0VXaDdsaXBiX3BJazVlOHhaUTRQV0RIX2RWaDJScHI1eUFuMmN3NXo?oc=5" xr:uid="{BC0B6F2E-65B5-4025-BCF3-36FB7CE34DBA}"/>
+    <hyperlink ref="C1515" r:id="rId36" display="https://news.google.com/rss/articles/CBMi8wFBVV95cUxNS1IyZkwwZFh0Mi1UcTFzLV91TU1jV00tclBYX250OHJTOTZCT21rTUpjZXA1NDluTGVqd2tkLVVBWm9NVy00SzIxdGZqX20wbHh5M0dXdFJCV3pnbk1xNWEyRHhUVHVkYUd6WDNHbHVCbGt4UGM0QU9pVm9ZcHVtSnBUbHVlUnhiQ1RSM2h2N0l2N21lUTdFVXBMbmc4T2ZKOWxzVkhQbVpjYjIxVTNXWXNjUVlta3YzbzY5MS1OWExIV2tDZHI3ZHIwOGZCZ0p2ajQyV3NDZGc4RWxtUTlLSXZNMi1qNkNmdEFXaHVsLXNkSVXSAY4CQVVfeXFMTVI0cWtFeHZzNHNsUjMwTUtQbDd5ZTRTZG9fRWUxUnZhOXMtOV84UG5icGpVUjloajhwN1R1RFhWN0ljb2tGUTVlcTRvRzFuY1pKNWlCTlN2dTRaZW96VjRUTTFubXBRNzRibWVwbDU3REtXM0h1aTVhQUg3SnFQTUszTzI0V01PakFuYklNX3ZldGdlNi0xMWZ6Si1STWJSeTRKZ09RN1BBdUs4T2dVV05mODJJYThuZVdKNk9JRmlmZ2dKQmh2VHRVSWcwZlA5cHpWSlM0MGI0cGJOLUFyUmdGWC1MOFkxdERNSXhMT293UnNCQ2lfYTFCUWRDeFhxQXRaUDkxUHhGZWVFeHRR?oc=5" xr:uid="{8605DDB9-A560-4E23-B226-A21F80B70958}"/>
+    <hyperlink ref="C1517" r:id="rId37" display="https://news.google.com/rss/articles/CBMinAFBVV95cUxOT3VNSGZqQzdFSC1xTFEwOUlOTkRuQXBQb1RjNjN1ZjF0WFRpY1BNSEhkdTExSUxtRFZfbGJhOEwzMXppZm9zZFp3QjVQY0tFcTBqbVp3N2VIbVY3OE1KT0Q0R1pZQWE1NWtYa09CN2JqdktGU1BMQ3FiaTV6Szdaamptano4RVl2ZWJfa1I1VFU5YWtMN3ZDTWFqWlXSAaIBQVVfeXFMTVIwTzFjbTFNdHBZcGVwOHVOeU5IaU5pNjFPeVVGeUFTaElmb1ExZlRyS0tLTF9pQlFCVDBlRkN4TnRGOWZKUXgxWEYxZ0NBOV9neWtPeTdTNjFfbURtcV9COHU4dllUU2ZZOEsyWFQ0djdTM1d5VXNpd0F5WnNkek9pYnFVZVVUa0xueXVEMkxBbHVmZFdKVnQ3SVY3cjd0ZlBR?oc=5" xr:uid="{EABC5721-6F42-4E02-9055-3955AC537868}"/>
+    <hyperlink ref="C1519" r:id="rId38" display="https://news.google.com/rss/articles/CBMimwJBVV95cUxOU1NRRUttVEtTZzlrZHV0MEt2TF8za3A0dWh5NHNFa1I4UjFzVGVPQWdGaXNpTmRLNnJrY2pCSFlmeVpvN2wxRjNWMHhtZnp1Z2lIdXhrbnFMZ3NqRkhJbDNMY3dTalgwZm9ILUVnLVRmalM1QVA2ellTYkRYSUlBWTlVUWNwMEh3b0o4eU4wdnp3c3FpMkpUVTZ2SG9OVW12VnFLX2ZSUEJ6QUl6dk5OLVd1U2Jhb1lnYldGd1RuVWZtX1hldlF6eEJ5VW0zSTNKZmFwVFl6dWN1dGgwdTZFS2JyNEVFYTRCNHMzUHpOTnA0dHFNeGxxbXhqQ3RpT3g3UTFQdzlOQ3ZWaGZjSWt6LUF2VUZ4VVRTVXlR0gG2AkFVX3lxTE9uTnlaVmVxNm9OUWJNZVVpX2FpWC13T25OeFJ1S0lVMnBjWmM5WG92dF93LVdwMkY4d0RCQk85Uk1QTG1YZ0ZFY2F1WHc0YnVrVFJySXg3STBfVzhLVWFGaHlCYlJRSzBWSkxrazNFN3N4M3RSb1J3V2VhWlNOSzN3T0w1M3FnY1ZXY29jWmpoTWZ2bjdkVG1icTZIUmNXV3oyTF8wTnV3ekh0OTlILWMwZVNOdXpWMTJKYllTQnk5czRDS3pxSEVucGM1OEVkVkRfQnh6TFRYUnAzVnNqSnhTNENCUkM3QWh4YUExQTQxRkFNd1Z5OGs5YzUwWFJmSVpmZEMyb0JGQTlsQTJFQkE5aXZ1d0RYSFBhSjlBZWdyZ0xfS184dE9mSzQ1NmFqdTlTYk51U1E?oc=5" xr:uid="{72F838E4-ECA3-40B3-943A-F31B9E220F2F}"/>
+    <hyperlink ref="C1521" r:id="rId39" xr:uid="{2A50183E-9F91-4859-855E-8FDEA0880417}"/>
+    <hyperlink ref="C1522" r:id="rId40" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxPMFJKa2x4SWNFUWtOTDdkZDRXSU44MHl1ZVMxVWZfcEtlb2gwM25Rem15LXZSRjZiRjQtcjZ2T2R2R1hEWk1WQ2ltcGVnOVZLbGZkR2VseXN0QVQ1N0ZuZGRFaHZJaHdBLVRvYjZ4eFRURFhYazhZc3dLdktzV2w0Z2ZsYVIxalU1M1BrRXRDR0dPaktHQ1RNN1pOU3NaY3hWMk9sdGJ4eGt6dWFERDRnaFhqMlNtc0szcFM1TWoybmE5Uk1SeXBnUm1MSVBJQ1ltTUxz?oc=5" xr:uid="{D05CF852-F633-4933-AAE8-F21858301E4B}"/>
+    <hyperlink ref="C1526" r:id="rId41" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxOaGg5dk9LRVBZTExCZWsyVkpyVTJhQ3kzaE05dXBHZVpuSEFWbEdmSmxPR0lNeF9YZUlPVjFFQkpkNHBBOG5jQk0yMFZKd1VqbXJQQVVYQ0E3Y19WdUdVcHg1Xy0zUVdGZjcxcDJUQzJiQk9RYlQtQkY1ZjNLRkFxUjVrRjQtM3o0X3hON091WXBEaGdXSDFoRVViX2NUUnpYdllHd3o0ay1vb3ZIODBoQy01M1poWnpKX2diR1RTcUNVeTdGalpPd1k4VExYX3c3N2tZNFI5cjBmQQ?oc=5" xr:uid="{7326A544-EC6A-41F4-85C6-2DE242C711A4}"/>
+    <hyperlink ref="C1527" r:id="rId42" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxQb0JyVGJ1VmZ6Q0xDSVhxVUV4WEtFbXFvNE5nWlhJczZzWDdRNWF3Q0xLS0FrcFdIWC1VUFFlbVgySnFYenhzVXcyb0tOc0taX2xfcW9SQUVNZlhXNGVEeEVsRmFNbGlsWHVCVGVUVVVfYTZVVHAwWlNRYkIxalF2Z1Zpa3hxR0RJc3IwZzItWm5oY0RER09mUV9NbHNzT2FMd1k3TWpaYkQwSVBBa2RmaHlvUVcxRm53OV9Ydi1VVU9KNkpqX1BCeVBMeGrSAcwBQVVfeXFMUHZqVmdKQkhWaVFvZEo5SkpUVTZnSXdUa0d4NS1XTmdRbHBuNzRnN2k2anJUVVd0WFh4SUc3X252UHlFQlVhdDhER0hYajBUa3lSOGJJUk1xNjBZc2dQa2J5Yk5JMmRZYzdDaTFjQ01CZ1RTQVBNUHlKdnd2QTg4V1ZqZ21IZHpLTjFJTHZGNS1DRDFtQ3dCR3FNTldybkthUjg2TWpBOFVqVlJsZHFuanBEZjBUcEM3RWszVU5jWVZLYUI1b1BVd2lfdmhZ?oc=5" xr:uid="{C8C2B748-2FEF-4B7F-BA81-9F9E645982E3}"/>
+    <hyperlink ref="C1528" r:id="rId43" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxOcFdHQmFRN1Y1Vm51RXQyOFlmY1NtTE9hWEVwU3ZDZ2ZHVkxpd1MtbVRHNFByNHRDVWdBd1Y4anktcFZiOTM1YmJadlp0QUZOcWNXVVgxT3FVUWlpUXVyVzZoWUpDOGNEUUppSnFTeXBCQ3lIYlFSUkRkQkw0NWxKY0dOVnRyU0gxcnIzX1JpSWlPZk5UZE1seHZmRnhBbmpDMUJnLWpGQzNOTGNIYWVnd0FRSlhxRml0X3QzdWx6RWxobWxRUklCLUhR?oc=5" xr:uid="{AFEEEEA1-B009-4BCE-AA97-012EBE4BA704}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0633A6B9-0953-416A-9569-3D3269A8C5C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9C643B-4497-4A86-BA8C-60EA914CD398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11054" uniqueCount="3890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11219" uniqueCount="3947">
   <si>
     <t>Fecha</t>
   </si>
@@ -11693,6 +11693,177 @@
   </si>
   <si>
     <t>https://news.google.com/rss/articles/CBMiygFBVV95cUxOcFdHQmFRN1Y1Vm51RXQyOFlmY1NtTE9hWEVwU3ZDZ2ZHVkxpd1MtbVRHNFByNHRDVWdBd1Y4anktcFZiOTM1YmJadlp0QUZOcWNXVVgxT3FVUWlpUXVyVzZoWUpDOGNEUUppSnFTeXBCQ3lIYlFSUkRkQkw0NWxKY0dOVnRyU0gxcnIzX1JpSWlPZk5UZE1seHZmRnhBbmpDMUJnLWpGQzNOTGNIYWVnd0FRSlhxRml0X3QzdWx6RWxobWxRUklCLUhR?oc=5</t>
+  </si>
+  <si>
+    <t>Contraloría detectó más de 86.000 millones de pesos en irregularidades en la contratación de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/justicia/investigacion/contraloria-detecto-mas-de-86-000-millones-de-pesos-en-irregularidades-en-la-contratacion-de-ecopetrol-3525210</t>
+  </si>
+  <si>
+    <t>Ecopetrol, bajo la lupa de la Contraloría: hallazgos fiscales por $ 86.054 millones, tras anomalías en dos contratos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_AFBVV95cUxNN3c0YXIzZ1lMYkFuQU5HLVI4LUk2di1iOUhGTTBjOTdZYmd5WmVtSHNPQVVNWGZJVTliZnI5a1ZpTlR6YmRWSzc3MWE2X1BkbVlDYWxWNlFUWVprVEM3NnQ2S0xuZkZSRGx0R2Z0WnNSeHB4cEV4UVRwdC1uVW1paFBCdEt1akRWc0FHZERJUldtbGlBOFNXbVExNDktTVk0ZnQ4YzRXcFgwOWZldjZGb1pKeTBfU1p3Mk9KTGduZUZ1V3hfQXRsUWt3aTJhOHlzb1hmYTgwQy10amZHUDhYa19LNlAtYXdCbW5wWFVrc0c4Wld6OTdya2xuVVHSAYICQVVfeXFMTWNTWGNOTGJDM0JqVXY3RWkxd29lcjlEV0ljU3N3UzFHaGhTRGlLU0UyTDhHckFJVUdwTnpsNzN4a1RKRHd0NzBfZ0dHaUpKYUV0VEV2U2Y0cmtHc2wwalNzMDVLOHNNVXlBVlZDRmJRUnFIVnItNjZRY0ZCSkh3dGxka2F4SnRYMmltQWJSQUNxQXlQR0tteC1IVXpJMXp6QXVocmVTUl9pUEhXLXA0OTVRTGlPdmlTYTIxN1dwN0tSU2tfQk5iTHBSaEFVazBHU3I5VzdkNnRYV201ZkNxVkhIa01lUE9hQzc3VWZUT1dEbldxMm1LNnNJdHQ1VjhUdV9n?oc=5</t>
+  </si>
+  <si>
+    <t>['fiscales']</t>
+  </si>
+  <si>
+    <t>La Contraloría determinó hallazgos fiscales por irregularidades en contratos de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxPNUl3V1BRWkJpQnN1TWNDVjlnaEpsU3o4LVZPbnFmY3hXWTVsd0ZJd3A1Z2NHSzVEWnA1OU8yZ0ZRSlp4UGFFX0JlcV9zT1F5TEkwbXppNDQyazlWX2RwbV9RWE1nY2l0VFdYWHYtN29IZ0FwQUZTVHFqbXZTcWhOUXZyQ1NYQW5MckJwY0N1V0FLRWtDaUlGY1UwSnJBN1hzTkVzQjRpSVlRaDdKd3ZRSnN6ZklqcnFnYVZUZnRweEgzQVpLX1hqejk0OTZEbEU5ZDVz?oc=5</t>
+  </si>
+  <si>
+    <t>Contraloría detectó presunto daño fiscal por $86.054 millones en contratos de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxOZzBhbHVCQlNhV3Nud2dBS2JtaVZTQmZqMHJNR2M2dnFIcVE4Z2dBZEtvRXZmS2VkWDNBb0tLeUExQVVSTTlVamZ0Z3UxODlHVGI0YU1OWkRCTWpqVXpaREJEaDZTUHdlODVYamR2VWZGTUNDdWVPZmNPQmJjUFZTcUFOVlIyR1lEblpDeUhubVk1T21VelZYcE00Nzd1MHBDck53bk5oM1ZNbkFQYm1JQURuLURKX1ZMLWlodWhVSW94am90NHd6M2c4clNGb2E0aVNZ0gHTAUFVX3lxTFB6bDM5UUNpdllGQ1VEUVFWM2hfXzViVF9hYUxaTmZQcTkzRDZCZk9ITXlUWUJPTWtoYXlLQTJ0TlhQTU9lbmFMeXpEZUZCVmNSMDNUeFFhejhSaHc5bml3YXVOZ2Uwb3NrTGdTdElrZzhPSHJGSGlWUTE2Ql9aU3NxRFFuZlZjalFsbTA0akctZ3pwTXhjMThYZFZld2tZMTcxYlE3XzZ6OTdXajRtaHZQeHNFWU9UeW1VNnU3emZGamloMnZiZ0tJc3RoZlZuUUpwY00?oc=5</t>
+  </si>
+  <si>
+    <t>['presunto', 'fiscal']</t>
+  </si>
+  <si>
+    <t>“Vender Permian es quitarle 10% de reservas a Ecopetrol, 189 millones de barriles"</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxNMXN0VTV3Mmc4NWVQSzF0RGNYanlvd0VvaERIS0NZeGVNa1pTWmYzUHBESnlod1Awdk1rLUhXaVBUemphMjhfOEhjbnVTUFBLQlRmUnpLTjh1dmJpN0NJWGJTS0VFQnByR3ZNSGV0ZG5scm95dl9qSjQ4VEFhVWlZbm8xOU1HSld6N3JIQUIwMUNhSFBoVGRMNGFOaGZ1ZXNtTEp4a0hsaEYxZFRJS25ZX25PNUlvYTZJMTEzVVlpTEdyNnpLdXfSAcYBQVVfeXFMT0UycXQyRmdWV1NxSXhGQ2tVaXRqcXJBcEc2OExpQVo0UEhLajJCS3NyOWZza1V0Y0ZtbTg4M3paY3dBMzc3TkJyRktDQ0ZtTWNWTC1EeEZHbEI0ZURUQjRDRGRkNnAySDNPR0t5N3hTZ3BJU0ctbGRiMmFIb05neWdLS1pwT1dMQXNLSkNNLUV4enFnZG0xajl5aWJPTW5jU0FFeFNpaFFJMlZXeDFVeFpqall2YkdOLTVTdnBpQUlQOGlvQ1dR?oc=5</t>
+  </si>
+  <si>
+    <t>Más de 17 mil cartageneros fueron beneficiados con las inversiones sociales de Ecopetrol en el 2025</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxNNlBmWDBqSU5hUWFhZUNFdHpBTWVxY3BfZTdLRHFWMHIwQ3JZQU9URU05VDk2bTRiZHp4TDBHaHUzZFE2TG50X0VYOWxHejhtNlpKaVoyVHhCclhEMEczTWdFVHFsSno3ekRsRFZEVlQ0OTR5MnR5VlI4VlBsUm9IZlFhRnlSTTBBaFYzeEJEQWJHYzBqMVRHbURuUmd1dU50NHQzTnF0N24zVFpYWUt2TzZYckJQRndhSFRmUW1pZ01vNV9jUlRJYUVtMGpPZWvSAeMBQVVfeXFMTjJuclUyeVI5c0RLMjRsb2xiNENuNndfdzRLbHprbFJHcU5RR3BEN0FsU0tZdENxNmRmaXN4ZUY3LW0zaW9xamh0NWZKdlJUQ09kOC1HV2ctUjhuSXhLTFJ4VVpvbVlhMjVodnhQVmdaVEc1TkcyR3NoTTQ2YTgxeW5DUnRZTGY2c3FiRUtRLUhud2ItWkIxR25KLXNiUGJIMC1zZ3F4OG9hOTNEYkFpYm8wZDlaQ0NYM2NoNXZHSGdOSWxteE05Ry03d0xyMTBKaWc4OWpOZmI4RVVVMGtJNkswZHc?oc=5</t>
+  </si>
+  <si>
+    <t>Auditoría revela hallazgos fiscales en Ecopetrol superior a $86.000 millones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitAFBVV95cUxObVpySnM2T2NtOGxiUF9STEpic01lLTdDODZLWU9XVk9BVFJwUC1XNXByaTdVU1dWOGFNVFBQTnRaMlpBOFJSQjlKZGxwa2tCSmVuUHU2eEVCQjkxRWEtbGVmLUdxc2djR1JSRVQzRFJ5ZmttVkU5M0Z6N2VaZ25zeTl0RXhMX2R3di1icDJ6Z3VtTnlCcW1LSzFHaUJ2LTJzeHJzc3dPMm1NZFRXemdqeWE3eUjSAcIBQVVfeXFMUEQweUFRbW9uNkZuYjRwTUVGcy1UaVBQemUwYVljYmVOMk1Cd2RFY0R5N0pOVUtEQ2VYZGZabjdxeHl0LWsyQVZlS2MzZDlGWTAzMzJWcE83Wnd0d29iU2lrQmlTZlUtRHAxamJBbFBJX3kzTUhYekZEN2pfTERHdkVTenhQUjRHQjhtbWVrTXFZOW0ySllFVFE3cTZETWFmYTcwNldaa082c1hEOXBWdUlOdGxPUFZsY3VuMUE5a3llWUE?oc=5</t>
+  </si>
+  <si>
+    <t>['fiscales', 'superior']</t>
+  </si>
+  <si>
+    <t>Hallazgos por $86.054 millones en contratos de Ecopetrol: Contraloría</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiugFBVV95cUxOZFNIY3kxcjJFNFdzWE83WC03SWk5RUNzWjV1RDBXM2Y4RnlMdTZaNWNyZnN5UVV2TV9aTWxlTG5NcVJHY0dNYVVvWXQyMVhjMlBMN3puZTB2OVdOUWx3V2E3WEdQbF9iZnBUejgzNDhSWEtpVk5oNXFDek5zY1FsdWVPb1d6eUttNU93XzlLYmJtYUxqTVhfY2lUekd4a0JDSUZzTEllSTgwdXFmbmRiaWVKQXRGNEhIMWc?oc=5</t>
+  </si>
+  <si>
+    <t>Detectan irregularidades en dos contratos de Ecopetrol con riesgos fiscales que superarían los $86.054 millones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxNMGVTdEY1Rl9vaDFiNURjV2VRY0tHaHRmaGhuV0ZMSG53dTJ3ZUpNeFo0SVd4SXhGSWtJTF9JQm1XUVltdklJMC11MzIyaUlfSlo4czRQX2diTXF3a1NCQm1RMGVBWjZLSkFERlA2SURnLW1fTWFZSTFOSGVQVk5ZQkhpMUJsLWIwUXM4U0UtcGVWT2lxWnp3RnotWDNPVnVSNkFTOGN6bmFPc3ZmSE9IN0IySEwwN3F2cnJYWkNxLWpkcWFhU1d0WXdyZ1plTENXcWdFWEwtd2ZfZFpJZG5GSGl6ZmNVQdIB6wFBVV95cUxQME45UUFSWkpYZ2xYbkNCNkRIeXJ6RlVudFFGYXBsXzBrYzRPeXpmYm5VSHVyMFNJemkxRzI5c3lXM2Q4WUZwczRsZGRzWGFJZVE2eE5LT1ZCUFBwUGc5c0dWOUpFcWNVYmpYT2E3V3o4UEk5OU4xYUZKWFhhbmRQMXE0VEtsMmF1NmR1WHlhaFlUOTYwMXc3TzBQeE5iSzJiZ29TRlMtcGRWS1p1Y0NTMlBkbVlQYU9kYzQ3eHM0U3pXaEFOSDVqNWZncjVGU1hvdm5HVk5CbG11SWF3OEQxRWN5aHhyVlBhcWpZ?oc=5</t>
+  </si>
+  <si>
+    <t>Esto es lo que viene para la Junta Directiva de Ecopetrol tras la llegada del presidente de la USO</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMibkFVX3lxTE45MGNjSFRzc1N5U3VrNUxiUUg3OG9CMThudXBsMkhWUmZHMEc2YnoxcjJQMHZWVU1OTkszbm56TldmazVXOTlseW9haFlwUVp0bE85NEx6Tk1oVkI5ZDhkc2RCdjJWYU1Fc0JZaGZB?oc=5</t>
+  </si>
+  <si>
+    <t>Hallazgos fiscales por $86.054 millones en dos contratos de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMinwFBVV95cUxPWWFZakJsVEZqaHFENmNpdS1Gc3FIbnZIMnU2OFo0RDZ5M09FR0J3RVdQSW9fZGRLdGJhTUxzSzZTY2duTVBUV0U5azdKMWx2a2swWjhiTzZQbnl4OXUyaEI0MWl4UWJ3ZF91UWVHZmFkTmRKSmpURFBzMXlMbVhveW14dExLelFzNmpvSHRxTGN5aGlHLU9QcHJsOE5iMUU?oc=5</t>
+  </si>
+  <si>
+    <t>Petro ordena a la Andje la recuperación de un predio de la regasificadora Spec</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxPZWZfX3hVcXpQOG9jbXBoZVAyOXZ3TlNRTzhDSEZYU2o1NUNoamYxdkxPQUo5TExkR19wSUJ6VnFqTHVNelVuV1Z5SFFJVGZaQ0xOUk9md0hRLUhtajNFaW9yZ2V3MDc5aHNnazJ5OVBnY2pBSzdIQk5MYnRWbE9FazlCYkFobWFwaHZ4MU45WlVqc1ZuWFlHM2JwWHBXUzUtRE5JUXU0eWNnUzdZcFIxOXJXeWRDdzVGa01iYW1YONIBvwFBVV95cUxQanlUSUppWVZQaGlFS0F6T3ZDcWZCbEluTC1ObFV1QnVfMWpFNi1hWTFDa3NPQ1pKaXJMZTdPQW9zUmxvWFFUQ2NJOFh5YUlCZFQzbUlBRTdJSWVoLU0zSm5qMERyaHVsQjl3TVpGOE5zeFdMNjBUQTNMZy15NGwzMnJyVEJpblMyM1hYanNDZ2EwaE9SS1BWam1icEVFM2VvNzRPNEhrZXpuemVaU2R1RktBanQ4amFIWlFISTNYTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Regasificadora</t>
+  </si>
+  <si>
+    <t>Petro ordena recuperar predio donde funciona la regasificadora de Cartagena: este es el lío judicial que rodea el terreno | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://www.elcolombiano.com/negocios/petro-ordena-recuperar-predio-spec-regasificadora-ED32641454</t>
+  </si>
+  <si>
+    <t>['judicial']</t>
+  </si>
+  <si>
+    <t>Petro ordena recuperar predio de la regasificadora de Spec por presunto monopolio</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixgFBVV95cUxQWGhuV2otUVplWEtwdDlnczFMV3Zyc29QRVgzcUwtLVBtNlNRMDZKMUZSNGRodDdSTElIMUEtdnZfcGxBWXhkOF9iTks0SWlkblByYU8xZGdGR3FKZHlranZZRnNRZzdZc2xVdm1nUlZzY0Y3X21JblhrV2Y5Ymdyd3ZJWHJOa2tjZE1kcHdqSW42QzJyM0JPeTRkZjJ6dlQ4YWpPRTB4MVpiaUIyVmdZVHVpNDJqSXhfRnBIRFZQTDA5SVlnUFHSAeABQVVfeXFMTkhCYlk5WVVUY2pXRENpSkFCRWpwT3k2MWk0M3o2MUNDbjVIbHU0eW5mYTlaczNKaHhuckFLX2dKNzh2U2lTOWUzSW1NcGlhS09XOWZQS1QwUVRzU2hCMEs3QkhfTUZOTGJ1M294MXNmNjN4ZEdrTVNKYUkydl8yX3l2UnZJWXFHOF9KZno5WnFzUXpwNFpzUzRwOUZTTTlQVTdPZ1VxVjlNMWdJZFJQUWg0TDBOdHdoVTh3QVE3UldNTUhNNFVIM3k3eFFzaTF1emVXdEo5dmhfMUQxajUtUzI?oc=5</t>
+  </si>
+  <si>
+    <t>Petro arremete contra negocio gasífero del Grupo Aval y plantea recuperar predio de regasificadora en Cartagena</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7wFBVV95cUxQNkl1ZnJQT1liSTBXWWVsU29tTWNPUW9rWmtCUXMzT20zYWg4TW9RRkluOWVQNkNoY1E3N0ZLRzRCN0xxRW1GREpZOUM1NHhDRFJnNTZRZU1MYXBJM040SEZVc2NtX0JYUDBFNUVvZXo5T2pqT2NVOWF6VUpuMjJOVUhHSThwQlJTVlhJeERNck4yRFREYXp5ZXF6RHpfODM0SC1sb0luNWdNSS1vR01KNzRKWjhubkFWZVBUc3pmOVM3S3pZWFdWOGZORDNuQWJZeDJDRVhJSXQxZUdlZ1M1WG1YR3VjZnMtZVF2d2JPRQ?oc=5</t>
+  </si>
+  <si>
+    <t>Producción de petróleo y gas natural de Parex Resources en Colombia aumentó 7,3 % en el cuarto trimestre de 2025</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/economia/sectores/produccion-de-petroleo-y-gas-natural-de-parex-resources-en-colombia-aumento-7-3-en-el-cuarto-trimestre-de-3525144</t>
+  </si>
+  <si>
+    <t>['natural', 'cuarto']</t>
+  </si>
+  <si>
+    <t>Afinia fortalece la calidad del servicio en Montería con trabajos finalizados antes de tiempo</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1wFBVV95cUxPcTRFdGxwd0ZtbkFfSnBTMHZaMXB0ZHBEOWlLZnJiSDBub2dzTWwxaUJKRERKd1o2bVNOZ0dNZ19TUHllTTdLbEJ5Yy02VEFsTVFtN0VveUtvZEVVRTZkRTBSNzJUMGdGbllWVTJOODFoczNZWnVLcjRHNGhPQmVrQ3NUcXBJVktKYzhaLTZxMmgxY3hpeTRCTFVoUGJZaXB4QUF3VW14bF9vWHBpaHFwNlVuMUxqWnhkeHc3ckJURWZDOWU4aENjS3I0TVB6bzdCUFpCMHhvcw?oc=5</t>
+  </si>
+  <si>
+    <t>['finalizados']</t>
+  </si>
+  <si>
+    <t>Luis Guillermo Rubio asume la gerencia territorial de Air-e intervenida en el Magdalena</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi0wFBVV95cUxNQ2hEWHhQR2pTMERJYjBHek9HUXZia1JjNVFQcGVjYlRTRjAxMnRZalpZTTVDUU5nMU96a2ozcEdtQ2w1ZXhudHRrb3UtMGY5RVVBQllWVXh6TjdMUm5xQVRvWFpWekZpSVZRNE53NU1sR18tcXoxbjVzNDc5Mmo5dlhZTktlR3RqSEpoaXpLcThrNFVERG5jNENHNTBYNzNoUlZ0bnRUekUwUDhZd2xfRHlRWE5JMlJKRDRCS1AwX19ReHAycTdXbDBmeHhHTC11Qy1n0gHTAUFVX3lxTE1DaERYeFBHalMwREliMEd6T0dRdmJrUmM1UVBwZWNiVFNGMDEydFlqWllNNUNRTmcxT3prajNwR21DbDVleG50dGtvdS0wZjlFVUFCWVZVeHpON0xSbnFBVG9YWlZ6RmlJVlE0Tnc1TWxHXy1xejFuNXM0Nzkyajl2WFlOS2VHdGpISmhpektxOGs0VUREbmM0Q0c1MFg3M2hSVnRudFR6RTBQOFl3bF9EeVFYTkkyUkpENEJLUDBfX1F4cDJxN1dsMGZ4eEdMLXVDLWc?oc=5</t>
+  </si>
+  <si>
+    <t>['territorial', 'intervenida']</t>
+  </si>
+  <si>
+    <t>Respaldo “condicionado” de gremios del Caribe a sobretasa por crisis financiera de Air-e</t>
+  </si>
+  <si>
+    <t>https://www.elheraldo.co/atlantico/2026/01/18/respaldo-condicionado-de-gremios-del-caribe-a-sobretasa-por-crisis-financiera-de-air-e/</t>
+  </si>
+  <si>
+    <t>['condicionado', 'financiera']</t>
+  </si>
+  <si>
+    <t>Air-e instala redes eléctricas en zona rural de Luruaco</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipAFBVV95cUxQb3A3TlRYUVR2MVh5d2s0YUpTZXhKdnpNZU43dmxRbkt2Z3NUWjViWkR1UThuSklpWERfNDFhVFlFZ2xCYjVmUlBpVzdEMEF3aGdSUzRmTWRUSFNaSzJ1VUpCTUk0YnAzbEpRZnlQeEdqdXhBQjNmeXZ2YWZZcTNtbXpYeVRoZk95cWdqQ2hpQTl6QUNTeXZmV0VxTnlCcVBjNm5JcNIBvwFBVV95cUxPU0RBdmlETHZmZ1YyYncwVWFkNnFDZjV1ZFBUZi1XZ212TVFpZXNabzFDZEZkWERIc1BSQkxib1FzckVRZlRyZ0RZOHJ4M0ducUFyamQ1cjZDbDJ4WGZsamZjbFNSSUdxdlEwR3JlUUd5ZElhNGlkcEhjZ2c4VmdCaFo4ZmVDcEx4dUxNWENZLVhWQ2VhYldESEVIU2poWHA4U0pXZEZZenVfb3Q3eG03a3hvYmlDS0ZiUS1SclVrcw?oc=5</t>
+  </si>
+  <si>
+    <t>['Air-e', 'instala', 'eléctricas', 'rural']</t>
+  </si>
+  <si>
+    <t>¿Por qué los usuarios pagan la deuda de Air-e? Ministro Edwin Palma defiende recargo en la factura de energía</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2026/01/18/por-que-los-usuarios-pagan-la-deuda-de-air-e-ministro-edwin-palma-defiende-recargo-en-la-factura-de-energia/</t>
+  </si>
+  <si>
+    <t>Gobierno propone sobretasa eléctrica para salvar a Air-e, pero expertos llaman a atender fallas estructurales</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2026/01/18/gobierno-propone-sobretasa-electrica-para-salvar-a-air-e-pero-expertos-llaman-a-atender-fallas-estructurales/</t>
+  </si>
+  <si>
+    <t>['eléctrica', 'estructurales']</t>
+  </si>
+  <si>
+    <t>Gremios respaldan cobro del $8 el kWh para pagar deuda de Air-e</t>
+  </si>
+  <si>
+    <t>https://zonacero.com/generales/gremios-respaldan-cobro-del-8-el-kwh-para-pagar-deuda-de-air-e</t>
   </si>
 </sst>
 </file>
@@ -12553,10 +12724,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1528"/>
+  <dimension ref="A1:I1551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1507" workbookViewId="0">
-      <selection activeCell="A1506" sqref="A1506:I1528"/>
+    <sheetView tabSelected="1" topLeftCell="A1511" workbookViewId="0">
+      <selection activeCell="A1529" sqref="A1529:I1551"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53358,6 +53529,616 @@
       </c>
       <c r="I1528" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1529" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1529" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C1529" s="3" t="s">
+        <v>3891</v>
+      </c>
+      <c r="D1529" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1529" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1529" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1529" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1529" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1530" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1530" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C1530" s="3" t="s">
+        <v>3893</v>
+      </c>
+      <c r="D1530" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1530" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1530" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G1530" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1530" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I1530" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1531" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1531" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C1531" s="3" t="s">
+        <v>3896</v>
+      </c>
+      <c r="D1531" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1531" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1531" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G1531" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1531" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1532" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1532" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1532" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C1532" s="3" t="s">
+        <v>3898</v>
+      </c>
+      <c r="D1532" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1532" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1532" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G1532" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1532" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1533" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1533" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C1533" s="3" t="s">
+        <v>3901</v>
+      </c>
+      <c r="D1533" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1533" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1533" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1533" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1533" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1534" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1534" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C1534" s="3" t="s">
+        <v>3903</v>
+      </c>
+      <c r="D1534" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1534" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1534" t="s">
+        <v>3851</v>
+      </c>
+      <c r="G1534" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1534" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1535" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1535" t="s">
+        <v>3904</v>
+      </c>
+      <c r="C1535" s="3" t="s">
+        <v>3905</v>
+      </c>
+      <c r="D1535" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1535" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1535" t="s">
+        <v>3906</v>
+      </c>
+      <c r="G1535" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1535" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1536" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1536" t="s">
+        <v>3907</v>
+      </c>
+      <c r="C1536" s="3" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D1536" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1536" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1536" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1536" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1536" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1537" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1537" t="s">
+        <v>3909</v>
+      </c>
+      <c r="C1537" s="3" t="s">
+        <v>3910</v>
+      </c>
+      <c r="D1537" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1537" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1537" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G1537" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1537" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1537" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1538" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1538" t="s">
+        <v>3911</v>
+      </c>
+      <c r="C1538" s="3" t="s">
+        <v>3912</v>
+      </c>
+      <c r="D1538" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1538" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1538" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1538" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1538" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1539" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1539" t="s">
+        <v>3913</v>
+      </c>
+      <c r="C1539" s="3" t="s">
+        <v>3914</v>
+      </c>
+      <c r="D1539" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1539" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1539" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G1539" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1539" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1540" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1540" t="s">
+        <v>3915</v>
+      </c>
+      <c r="C1540" s="3" t="s">
+        <v>3916</v>
+      </c>
+      <c r="D1540" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1540" t="s">
+        <v>3917</v>
+      </c>
+      <c r="F1540" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1540" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1540" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1541" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1541" t="s">
+        <v>3918</v>
+      </c>
+      <c r="C1541" s="3" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D1541" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1541" t="s">
+        <v>3917</v>
+      </c>
+      <c r="F1541" t="s">
+        <v>3920</v>
+      </c>
+      <c r="G1541" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1541" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1542" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1542" t="s">
+        <v>3921</v>
+      </c>
+      <c r="C1542" s="3" t="s">
+        <v>3922</v>
+      </c>
+      <c r="D1542" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1542" t="s">
+        <v>3917</v>
+      </c>
+      <c r="F1542" t="s">
+        <v>2145</v>
+      </c>
+      <c r="G1542" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1542" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1543" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1543" t="s">
+        <v>3923</v>
+      </c>
+      <c r="C1543" s="3" t="s">
+        <v>3924</v>
+      </c>
+      <c r="D1543" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1543" t="s">
+        <v>3917</v>
+      </c>
+      <c r="F1543" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1543" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1543" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1544" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1544" t="s">
+        <v>3925</v>
+      </c>
+      <c r="C1544" s="3" t="s">
+        <v>3926</v>
+      </c>
+      <c r="D1544" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1544" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1544" t="s">
+        <v>3927</v>
+      </c>
+      <c r="G1544" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1544" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1545" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1545" t="s">
+        <v>3928</v>
+      </c>
+      <c r="C1545" s="3" t="s">
+        <v>3929</v>
+      </c>
+      <c r="D1545" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E1545" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1545" t="s">
+        <v>3930</v>
+      </c>
+      <c r="G1545" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1545" t="s">
+        <v>452</v>
+      </c>
+      <c r="I1545" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1546" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1546" t="s">
+        <v>3931</v>
+      </c>
+      <c r="C1546" s="3" t="s">
+        <v>3932</v>
+      </c>
+      <c r="D1546" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1546" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1546" t="s">
+        <v>3933</v>
+      </c>
+      <c r="G1546" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1546" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1547" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1547" t="s">
+        <v>3934</v>
+      </c>
+      <c r="C1547" s="3" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D1547" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1547" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1547" t="s">
+        <v>3936</v>
+      </c>
+      <c r="G1547" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1547" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1547" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1548" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1548" t="s">
+        <v>3937</v>
+      </c>
+      <c r="C1548" s="3" t="s">
+        <v>3938</v>
+      </c>
+      <c r="D1548" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1548" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1548" t="s">
+        <v>3939</v>
+      </c>
+      <c r="G1548" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1548" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1549" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1549" t="s">
+        <v>3940</v>
+      </c>
+      <c r="C1549" s="3" t="s">
+        <v>3941</v>
+      </c>
+      <c r="D1549" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1549" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1549" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1549" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1549" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1550" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1550" t="s">
+        <v>3942</v>
+      </c>
+      <c r="C1550" s="3" t="s">
+        <v>3943</v>
+      </c>
+      <c r="D1550" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1550" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1550" t="s">
+        <v>3944</v>
+      </c>
+      <c r="G1550" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1550" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1551" s="1">
+        <v>46041</v>
+      </c>
+      <c r="B1551" t="s">
+        <v>3945</v>
+      </c>
+      <c r="C1551" s="3" t="s">
+        <v>3946</v>
+      </c>
+      <c r="D1551" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1551" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1551" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1551" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1551" t="s">
+        <v>3493</v>
       </c>
     </row>
   </sheetData>
@@ -53406,6 +54187,22 @@
     <hyperlink ref="C1526" r:id="rId41" display="https://news.google.com/rss/articles/CBMi2gFBVV95cUxOaGg5dk9LRVBZTExCZWsyVkpyVTJhQ3kzaE05dXBHZVpuSEFWbEdmSmxPR0lNeF9YZUlPVjFFQkpkNHBBOG5jQk0yMFZKd1VqbXJQQVVYQ0E3Y19WdUdVcHg1Xy0zUVdGZjcxcDJUQzJiQk9RYlQtQkY1ZjNLRkFxUjVrRjQtM3o0X3hON091WXBEaGdXSDFoRVViX2NUUnpYdllHd3o0ay1vb3ZIODBoQy01M1poWnpKX2diR1RTcUNVeTdGalpPd1k4VExYX3c3N2tZNFI5cjBmQQ?oc=5" xr:uid="{7326A544-EC6A-41F4-85C6-2DE242C711A4}"/>
     <hyperlink ref="C1527" r:id="rId42" display="https://news.google.com/rss/articles/CBMizAFBVV95cUxQb0JyVGJ1VmZ6Q0xDSVhxVUV4WEtFbXFvNE5nWlhJczZzWDdRNWF3Q0xLS0FrcFdIWC1VUFFlbVgySnFYenhzVXcyb0tOc0taX2xfcW9SQUVNZlhXNGVEeEVsRmFNbGlsWHVCVGVUVVVfYTZVVHAwWlNRYkIxalF2Z1Zpa3hxR0RJc3IwZzItWm5oY0RER09mUV9NbHNzT2FMd1k3TWpaYkQwSVBBa2RmaHlvUVcxRm53OV9Ydi1VVU9KNkpqX1BCeVBMeGrSAcwBQVVfeXFMUHZqVmdKQkhWaVFvZEo5SkpUVTZnSXdUa0d4NS1XTmdRbHBuNzRnN2k2anJUVVd0WFh4SUc3X252UHlFQlVhdDhER0hYajBUa3lSOGJJUk1xNjBZc2dQa2J5Yk5JMmRZYzdDaTFjQ01CZ1RTQVBNUHlKdnd2QTg4V1ZqZ21IZHpLTjFJTHZGNS1DRDFtQ3dCR3FNTldybkthUjg2TWpBOFVqVlJsZHFuanBEZjBUcEM3RWszVU5jWVZLYUI1b1BVd2lfdmhZ?oc=5" xr:uid="{C8C2B748-2FEF-4B7F-BA81-9F9E645982E3}"/>
     <hyperlink ref="C1528" r:id="rId43" display="https://news.google.com/rss/articles/CBMiygFBVV95cUxOcFdHQmFRN1Y1Vm51RXQyOFlmY1NtTE9hWEVwU3ZDZ2ZHVkxpd1MtbVRHNFByNHRDVWdBd1Y4anktcFZiOTM1YmJadlp0QUZOcWNXVVgxT3FVUWlpUXVyVzZoWUpDOGNEUUppSnFTeXBCQ3lIYlFSUkRkQkw0NWxKY0dOVnRyU0gxcnIzX1JpSWlPZk5UZE1seHZmRnhBbmpDMUJnLWpGQzNOTGNIYWVnd0FRSlhxRml0X3QzdWx6RWxobWxRUklCLUhR?oc=5" xr:uid="{AFEEEEA1-B009-4BCE-AA97-012EBE4BA704}"/>
+    <hyperlink ref="C1530" r:id="rId44" display="https://news.google.com/rss/articles/CBMi_AFBVV95cUxNN3c0YXIzZ1lMYkFuQU5HLVI4LUk2di1iOUhGTTBjOTdZYmd5WmVtSHNPQVVNWGZJVTliZnI5a1ZpTlR6YmRWSzc3MWE2X1BkbVlDYWxWNlFUWVprVEM3NnQ2S0xuZkZSRGx0R2Z0WnNSeHB4cEV4UVRwdC1uVW1paFBCdEt1akRWc0FHZERJUldtbGlBOFNXbVExNDktTVk0ZnQ4YzRXcFgwOWZldjZGb1pKeTBfU1p3Mk9KTGduZUZ1V3hfQXRsUWt3aTJhOHlzb1hmYTgwQy10amZHUDhYa19LNlAtYXdCbW5wWFVrc0c4Wld6OTdya2xuVVHSAYICQVVfeXFMTWNTWGNOTGJDM0JqVXY3RWkxd29lcjlEV0ljU3N3UzFHaGhTRGlLU0UyTDhHckFJVUdwTnpsNzN4a1RKRHd0NzBfZ0dHaUpKYUV0VEV2U2Y0cmtHc2wwalNzMDVLOHNNVXlBVlZDRmJRUnFIVnItNjZRY0ZCSkh3dGxka2F4SnRYMmltQWJSQUNxQXlQR0tteC1IVXpJMXp6QXVocmVTUl9pUEhXLXA0OTVRTGlPdmlTYTIxN1dwN0tSU2tfQk5iTHBSaEFVazBHU3I5VzdkNnRYV201ZkNxVkhIa01lUE9hQzc3VWZUT1dEbldxMm1LNnNJdHQ1VjhUdV9n?oc=5" xr:uid="{ACEA0F19-5933-4593-9106-8F163C73DC5D}"/>
+    <hyperlink ref="C1531" r:id="rId45" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxPNUl3V1BRWkJpQnN1TWNDVjlnaEpsU3o4LVZPbnFmY3hXWTVsd0ZJd3A1Z2NHSzVEWnA1OU8yZ0ZRSlp4UGFFX0JlcV9zT1F5TEkwbXppNDQyazlWX2RwbV9RWE1nY2l0VFdYWHYtN29IZ0FwQUZTVHFqbXZTcWhOUXZyQ1NYQW5MckJwY0N1V0FLRWtDaUlGY1UwSnJBN1hzTkVzQjRpSVlRaDdKd3ZRSnN6ZklqcnFnYVZUZnRweEgzQVpLX1hqejk0OTZEbEU5ZDVz?oc=5" xr:uid="{5F8042A2-FDCF-410F-8A9B-03EA82D9A821}"/>
+    <hyperlink ref="C1532" r:id="rId46" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxOZzBhbHVCQlNhV3Nud2dBS2JtaVZTQmZqMHJNR2M2dnFIcVE4Z2dBZEtvRXZmS2VkWDNBb0tLeUExQVVSTTlVamZ0Z3UxODlHVGI0YU1OWkRCTWpqVXpaREJEaDZTUHdlODVYamR2VWZGTUNDdWVPZmNPQmJjUFZTcUFOVlIyR1lEblpDeUhubVk1T21VelZYcE00Nzd1MHBDck53bk5oM1ZNbkFQYm1JQURuLURKX1ZMLWlodWhVSW94am90NHd6M2c4clNGb2E0aVNZ0gHTAUFVX3lxTFB6bDM5UUNpdllGQ1VEUVFWM2hfXzViVF9hYUxaTmZQcTkzRDZCZk9ITXlUWUJPTWtoYXlLQTJ0TlhQTU9lbmFMeXpEZUZCVmNSMDNUeFFhejhSaHc5bml3YXVOZ2Uwb3NrTGdTdElrZzhPSHJGSGlWUTE2Ql9aU3NxRFFuZlZjalFsbTA0akctZ3pwTXhjMThYZFZld2tZMTcxYlE3XzZ6OTdXajRtaHZQeHNFWU9UeW1VNnU3emZGamloMnZiZ0tJc3RoZlZuUUpwY00?oc=5" xr:uid="{9DC5D616-7394-4CFE-9257-7CCF8DC064A7}"/>
+    <hyperlink ref="C1533" r:id="rId47" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxNMXN0VTV3Mmc4NWVQSzF0RGNYanlvd0VvaERIS0NZeGVNa1pTWmYzUHBESnlod1Awdk1rLUhXaVBUemphMjhfOEhjbnVTUFBLQlRmUnpLTjh1dmJpN0NJWGJTS0VFQnByR3ZNSGV0ZG5scm95dl9qSjQ4VEFhVWlZbm8xOU1HSld6N3JIQUIwMUNhSFBoVGRMNGFOaGZ1ZXNtTEp4a0hsaEYxZFRJS25ZX25PNUlvYTZJMTEzVVlpTEdyNnpLdXfSAcYBQVVfeXFMT0UycXQyRmdWV1NxSXhGQ2tVaXRqcXJBcEc2OExpQVo0UEhLajJCS3NyOWZza1V0Y0ZtbTg4M3paY3dBMzc3TkJyRktDQ0ZtTWNWTC1EeEZHbEI0ZURUQjRDRGRkNnAySDNPR0t5N3hTZ3BJU0ctbGRiMmFIb05neWdLS1pwT1dMQXNLSkNNLUV4enFnZG0xajl5aWJPTW5jU0FFeFNpaFFJMlZXeDFVeFpqall2YkdOLTVTdnBpQUlQOGlvQ1dR?oc=5" xr:uid="{B5CCF56E-6261-4350-84F8-5E06F3812FE0}"/>
+    <hyperlink ref="C1534" r:id="rId48" display="https://news.google.com/rss/articles/CBMizwFBVV95cUxNNlBmWDBqSU5hUWFhZUNFdHpBTWVxY3BfZTdLRHFWMHIwQ3JZQU9URU05VDk2bTRiZHp4TDBHaHUzZFE2TG50X0VYOWxHejhtNlpKaVoyVHhCclhEMEczTWdFVHFsSno3ekRsRFZEVlQ0OTR5MnR5VlI4VlBsUm9IZlFhRnlSTTBBaFYzeEJEQWJHYzBqMVRHbURuUmd1dU50NHQzTnF0N24zVFpYWUt2TzZYckJQRndhSFRmUW1pZ01vNV9jUlRJYUVtMGpPZWvSAeMBQVVfeXFMTjJuclUyeVI5c0RLMjRsb2xiNENuNndfdzRLbHprbFJHcU5RR3BEN0FsU0tZdENxNmRmaXN4ZUY3LW0zaW9xamh0NWZKdlJUQ09kOC1HV2ctUjhuSXhLTFJ4VVpvbVlhMjVodnhQVmdaVEc1TkcyR3NoTTQ2YTgxeW5DUnRZTGY2c3FiRUtRLUhud2ItWkIxR25KLXNiUGJIMC1zZ3F4OG9hOTNEYkFpYm8wZDlaQ0NYM2NoNXZHSGdOSWxteE05Ry03d0xyMTBKaWc4OWpOZmI4RVVVMGtJNkswZHc?oc=5" xr:uid="{EDE90DCA-1048-4A34-A2E1-24B6F4B03FF0}"/>
+    <hyperlink ref="C1535" r:id="rId49" display="https://news.google.com/rss/articles/CBMitAFBVV95cUxObVpySnM2T2NtOGxiUF9STEpic01lLTdDODZLWU9XVk9BVFJwUC1XNXByaTdVU1dWOGFNVFBQTnRaMlpBOFJSQjlKZGxwa2tCSmVuUHU2eEVCQjkxRWEtbGVmLUdxc2djR1JSRVQzRFJ5ZmttVkU5M0Z6N2VaZ25zeTl0RXhMX2R3di1icDJ6Z3VtTnlCcW1LSzFHaUJ2LTJzeHJzc3dPMm1NZFRXemdqeWE3eUjSAcIBQVVfeXFMUEQweUFRbW9uNkZuYjRwTUVGcy1UaVBQemUwYVljYmVOMk1Cd2RFY0R5N0pOVUtEQ2VYZGZabjdxeHl0LWsyQVZlS2MzZDlGWTAzMzJWcE83Wnd0d29iU2lrQmlTZlUtRHAxamJBbFBJX3kzTUhYekZEN2pfTERHdkVTenhQUjRHQjhtbWVrTXFZOW0ySllFVFE3cTZETWFmYTcwNldaa082c1hEOXBWdUlOdGxPUFZsY3VuMUE5a3llWUE?oc=5" xr:uid="{FFE9C5B3-4D8D-49CF-AB1F-4F008DBCDD87}"/>
+    <hyperlink ref="C1536" r:id="rId50" display="https://news.google.com/rss/articles/CBMiugFBVV95cUxOZFNIY3kxcjJFNFdzWE83WC03SWk5RUNzWjV1RDBXM2Y4RnlMdTZaNWNyZnN5UVV2TV9aTWxlTG5NcVJHY0dNYVVvWXQyMVhjMlBMN3puZTB2OVdOUWx3V2E3WEdQbF9iZnBUejgzNDhSWEtpVk5oNXFDek5zY1FsdWVPb1d6eUttNU93XzlLYmJtYUxqTVhfY2lUekd4a0JDSUZzTEllSTgwdXFmbmRiaWVKQXRGNEhIMWc?oc=5" xr:uid="{8D1987E9-905A-4534-AAE0-A2C4F5A18FF6}"/>
+    <hyperlink ref="C1537" r:id="rId51" display="https://news.google.com/rss/articles/CBMi5gFBVV95cUxNMGVTdEY1Rl9vaDFiNURjV2VRY0tHaHRmaGhuV0ZMSG53dTJ3ZUpNeFo0SVd4SXhGSWtJTF9JQm1XUVltdklJMC11MzIyaUlfSlo4czRQX2diTXF3a1NCQm1RMGVBWjZLSkFERlA2SURnLW1fTWFZSTFOSGVQVk5ZQkhpMUJsLWIwUXM4U0UtcGVWT2lxWnp3RnotWDNPVnVSNkFTOGN6bmFPc3ZmSE9IN0IySEwwN3F2cnJYWkNxLWpkcWFhU1d0WXdyZ1plTENXcWdFWEwtd2ZfZFpJZG5GSGl6ZmNVQdIB6wFBVV95cUxQME45UUFSWkpYZ2xYbkNCNkRIeXJ6RlVudFFGYXBsXzBrYzRPeXpmYm5VSHVyMFNJemkxRzI5c3lXM2Q4WUZwczRsZGRzWGFJZVE2eE5LT1ZCUFBwUGc5c0dWOUpFcWNVYmpYT2E3V3o4UEk5OU4xYUZKWFhhbmRQMXE0VEtsMmF1NmR1WHlhaFlUOTYwMXc3TzBQeE5iSzJiZ29TRlMtcGRWS1p1Y0NTMlBkbVlQYU9kYzQ3eHM0U3pXaEFOSDVqNWZncjVGU1hvdm5HVk5CbG11SWF3OEQxRWN5aHhyVlBhcWpZ?oc=5" xr:uid="{B3A176A3-FF99-40EE-968F-75F2CB6F1E4D}"/>
+    <hyperlink ref="C1538" r:id="rId52" xr:uid="{9AF5765F-E4B7-4D7D-B077-67601FE14A06}"/>
+    <hyperlink ref="C1539" r:id="rId53" display="https://news.google.com/rss/articles/CBMinwFBVV95cUxPWWFZakJsVEZqaHFENmNpdS1Gc3FIbnZIMnU2OFo0RDZ5M09FR0J3RVdQSW9fZGRLdGJhTUxzSzZTY2duTVBUV0U5azdKMWx2a2swWjhiTzZQbnl4OXUyaEI0MWl4UWJ3ZF91UWVHZmFkTmRKSmpURFBzMXlMbVhveW14dExLelFzNmpvSHRxTGN5aGlHLU9QcHJsOE5iMUU?oc=5" xr:uid="{2AA16B4D-CF7E-4784-B2B1-0A5D383A44AB}"/>
+    <hyperlink ref="C1540" r:id="rId54" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxPZWZfX3hVcXpQOG9jbXBoZVAyOXZ3TlNRTzhDSEZYU2o1NUNoamYxdkxPQUo5TExkR19wSUJ6VnFqTHVNelVuV1Z5SFFJVGZaQ0xOUk9md0hRLUhtajNFaW9yZ2V3MDc5aHNnazJ5OVBnY2pBSzdIQk5MYnRWbE9FazlCYkFobWFwaHZ4MU45WlVqc1ZuWFlHM2JwWHBXUzUtRE5JUXU0eWNnUzdZcFIxOXJXeWRDdzVGa01iYW1YONIBvwFBVV95cUxQanlUSUppWVZQaGlFS0F6T3ZDcWZCbEluTC1ObFV1QnVfMWpFNi1hWTFDa3NPQ1pKaXJMZTdPQW9zUmxvWFFUQ2NJOFh5YUlCZFQzbUlBRTdJSWVoLU0zSm5qMERyaHVsQjl3TVpGOE5zeFdMNjBUQTNMZy15NGwzMnJyVEJpblMyM1hYanNDZ2EwaE9SS1BWam1icEVFM2VvNzRPNEhrZXpuemVaU2R1RktBanQ4amFIWlFISTNYTQ?oc=5" xr:uid="{0857497C-06CC-4F0F-A071-6E80A65ED14D}"/>
+    <hyperlink ref="C1542" r:id="rId55" display="https://news.google.com/rss/articles/CBMixgFBVV95cUxQWGhuV2otUVplWEtwdDlnczFMV3Zyc29QRVgzcUwtLVBtNlNRMDZKMUZSNGRodDdSTElIMUEtdnZfcGxBWXhkOF9iTks0SWlkblByYU8xZGdGR3FKZHlranZZRnNRZzdZc2xVdm1nUlZzY0Y3X21JblhrV2Y5Ymdyd3ZJWHJOa2tjZE1kcHdqSW42QzJyM0JPeTRkZjJ6dlQ4YWpPRTB4MVpiaUIyVmdZVHVpNDJqSXhfRnBIRFZQTDA5SVlnUFHSAeABQVVfeXFMTkhCYlk5WVVUY2pXRENpSkFCRWpwT3k2MWk0M3o2MUNDbjVIbHU0eW5mYTlaczNKaHhuckFLX2dKNzh2U2lTOWUzSW1NcGlhS09XOWZQS1QwUVRzU2hCMEs3QkhfTUZOTGJ1M294MXNmNjN4ZEdrTVNKYUkydl8yX3l2UnZJWXFHOF9KZno5WnFzUXpwNFpzUzRwOUZTTTlQVTdPZ1VxVjlNMWdJZFJQUWg0TDBOdHdoVTh3QVE3UldNTUhNNFVIM3k3eFFzaTF1emVXdEo5dmhfMUQxajUtUzI?oc=5" xr:uid="{C99A1019-046F-41FE-8651-8B5624B5D5A3}"/>
+    <hyperlink ref="C1543" r:id="rId56" display="https://news.google.com/rss/articles/CBMi7wFBVV95cUxQNkl1ZnJQT1liSTBXWWVsU29tTWNPUW9rWmtCUXMzT20zYWg4TW9RRkluOWVQNkNoY1E3N0ZLRzRCN0xxRW1GREpZOUM1NHhDRFJnNTZRZU1MYXBJM040SEZVc2NtX0JYUDBFNUVvZXo5T2pqT2NVOWF6VUpuMjJOVUhHSThwQlJTVlhJeERNck4yRFREYXp5ZXF6RHpfODM0SC1sb0luNWdNSS1vR01KNzRKWjhubkFWZVBUc3pmOVM3S3pZWFdWOGZORDNuQWJZeDJDRVhJSXQxZUdlZ1M1WG1YR3VjZnMtZVF2d2JPRQ?oc=5" xr:uid="{0938DC7B-75B3-4039-BCB3-1211A78FDC7B}"/>
+    <hyperlink ref="C1545" r:id="rId57" display="https://news.google.com/rss/articles/CBMi1wFBVV95cUxPcTRFdGxwd0ZtbkFfSnBTMHZaMXB0ZHBEOWlLZnJiSDBub2dzTWwxaUJKRERKd1o2bVNOZ0dNZ19TUHllTTdLbEJ5Yy02VEFsTVFtN0VveUtvZEVVRTZkRTBSNzJUMGdGbllWVTJOODFoczNZWnVLcjRHNGhPQmVrQ3NUcXBJVktKYzhaLTZxMmgxY3hpeTRCTFVoUGJZaXB4QUF3VW14bF9vWHBpaHFwNlVuMUxqWnhkeHc3ckJURWZDOWU4aENjS3I0TVB6bzdCUFpCMHhvcw?oc=5" xr:uid="{C28522A2-64B2-449D-9E84-90FDE78A295F}"/>
+    <hyperlink ref="C1546" r:id="rId58" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxNQ2hEWHhQR2pTMERJYjBHek9HUXZia1JjNVFQcGVjYlRTRjAxMnRZalpZTTVDUU5nMU96a2ozcEdtQ2w1ZXhudHRrb3UtMGY5RVVBQllWVXh6TjdMUm5xQVRvWFpWekZpSVZRNE53NU1sR18tcXoxbjVzNDc5Mmo5dlhZTktlR3RqSEpoaXpLcThrNFVERG5jNENHNTBYNzNoUlZ0bnRUekUwUDhZd2xfRHlRWE5JMlJKRDRCS1AwX19ReHAycTdXbDBmeHhHTC11Qy1n0gHTAUFVX3lxTE1DaERYeFBHalMwREliMEd6T0dRdmJrUmM1UVBwZWNiVFNGMDEydFlqWllNNUNRTmcxT3prajNwR21DbDVleG50dGtvdS0wZjlFVUFCWVZVeHpON0xSbnFBVG9YWlZ6RmlJVlE0Tnc1TWxHXy1xejFuNXM0Nzkyajl2WFlOS2VHdGpISmhpektxOGs0VUREbmM0Q0c1MFg3M2hSVnRudFR6RTBQOFl3bF9EeVFYTkkyUkpENEJLUDBfX1F4cDJxN1dsMGZ4eEdMLXVDLWc?oc=5" xr:uid="{87927688-4551-415D-A9C4-A1675C791562}"/>
+    <hyperlink ref="C1548" r:id="rId59" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxQb3A3TlRYUVR2MVh5d2s0YUpTZXhKdnpNZU43dmxRbkt2Z3NUWjViWkR1UThuSklpWERfNDFhVFlFZ2xCYjVmUlBpVzdEMEF3aGdSUzRmTWRUSFNaSzJ1VUpCTUk0YnAzbEpRZnlQeEdqdXhBQjNmeXZ2YWZZcTNtbXpYeVRoZk95cWdqQ2hpQTl6QUNTeXZmV0VxTnlCcVBjNm5JcNIBvwFBVV95cUxPU0RBdmlETHZmZ1YyYncwVWFkNnFDZjV1ZFBUZi1XZ212TVFpZXNabzFDZEZkWERIc1BSQkxib1FzckVRZlRyZ0RZOHJ4M0ducUFyamQ1cjZDbDJ4WGZsamZjbFNSSUdxdlEwR3JlUUd5ZElhNGlkcEhjZ2c4VmdCaFo4ZmVDcEx4dUxNWENZLVhWQ2VhYldESEVIU2poWHA4U0pXZEZZenVfb3Q3eG03a3hvYmlDS0ZiUS1SclVrcw?oc=5" xr:uid="{E70656E2-257A-42BC-A50D-A9414285990C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C9C643B-4497-4A86-BA8C-60EA914CD398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D8D0B6-D3AD-48C9-BCF9-96A52B7D8F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11219" uniqueCount="3947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11377" uniqueCount="3993">
   <si>
     <t>Fecha</t>
   </si>
@@ -11864,6 +11864,144 @@
   </si>
   <si>
     <t>https://zonacero.com/generales/gremios-respaldan-cobro-del-8-el-kwh-para-pagar-deuda-de-air-e</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/economia/empresas/articulo/ecopetrol-bajo-la-lupa-de-la-contraloria-hallazgos-fiscales-por-86054-millones-tras-anomalias-en-dos-contratos/202601/</t>
+  </si>
+  <si>
+    <t>César Eduardo Loza, nuevo integrante de la junta directiva de Ecopetrol, destacó que “vender el Permian es impactar su estabilidad”</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/economia/empresas/articulo/cesar-eduardo-loza-nuevo-integrante-de-la-junta-directiva-de-ecopetrol-destaco-que-vender-el-permian-es-impactar-su-estabilidad/202653/</t>
+  </si>
+  <si>
+    <t>['nuevo', 'directiva']</t>
+  </si>
+  <si>
+    <t>Asamblea de accionistas de Ecopetrol definirá renglones de Junta el 5 de febrero</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/economia/asamblea-de-accionistas-de-ecopetrol-definira-tres-renglones-de-la-junta-directiva-4308323</t>
+  </si>
+  <si>
+    <t>CGR detecta hallazgos fiscales por $86.054 millones en contratos de Ecopetrol: Morelco en la mira</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiyAFBVV95cUxPV0VNejh1Rm1NeEZrNUo5ckdXNEktX1lIdlBmQ0huTjl6VkVJY0RmcDIzZllSRGkyUTZXdW05RnZjZjEwbWNRYU40SWhMQ1I1ZE9QRFBJeGZEcm83N2tiQ2wza0tlZ3dlNE1EenFmLUV5dVJNSmZoWVlCUlpIRE1ocUdVb2NHU1FZUWkzTkk1N2c3V3NGREJTMHc4czhHTng1dEJnemYzQlhYZk1WMGdGVkhybDZ2YUoxMXpfSTgzZFUwQUxJRVAxdNIB3AFBVV95cUxPQkJmd2hmUy1vbnVqTGlZVkw4X3JHekhoU2t6UERISlJTbEgtaUJ2WXpnc281Sk00b1B2c0FVUGVzcTJnOTB4LVhmenR1SUtIM0RxRW9XV3JIa1FKTmo5eVAwbFoxY3ZHb0FoWTItVVhidDByUnkyUUhRcGV4LXZvcUQ2RlZKWjVNNDJJWW5xdXFhZzZKVFhLX0pNU0g1Tmg2SnpiQnpVNUN5ck42ZU9HdHZtMHBkRFRmVnNaYXFRdF9uTzhDZkJKYmUtdVFJcmYybGZhZGpQNWp4TWVo?oc=5</t>
+  </si>
+  <si>
+    <t>Detectan nuevo daño fiscal por más de $86.000 millones en contratos de Ecopetrol: aquí los detalles | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirgFBVV95cUxQSDVJTzBLZnpoVjRnekQxRmVwdjhnTU56MXhQZUFydkktc0NRN1hId2NVTHVzUGY2TWZYSm1UUUlYSk90aU1BTkdibzJ0RFo4LWk3Tko3OXlObG9UX211NW5SWTlUckZMTUtzdUhYRXdMak43N0stcS0xUWJ1ejNjOWFlNUZzbVJlNTM3MG5OaG42ODdrMkJ5VmRSWFlPcW9ZbzNrWDh3RE1xZGlaVWfSAbMBQVVfeXFMTURCbGs3eWNsb2ZMaUI2dmtrV2tHejZDX1Z0a3pOWjl2cjFKSkhJSEE3LVhpZUlLbkp1WTUzWkNWaVk0bm5JdzBVWDFnR3hQUHlRd1JoaUtIX2NKdWZqOTNZbkdza1dFdHhhM3l2MGFiR2hidnRIZEtueFkxbnQ5TXhwVl90OXZDaElKSXlXVjJCeU5YZUxDS0VVaVd2R04tbDBNd3M4UGxHRmNlenpHNF92X2M?oc=5</t>
+  </si>
+  <si>
+    <t>['nuevo', 'fiscal']</t>
+  </si>
+  <si>
+    <t>Las fallas administrativas de Ecopetrol que dejaron en riesgo más de 86.000 millones de pesos, según la Contraloría</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi9gFBVV95cUxPM2w1cWxrLU5LRndoMUk3dnhCZW5ZNklWeVp1M240MFpsdkpJdGpiTlJHaTM5SS1sSUJ2VFhRM0ZvdzhUUXVXa053RlN4azlSbVNFTW9yTEdUUmJwNmEtZjJiM0xvV1YxSUZfUkVuR1hiU0VabjZYOF8xRk1MMHNBby1rWHh2Y1lrTEdpTHRqRlRxbXZOM0RjLXpkZzlBeWM5bzg0WmdDaXljVDI0TXgwQVN6R2Q3S1drMEtLTzl3dHRmbUFqbVFYTTc0WVlja0VCZS0wU09pWnhUR1RFeEZvZHN0OUZTcm1QcmQ5dGw2d0Y3c1FFNXc?oc=5</t>
+  </si>
+  <si>
+    <t>['administrativas']</t>
+  </si>
+  <si>
+    <t>Contraloría detecta hallazgos fiscales por más de $86.000 millones en contratos de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMivwFBVV95cUxQc2hkOWpFNk5nQUlRa2gxZ0xpUkhhMEhKSE1xMGZXNjBVcW1GOENSbmR0bHJhMGtpN1BrREY2Tm1DbXlIUzhxQ3pybENIYUZhdVdaRXcxN0NMUmtOX09zMFMxcDNpa2xXUGpiWnVLaUdJUlo2M3lpZnczdGRwc2twdHgtRlBoTjFVVXNjMV9FMHJpeUhycjB3bmc3dndLYmsxUWpxdGxMNmpKeVpYX3lJVGU4QnJVZHh5VXRCRGwtc9IBvwFBVV95cUxNMG1odVNiOWpQclRNUHp2X2FsZ0hvZFFiTFlwVWZGcUNUaVFUMExfclNxajN4dEd5LWpfeVgzMU0zclQxRlYyX1UxUlZUWFlPNlhJelo2VVJ3ZmZnU1pGQTBTRFFSUUxnRm5WN0lrQ0dCUWlpSHJHc202UGg1ZUxBbm1kbTNWd3RRQWdraFJsNTdmUVk3REdFb2tkTzRsMzdXX3dxYnFrZm9VVW1WUENCMFp0TksyYnMwM08ybDZLTQ?oc=5</t>
+  </si>
+  <si>
+    <t>Ecopetrol bajo la lupa: $86.054 millones en riesgo por fallas contractuales según la Contraloría</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi2AFBVV95cUxOLTRUcDdDX1pDbElMLVpqSEU5WE5sLUNwYUV5c3pOdS1BTjlGSGxOcTY3aHRmTXY1R2UtRUdtRTcxMUZlNzdiZUs3TXAyd0NRdERrTXBJaXJUTk5ZNGdBYkcxX3RXM3dtY05TSENWYkZGbVFoVkEtaEUzVTdIMXM3UFZ2S2gxcjJfNXhnd0JULWVvWE1RcVRtNHBwMUhFZUtZUS0yTDhDVTlDR051RlJSd2FMal8ydHBJY2pFdW8yQmZoazgyZE9Qa1FHU19HWVNrNFl0SXZhbDc?oc=5</t>
+  </si>
+  <si>
+    <t>['contractuales']</t>
+  </si>
+  <si>
+    <t>Ricardo Rodríguez y Luis Felipe Henao se mantendrían en Junta de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqgFBVV95cUxPcXd4Z0Z1UU9SSFlfZGd5bUdIaW9waGpCUHJTNldZT3FoTmpiTnZhVndqYzE4ZXlpalpzMjR1bzZPNThBeHBXYU4ycW45d2VQSXY4REt5elJSNVZfLUNfNTdWYTdUQnZQVnlidW1NRlA0X0RjeW05dHhndXhSZ0M5VnBXcnZka0hkUEFDTjZLbXBVSU8yUWgzTEN4YlJUcGVHQ2pYbFR0LXN5d9IBrwFBVV95cUxQNWk3Z01hRmw0a01TMXE1ZFREcE9VcEsxbTNfcXN1X2FPcDRONmZlZHlScFVWUTYxYTN5YnNCMTI2eTNYejBKNXRrZVJUbGYwMklPV0llTWRDMWFmOUV3cnFCb2Y4NzlKVHN2T3lna053Qlg2Uy1mMFpvZnYzeXJFRjdvcVUzT3BTS1JnR0tad3NNTE1ZbkVPSzhfcmxuSWxFbDBvdk12eFNUUms0b2pN?oc=5</t>
+  </si>
+  <si>
+    <t>Los dos hallazgos fiscales que la Contraloría encontró en contratos de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMibEFVX3lxTFBzUFpLUmtSYVA3YTN3NnNfcEJlb1BySEVvdGE1TlFRcWpvRzB2VVFvcXdiVkpVa0xEMWR1U25MdmJJWENXUV9BUi1XbHU3aU02WFVnNzJaazRGd0puTlpldGxfZTBOV01mY3NOMtIBckFVX3lxTE0wbTgybFAxTTQ4UmFjaWxZcWNqRkRCN2hLc21kVHBtSG9YQTB4UUxMdnNCZVc3eWltMUtFdE85S01Ya1l6dlhwdnUwNVM4Nlc0Y1RQVWtjWEgwUTREOXBqa3JtSWt1bUE0TWtUelo4QnpJdw?oc=5</t>
+  </si>
+  <si>
+    <t>Contraloría reportó hallazgos por $86.054 millones en contratos de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMirAFBVV95cUxOQ0RfVGhVcmZFQjZkb3hISEc1R093cngtOTJwMllIcWFPUnZZcU44QWw0YnNuTDAzYzBsZFhpN3lTc1dlQW8xaE53SVdPUzhTNjlNN09IQ2VPd21wYTBDSFQxblQ3dkpoTElmQU1Ga2JRQV8yVkllZ1NGSFFobjhQOHFpTkN0c3pDU3BjT2lpRHZzWDZBMjI2MGIwc0MtVVZxdzN0MENMVmFaMWVx?oc=5</t>
+  </si>
+  <si>
+    <t>Hallazgos fiscales por $86.054 millones en contratos de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMipwFBVV95cUxOMzI2cUFaYW44SHBuSS1nYy0zWkRRRWk5Skw4amVKNzJDTzYzVVBtanJSUllxVXNqbXR6RXZEWE9xbV80YWg1MmRCQ20tdS0tR1lLT3VPTVlOMFNjdGNKUVJRWkJjWEJnLUVjc0JDZDAxVGhJQkF5NEVDZ1J3SnBoeF91cHRWWWdMVzZOMFZNcFRNQ1pzLUxNeVByZVRobHE5b192SlIwUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Irregularidades en contratos de Ecopetrol hicieron perder una millonaria fortuna a Colombia: “Se demoró para aplicar las multas”</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi_wFBVV95cUxOUjlEbW8tMEhzTkVOOFBXSDJDbkxVeWI1dmhvbHREWUJSbmZNX292a1lGWk1CTFZHLU1TRDdkNGZHQmlhZ2lsdm91ZldwamtkRERjTDdHV1ZiamZTMGVncE42Tlk4TU11eEVzVVFUQUY1b0Fqa2RwRGdtM2RDajN2aUtjQklCQkt3RTFoZ3NCcjE4OWRzZ3BBaVR1bXcyVkV1MmtyaVVPUjVIMUZuRzVFNDAxcFFGSi1Hd1dXbW1aVkFKRDJKaHNBT2NyRklYalpnVUplaS15NzdCTnBQekxtNUhHX0x4b3dnZUs1Ykg3bWhvVDhUZnRSUEpKNXRMTzTSAZoCQVVfeXFMTmRSaUNQRVB3b3R5bkFSc2lZU3poNHphdGpkenBnWEJGUFZMQ2FrSFFFbjdzWUpyRTctVFZnbXdFaWo1eVlyVWtUdlp2YWJPS2xkV0VYMk9mOWdsY2xqaUZvQ1phNS1ZRUZGWUpwQjhaZTlxUEZtM3JKSm9pb0pONkNRTUVBQXk0bWtqcU1lR1ZvajctLU1Mdks5eHhSZHYzN3lEalBNQk1TSmFWYWY4OHNJMmpRTHpFRUVrYVJWczNVY21JbTJHNzVDM3QzdE1oVmxDeDZLMzZWMVZITTM3b0JYdUF4SnJaeFQxSk9udWtQYV9iT1E1NFlVOGJ4QzQxVHlzNXhTSzZVR05nc2ljbmwwa0NPYy1Va1dn?oc=5</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMingFBVV95cUxPLVl1ODhhbkNrZzUxV0lSNDN5S1pvbldqaUgtNWV4NWExVWpfbkZwRV9kdzFOVTRzNldjNFZkdmZNN2NfbDFNQThlZzhpaGZCOENUWkJQSG1pSTNlbWhCMVBGQzBFUVo5Rmdoblp5T2wzMU81TTNoRHhRZGhUOVI2NG9PdHMtaW55Z1pyQXdNV1VhOHJYWXJrNGRqWGxXUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Contraloría detectó hallazgos fiscales por más de 86.000 millones en contratos de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitwFBVV95cUxORVBKRUU4YnNVMDI1cnpYMWZHbHhGTTcwRnBHQ0FoU011dTV5bFlTcnU0LTF6a0tqVE10WnZxME9KejB4UTd5RW5WMDU0VE9EYnMxc2MtY3lpZ2xVY2ZmVkY5WUJqRWs2WEpsZ1FHc21LSGhvZy1FYklyVU1TUVZ1ajR2NjVoclBZcjRla3ZkNHU5SFhjYVljYXBIenJDQXNoNlJfdFJIeUNUSl9TdjlaY3Jya1NUMU0?oc=5</t>
+  </si>
+  <si>
+    <t>Con inversión de COP$27 billones Ecopetrol hará frente a caída de utilidades y petróleo barato en 2026</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxPRThRYi1XdWJJZmp2LVo5Vk9jelI5TG91dUJTcTRVQWFzOUdjTGpOT3llUFhRRGxhZVc5T0d1RjZTNVo4YXhObEdTZHllSFhGeEdJdWxoTk9WQkpWZGFUZzJHSG9ETnczU2k5VWdoSzRKcWxKUVVFazNHU0NKUjgzSVVHUkdlUHlUQ2pYTnp6c2R6RzE1SFY4bEJLeE9NSVYweHJzTFU2Qlg4d1NjLXliMFFLaC1QMEdrNWlIY3dsc2w3NHNEWmMzQldjRXRPTjNzSDk1aVlFOUplMTNSbC1Jdl9PcjEwMWdmNi1IT9IBgAJBVV95cUxQVGEtbGs2RlUxVWc4TndkbmF3bWZxMTF2d25rbDNzdW1qcnZyYnQzZTFNZjdUOWgtVUo4UFZRNmdGZ0tKaDhuRFdOa2UyZUlyM3V1MG5GdDFNUkxsTkRSbzZVNFVxVjR6TWdYZ2IyeWpIcTZTMDdQbkJ1S1FkWjFLaHd1LUZRT0NqUVAwYlExTDFQR2ZjZGpoMlE0eXhvaFVqS1NnQ1VKaDVYNDdpeEFHTEhoYkJGaURUemNTR19YQ2xBRF9HSUF5TnZxeGZwX1JPemI3OFFETkhIOWFOQjI4dWpqQ1luU2lBeFphYXJGeUFlbVFnVGxrZlBfaW53cVNH?oc=5</t>
+  </si>
+  <si>
+    <t>['billones', 'barato']</t>
+  </si>
+  <si>
+    <t>Exceso de deuda del Gobierno se traduce en crédito caro, menor inversión y menos empleo; advierte César Pabón, de Corficolombiana</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiiAJBVV95cUxPTHlYa1AxdTVCbWxtbHZlTDREdHQ4MEZTVFhrY1RqTld0Wmp6a2x6bDFVM3ZuaHdSM2k1RTRZbVFQY0tXd2JmZ2w5Q1UxS0xNUUo1dUdEdWl4TzVSclFoX2VJYTU3RGM0LXhTU2hLaHZwdC1sMTJvTUNiV1FJS0xyQl8yalZIc0xObFNUekxyMnRlMk14QW9qc0RJd3Y5QWNKM0hoX0NJS3c5Q1NEaGgtek5zZlJaNjh3RVJhbFVSRHZ2XzA3eDYzY0FDU0gzYVBocDB3cm1GbVl6Y2NIbUxjbk9hNTl4UXJTVVJqSGdTdHB3QmUzcWVUd1BoZ2xMc1k4T3NKSFA1UnrSAY4CQVVfeXFMTWJNVTgtWFBNZTV6UXNQV0l3OWFBVDVyZGhjclVoSnRwLW0xaTJQb0lxSTFjal9rQmFab0FZSWJsZHBNNnN6eUk4dDNJRFFtN3IwWEF4d2VwZ0JjS2pxMXMzRjVZTWM3R3JxOExna0w2MTRHZ0phbGNsM3JWaS1FeWhnZ1hVZklIUmRRMUU4aFF3ZGUtZ1k3MjlLREFuMHA4YWJYRmtZUEFZZFNXUFpscjRRX0tPTEkwd3pPODNqVUxlSjhUZ19QTVp1TFJLdFo3S0FYZ1lGdGlZWWNEejNOcTNUdXdzVHNsV1NPNDFkTUY3VWJLTG1MTUhvN0tNYkdVRW5EYVRfWUVkSGhvNHJB?oc=5</t>
+  </si>
+  <si>
+    <t>['caro', 'menor']</t>
+  </si>
+  <si>
+    <t>Afinia anuncia interrupciones eléctricas en Bolívar y Magdalena para esta semana</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxPWHpjRFpOZW14UWZXcnRjU3duVUV5VWR5RjRKUWswZWo1eUEtRUlXQ0Q3ZVpIX1ZLZHFoYVBVMGgwNXJGUWFVSHROQXhjUHpURzV6cV93ZlRMb2NxbVpzX2pSUWVCWnNJbmY1SXhJQjlxMkJPME1RX2JnS3hzMGY3YTRSXzBUSURROGNUN2F4Zkw4a1lwYkVZRnRPZmsyOTJSQU1oa1p3Wmx1S1B0cUo4REtRUVlZUdIBygFBVV95cUxNakJOODk5MHJneGdNNnFKQ05zcU12QTZkVWVoZHJNWmhWemEzd0c5Y2RDcC1PZGpYclRkdmR4SzJmcUxUOTRTZU9mRHVUbFVXT2swRi1DVWtUOVV1U1RnWXFLemk4VWpnd1dpNExyaXRPUU5LWVIzZXBiOC1fUTAtOHZUam96blVMYWJXM296bl84Ui1ieUV5UDJPTTlGMndCVlVRQjZtWUdIamZ2VVRSVHdxM1lVUm9QZlNpb05pVVdwVi02QmdZclNB?oc=5</t>
+  </si>
+  <si>
+    <t>ESSA premió a instituciones educativas de Santander por proyectos de eficiencia energética</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5AFBVV95cUxNd2VxcjZKR29rU2JKSWdhVGZDMGx6S2VPVmRPdFZNTnYwRWRkXzJ0NVN0NUJuZHNKYTRMOHU0MkFpeGpuRWhyREhzLWc1NTF1Q092RlVESkpOUnl6QkJRS1BjYVp1dUdXZWN0SGJRWTR5STBianZrNWNDbFVxNXYwMEFIS2hEN3hMbVNrQTNWd0hFVTZpYmZ6aXpVenJtSTlKRnpPdHR5d0NxNFIwb1RSVzV4bXdiWDh0c1Zrc1o5LUZNVnBBcTBZYkFrMzJfVXpHbWJLYmFMaDNjRXlkWXo0cy1MalU?oc=5</t>
+  </si>
+  <si>
+    <t>['educativas', 'energética']</t>
+  </si>
+  <si>
+    <t>Gobierno evalúa que empresa estatal asuma operación de Air-e en el Caribe</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2026/01/19/gobierno-evalua-que-empresa-estatal-asuma-operacion-de-air-e-en-el-caribe/</t>
+  </si>
+  <si>
+    <t>['evalúa', 'estatal', 'asuma']</t>
   </si>
 </sst>
 </file>
@@ -12724,10 +12862,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1551"/>
+  <dimension ref="A1:I1573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1511" workbookViewId="0">
-      <selection activeCell="A1529" sqref="A1529:I1551"/>
+    <sheetView tabSelected="1" topLeftCell="A1535" workbookViewId="0">
+      <selection activeCell="A1552" sqref="A1552:I1573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54139,6 +54277,590 @@
       </c>
       <c r="I1551" t="s">
         <v>3493</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1552" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1552" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C1552" s="3" t="s">
+        <v>3947</v>
+      </c>
+      <c r="D1552" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1552" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1552" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G1552" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1552" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I1552" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1553" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1553" t="s">
+        <v>3948</v>
+      </c>
+      <c r="C1553" s="3" t="s">
+        <v>3949</v>
+      </c>
+      <c r="D1553" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1553" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1553" t="s">
+        <v>3950</v>
+      </c>
+      <c r="G1553" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1553" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1554" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1554" t="s">
+        <v>3951</v>
+      </c>
+      <c r="C1554" s="3" t="s">
+        <v>3952</v>
+      </c>
+      <c r="D1554" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1554" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1554" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1554" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1554" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1555" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1555" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C1555" s="3" t="s">
+        <v>3898</v>
+      </c>
+      <c r="D1555" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1555" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1555" t="s">
+        <v>3899</v>
+      </c>
+      <c r="G1555" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1555" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1556" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1556" t="s">
+        <v>3953</v>
+      </c>
+      <c r="C1556" s="3" t="s">
+        <v>3954</v>
+      </c>
+      <c r="D1556" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1556" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1556" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G1556" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1556" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1557" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1557" t="s">
+        <v>3955</v>
+      </c>
+      <c r="C1557" s="3" t="s">
+        <v>3956</v>
+      </c>
+      <c r="D1557" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1557" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1557" t="s">
+        <v>3957</v>
+      </c>
+      <c r="G1557" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1557" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1558" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1558" t="s">
+        <v>3958</v>
+      </c>
+      <c r="C1558" s="3" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D1558" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1558" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1558" t="s">
+        <v>3960</v>
+      </c>
+      <c r="G1558" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1558" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1558" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1559" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1559" t="s">
+        <v>3907</v>
+      </c>
+      <c r="C1559" s="3" t="s">
+        <v>3908</v>
+      </c>
+      <c r="D1559" t="s">
+        <v>224</v>
+      </c>
+      <c r="E1559" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1559" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1559" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1559" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1560" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1560" t="s">
+        <v>3961</v>
+      </c>
+      <c r="C1560" s="3" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D1560" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1560" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1560" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G1560" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1560" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1561" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1561" t="s">
+        <v>3963</v>
+      </c>
+      <c r="C1561" s="3" t="s">
+        <v>3964</v>
+      </c>
+      <c r="D1561" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1561" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1561" t="s">
+        <v>3965</v>
+      </c>
+      <c r="G1561" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1561" t="s">
+        <v>441</v>
+      </c>
+      <c r="I1561" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1562" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1562" t="s">
+        <v>3966</v>
+      </c>
+      <c r="C1562" s="3" t="s">
+        <v>3967</v>
+      </c>
+      <c r="D1562" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1562" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1562" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1562" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1562" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1563" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1563" t="s">
+        <v>3968</v>
+      </c>
+      <c r="C1563" s="3" t="s">
+        <v>3969</v>
+      </c>
+      <c r="D1563" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1563" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1563" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G1563" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1563" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1564" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1564" t="s">
+        <v>3970</v>
+      </c>
+      <c r="C1564" s="3" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D1564" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1564" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1564" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1564" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1564" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1565" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1565" t="s">
+        <v>3972</v>
+      </c>
+      <c r="C1565" s="3" t="s">
+        <v>3973</v>
+      </c>
+      <c r="D1565" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1565" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1565" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G1565" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1565" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1566" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1566" t="s">
+        <v>3974</v>
+      </c>
+      <c r="C1566" s="3" t="s">
+        <v>3975</v>
+      </c>
+      <c r="D1566" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1566" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1566" t="s">
+        <v>2314</v>
+      </c>
+      <c r="G1566" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1566" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1567" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1567" t="s">
+        <v>3913</v>
+      </c>
+      <c r="C1567" s="3" t="s">
+        <v>3976</v>
+      </c>
+      <c r="D1567" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1567" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1567" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G1567" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1567" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1568" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1568" t="s">
+        <v>3977</v>
+      </c>
+      <c r="C1568" s="3" t="s">
+        <v>3978</v>
+      </c>
+      <c r="D1568" t="s">
+        <v>3287</v>
+      </c>
+      <c r="E1568" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1568" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G1568" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1568" t="s">
+        <v>3287</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1569" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1569" t="s">
+        <v>3979</v>
+      </c>
+      <c r="C1569" s="3" t="s">
+        <v>3980</v>
+      </c>
+      <c r="D1569" t="s">
+        <v>3623</v>
+      </c>
+      <c r="E1569" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1569" t="s">
+        <v>3981</v>
+      </c>
+      <c r="G1569" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1569" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1570" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1570" t="s">
+        <v>3982</v>
+      </c>
+      <c r="C1570" s="3" t="s">
+        <v>3983</v>
+      </c>
+      <c r="D1570" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1570" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F1570" t="s">
+        <v>3984</v>
+      </c>
+      <c r="G1570" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1570" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1571" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1571" t="s">
+        <v>3985</v>
+      </c>
+      <c r="C1571" s="3" t="s">
+        <v>3986</v>
+      </c>
+      <c r="D1571" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1571" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1571" t="s">
+        <v>2964</v>
+      </c>
+      <c r="G1571" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1571" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1572" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1572" t="s">
+        <v>3987</v>
+      </c>
+      <c r="C1572" s="3" t="s">
+        <v>3988</v>
+      </c>
+      <c r="D1572" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1572" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F1572" t="s">
+        <v>3989</v>
+      </c>
+      <c r="G1572" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1572" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1572" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1573" s="1">
+        <v>46042</v>
+      </c>
+      <c r="B1573" t="s">
+        <v>3990</v>
+      </c>
+      <c r="C1573" s="3" t="s">
+        <v>3991</v>
+      </c>
+      <c r="D1573" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1573" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1573" t="s">
+        <v>3992</v>
+      </c>
+      <c r="G1573" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1573" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -54203,6 +54925,24 @@
     <hyperlink ref="C1545" r:id="rId57" display="https://news.google.com/rss/articles/CBMi1wFBVV95cUxPcTRFdGxwd0ZtbkFfSnBTMHZaMXB0ZHBEOWlLZnJiSDBub2dzTWwxaUJKRERKd1o2bVNOZ0dNZ19TUHllTTdLbEJ5Yy02VEFsTVFtN0VveUtvZEVVRTZkRTBSNzJUMGdGbllWVTJOODFoczNZWnVLcjRHNGhPQmVrQ3NUcXBJVktKYzhaLTZxMmgxY3hpeTRCTFVoUGJZaXB4QUF3VW14bF9vWHBpaHFwNlVuMUxqWnhkeHc3ckJURWZDOWU4aENjS3I0TVB6bzdCUFpCMHhvcw?oc=5" xr:uid="{C28522A2-64B2-449D-9E84-90FDE78A295F}"/>
     <hyperlink ref="C1546" r:id="rId58" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxNQ2hEWHhQR2pTMERJYjBHek9HUXZia1JjNVFQcGVjYlRTRjAxMnRZalpZTTVDUU5nMU96a2ozcEdtQ2w1ZXhudHRrb3UtMGY5RVVBQllWVXh6TjdMUm5xQVRvWFpWekZpSVZRNE53NU1sR18tcXoxbjVzNDc5Mmo5dlhZTktlR3RqSEpoaXpLcThrNFVERG5jNENHNTBYNzNoUlZ0bnRUekUwUDhZd2xfRHlRWE5JMlJKRDRCS1AwX19ReHAycTdXbDBmeHhHTC11Qy1n0gHTAUFVX3lxTE1DaERYeFBHalMwREliMEd6T0dRdmJrUmM1UVBwZWNiVFNGMDEydFlqWllNNUNRTmcxT3prajNwR21DbDVleG50dGtvdS0wZjlFVUFCWVZVeHpON0xSbnFBVG9YWlZ6RmlJVlE0Tnc1TWxHXy1xejFuNXM0Nzkyajl2WFlOS2VHdGpISmhpektxOGs0VUREbmM0Q0c1MFg3M2hSVnRudFR6RTBQOFl3bF9EeVFYTkkyUkpENEJLUDBfX1F4cDJxN1dsMGZ4eEdMLXVDLWc?oc=5" xr:uid="{87927688-4551-415D-A9C4-A1675C791562}"/>
     <hyperlink ref="C1548" r:id="rId59" display="https://news.google.com/rss/articles/CBMipAFBVV95cUxQb3A3TlRYUVR2MVh5d2s0YUpTZXhKdnpNZU43dmxRbkt2Z3NUWjViWkR1UThuSklpWERfNDFhVFlFZ2xCYjVmUlBpVzdEMEF3aGdSUzRmTWRUSFNaSzJ1VUpCTUk0YnAzbEpRZnlQeEdqdXhBQjNmeXZ2YWZZcTNtbXpYeVRoZk95cWdqQ2hpQTl6QUNTeXZmV0VxTnlCcVBjNm5JcNIBvwFBVV95cUxPU0RBdmlETHZmZ1YyYncwVWFkNnFDZjV1ZFBUZi1XZ212TVFpZXNabzFDZEZkWERIc1BSQkxib1FzckVRZlRyZ0RZOHJ4M0ducUFyamQ1cjZDbDJ4WGZsamZjbFNSSUdxdlEwR3JlUUd5ZElhNGlkcEhjZ2c4VmdCaFo4ZmVDcEx4dUxNWENZLVhWQ2VhYldESEVIU2poWHA4U0pXZEZZenVfb3Q3eG03a3hvYmlDS0ZiUS1SclVrcw?oc=5" xr:uid="{E70656E2-257A-42BC-A50D-A9414285990C}"/>
+    <hyperlink ref="C1555" r:id="rId60" display="https://news.google.com/rss/articles/CBMi0wFBVV95cUxOZzBhbHVCQlNhV3Nud2dBS2JtaVZTQmZqMHJNR2M2dnFIcVE4Z2dBZEtvRXZmS2VkWDNBb0tLeUExQVVSTTlVamZ0Z3UxODlHVGI0YU1OWkRCTWpqVXpaREJEaDZTUHdlODVYamR2VWZGTUNDdWVPZmNPQmJjUFZTcUFOVlIyR1lEblpDeUhubVk1T21VelZYcE00Nzd1MHBDck53bk5oM1ZNbkFQYm1JQURuLURKX1ZMLWlodWhVSW94am90NHd6M2c4clNGb2E0aVNZ0gHTAUFVX3lxTFB6bDM5UUNpdllGQ1VEUVFWM2hfXzViVF9hYUxaTmZQcTkzRDZCZk9ITXlUWUJPTWtoYXlLQTJ0TlhQTU9lbmFMeXpEZUZCVmNSMDNUeFFhejhSaHc5bml3YXVOZ2Uwb3NrTGdTdElrZzhPSHJGSGlWUTE2Ql9aU3NxRFFuZlZjalFsbTA0akctZ3pwTXhjMThYZFZld2tZMTcxYlE3XzZ6OTdXajRtaHZQeHNFWU9UeW1VNnU3emZGamloMnZiZ0tJc3RoZlZuUUpwY00?oc=5" xr:uid="{97DE2B11-8D5C-45EF-8ECA-0C7346AC0070}"/>
+    <hyperlink ref="C1556" r:id="rId61" display="https://news.google.com/rss/articles/CBMiyAFBVV95cUxPV0VNejh1Rm1NeEZrNUo5ckdXNEktX1lIdlBmQ0huTjl6VkVJY0RmcDIzZllSRGkyUTZXdW05RnZjZjEwbWNRYU40SWhMQ1I1ZE9QRFBJeGZEcm83N2tiQ2wza0tlZ3dlNE1EenFmLUV5dVJNSmZoWVlCUlpIRE1ocUdVb2NHU1FZUWkzTkk1N2c3V3NGREJTMHc4czhHTng1dEJnemYzQlhYZk1WMGdGVkhybDZ2YUoxMXpfSTgzZFUwQUxJRVAxdNIB3AFBVV95cUxPQkJmd2hmUy1vbnVqTGlZVkw4X3JHekhoU2t6UERISlJTbEgtaUJ2WXpnc281Sk00b1B2c0FVUGVzcTJnOTB4LVhmenR1SUtIM0RxRW9XV3JIa1FKTmo5eVAwbFoxY3ZHb0FoWTItVVhidDByUnkyUUhRcGV4LXZvcUQ2RlZKWjVNNDJJWW5xdXFhZzZKVFhLX0pNU0g1Tmg2SnpiQnpVNUN5ck42ZU9HdHZtMHBkRFRmVnNaYXFRdF9uTzhDZkJKYmUtdVFJcmYybGZhZGpQNWp4TWVo?oc=5" xr:uid="{F9B1461F-8104-4E34-8954-35B1E93D69BC}"/>
+    <hyperlink ref="C1557" r:id="rId62" display="https://news.google.com/rss/articles/CBMirgFBVV95cUxQSDVJTzBLZnpoVjRnekQxRmVwdjhnTU56MXhQZUFydkktc0NRN1hId2NVTHVzUGY2TWZYSm1UUUlYSk90aU1BTkdibzJ0RFo4LWk3Tko3OXlObG9UX211NW5SWTlUckZMTUtzdUhYRXdMak43N0stcS0xUWJ1ejNjOWFlNUZzbVJlNTM3MG5OaG42ODdrMkJ5VmRSWFlPcW9ZbzNrWDh3RE1xZGlaVWfSAbMBQVVfeXFMTURCbGs3eWNsb2ZMaUI2dmtrV2tHejZDX1Z0a3pOWjl2cjFKSkhJSEE3LVhpZUlLbkp1WTUzWkNWaVk0bm5JdzBVWDFnR3hQUHlRd1JoaUtIX2NKdWZqOTNZbkdza1dFdHhhM3l2MGFiR2hidnRIZEtueFkxbnQ5TXhwVl90OXZDaElKSXlXVjJCeU5YZUxDS0VVaVd2R04tbDBNd3M4UGxHRmNlenpHNF92X2M?oc=5" xr:uid="{9EE84F86-74E6-44CA-B751-356E05215AFB}"/>
+    <hyperlink ref="C1558" r:id="rId63" display="https://news.google.com/rss/articles/CBMi9gFBVV95cUxPM2w1cWxrLU5LRndoMUk3dnhCZW5ZNklWeVp1M240MFpsdkpJdGpiTlJHaTM5SS1sSUJ2VFhRM0ZvdzhUUXVXa053RlN4azlSbVNFTW9yTEdUUmJwNmEtZjJiM0xvV1YxSUZfUkVuR1hiU0VabjZYOF8xRk1MMHNBby1rWHh2Y1lrTEdpTHRqRlRxbXZOM0RjLXpkZzlBeWM5bzg0WmdDaXljVDI0TXgwQVN6R2Q3S1drMEtLTzl3dHRmbUFqbVFYTTc0WVlja0VCZS0wU09pWnhUR1RFeEZvZHN0OUZTcm1QcmQ5dGw2d0Y3c1FFNXc?oc=5" xr:uid="{4F9C634A-D96A-48CA-BA53-7215A589D9E1}"/>
+    <hyperlink ref="C1559" r:id="rId64" display="https://news.google.com/rss/articles/CBMiugFBVV95cUxOZFNIY3kxcjJFNFdzWE83WC03SWk5RUNzWjV1RDBXM2Y4RnlMdTZaNWNyZnN5UVV2TV9aTWxlTG5NcVJHY0dNYVVvWXQyMVhjMlBMN3puZTB2OVdOUWx3V2E3WEdQbF9iZnBUejgzNDhSWEtpVk5oNXFDek5zY1FsdWVPb1d6eUttNU93XzlLYmJtYUxqTVhfY2lUekd4a0JDSUZzTEllSTgwdXFmbmRiaWVKQXRGNEhIMWc?oc=5" xr:uid="{10721805-F2DD-4317-BABA-5FE257A1C8DB}"/>
+    <hyperlink ref="C1560" r:id="rId65" display="https://news.google.com/rss/articles/CBMivwFBVV95cUxQc2hkOWpFNk5nQUlRa2gxZ0xpUkhhMEhKSE1xMGZXNjBVcW1GOENSbmR0bHJhMGtpN1BrREY2Tm1DbXlIUzhxQ3pybENIYUZhdVdaRXcxN0NMUmtOX09zMFMxcDNpa2xXUGpiWnVLaUdJUlo2M3lpZnczdGRwc2twdHgtRlBoTjFVVXNjMV9FMHJpeUhycjB3bmc3dndLYmsxUWpxdGxMNmpKeVpYX3lJVGU4QnJVZHh5VXRCRGwtc9IBvwFBVV95cUxNMG1odVNiOWpQclRNUHp2X2FsZ0hvZFFiTFlwVWZGcUNUaVFUMExfclNxajN4dEd5LWpfeVgzMU0zclQxRlYyX1UxUlZUWFlPNlhJelo2VVJ3ZmZnU1pGQTBTRFFSUUxnRm5WN0lrQ0dCUWlpSHJHc202UGg1ZUxBbm1kbTNWd3RRQWdraFJsNTdmUVk3REdFb2tkTzRsMzdXX3dxYnFrZm9VVW1WUENCMFp0TksyYnMwM08ybDZLTQ?oc=5" xr:uid="{1043A7E6-F0A2-4F1F-96DD-4F312C80D662}"/>
+    <hyperlink ref="C1561" r:id="rId66" display="https://news.google.com/rss/articles/CBMi2AFBVV95cUxOLTRUcDdDX1pDbElMLVpqSEU5WE5sLUNwYUV5c3pOdS1BTjlGSGxOcTY3aHRmTXY1R2UtRUdtRTcxMUZlNzdiZUs3TXAyd0NRdERrTXBJaXJUTk5ZNGdBYkcxX3RXM3dtY05TSENWYkZGbVFoVkEtaEUzVTdIMXM3UFZ2S2gxcjJfNXhnd0JULWVvWE1RcVRtNHBwMUhFZUtZUS0yTDhDVTlDR051RlJSd2FMal8ydHBJY2pFdW8yQmZoazgyZE9Qa1FHU19HWVNrNFl0SXZhbDc?oc=5" xr:uid="{EEEF2A5E-16A4-4298-9EFA-452F99272F02}"/>
+    <hyperlink ref="C1562" r:id="rId67" display="https://news.google.com/rss/articles/CBMiqgFBVV95cUxPcXd4Z0Z1UU9SSFlfZGd5bUdIaW9waGpCUHJTNldZT3FoTmpiTnZhVndqYzE4ZXlpalpzMjR1bzZPNThBeHBXYU4ycW45d2VQSXY4REt5elJSNVZfLUNfNTdWYTdUQnZQVnlidW1NRlA0X0RjeW05dHhndXhSZ0M5VnBXcnZka0hkUEFDTjZLbXBVSU8yUWgzTEN4YlJUcGVHQ2pYbFR0LXN5d9IBrwFBVV95cUxQNWk3Z01hRmw0a01TMXE1ZFREcE9VcEsxbTNfcXN1X2FPcDRONmZlZHlScFVWUTYxYTN5YnNCMTI2eTNYejBKNXRrZVJUbGYwMklPV0llTWRDMWFmOUV3cnFCb2Y4NzlKVHN2T3lna053Qlg2Uy1mMFpvZnYzeXJFRjdvcVUzT3BTS1JnR0tad3NNTE1ZbkVPSzhfcmxuSWxFbDBvdk12eFNUUms0b2pN?oc=5" xr:uid="{4561A734-9F98-4452-BBF2-ACDB3FE7A110}"/>
+    <hyperlink ref="C1563" r:id="rId68" display="https://news.google.com/rss/articles/CBMibEFVX3lxTFBzUFpLUmtSYVA3YTN3NnNfcEJlb1BySEVvdGE1TlFRcWpvRzB2VVFvcXdiVkpVa0xEMWR1U25MdmJJWENXUV9BUi1XbHU3aU02WFVnNzJaazRGd0puTlpldGxfZTBOV01mY3NOMtIBckFVX3lxTE0wbTgybFAxTTQ4UmFjaWxZcWNqRkRCN2hLc21kVHBtSG9YQTB4UUxMdnNCZVc3eWltMUtFdE85S01Ya1l6dlhwdnUwNVM4Nlc0Y1RQVWtjWEgwUTREOXBqa3JtSWt1bUE0TWtUelo4QnpJdw?oc=5" xr:uid="{B2BAB670-063F-4011-B05C-28F4CA93C31C}"/>
+    <hyperlink ref="C1564" r:id="rId69" display="https://news.google.com/rss/articles/CBMirAFBVV95cUxOQ0RfVGhVcmZFQjZkb3hISEc1R093cngtOTJwMllIcWFPUnZZcU44QWw0YnNuTDAzYzBsZFhpN3lTc1dlQW8xaE53SVdPUzhTNjlNN09IQ2VPd21wYTBDSFQxblQ3dkpoTElmQU1Ga2JRQV8yVkllZ1NGSFFobjhQOHFpTkN0c3pDU3BjT2lpRHZzWDZBMjI2MGIwc0MtVVZxdzN0MENMVmFaMWVx?oc=5" xr:uid="{21988257-FBCF-429F-A508-B5E59E4116CC}"/>
+    <hyperlink ref="C1565" r:id="rId70" display="https://news.google.com/rss/articles/CBMipwFBVV95cUxOMzI2cUFaYW44SHBuSS1nYy0zWkRRRWk5Skw4amVKNzJDTzYzVVBtanJSUllxVXNqbXR6RXZEWE9xbV80YWg1MmRCQ20tdS0tR1lLT3VPTVlOMFNjdGNKUVJRWkJjWEJnLUVjc0JDZDAxVGhJQkF5NEVDZ1J3SnBoeF91cHRWWWdMVzZOMFZNcFRNQ1pzLUxNeVByZVRobHE5b192SlIwUQ?oc=5" xr:uid="{D28B119A-5D50-4AC7-B75F-5F1395C3B699}"/>
+    <hyperlink ref="C1566" r:id="rId71" display="https://news.google.com/rss/articles/CBMi_wFBVV95cUxOUjlEbW8tMEhzTkVOOFBXSDJDbkxVeWI1dmhvbHREWUJSbmZNX292a1lGWk1CTFZHLU1TRDdkNGZHQmlhZ2lsdm91ZldwamtkRERjTDdHV1ZiamZTMGVncE42Tlk4TU11eEVzVVFUQUY1b0Fqa2RwRGdtM2RDajN2aUtjQklCQkt3RTFoZ3NCcjE4OWRzZ3BBaVR1bXcyVkV1MmtyaVVPUjVIMUZuRzVFNDAxcFFGSi1Hd1dXbW1aVkFKRDJKaHNBT2NyRklYalpnVUplaS15NzdCTnBQekxtNUhHX0x4b3dnZUs1Ykg3bWhvVDhUZnRSUEpKNXRMTzTSAZoCQVVfeXFMTmRSaUNQRVB3b3R5bkFSc2lZU3poNHphdGpkenBnWEJGUFZMQ2FrSFFFbjdzWUpyRTctVFZnbXdFaWo1eVlyVWtUdlp2YWJPS2xkV0VYMk9mOWdsY2xqaUZvQ1phNS1ZRUZGWUpwQjhaZTlxUEZtM3JKSm9pb0pONkNRTUVBQXk0bWtqcU1lR1ZvajctLU1Mdks5eHhSZHYzN3lEalBNQk1TSmFWYWY4OHNJMmpRTHpFRUVrYVJWczNVY21JbTJHNzVDM3QzdE1oVmxDeDZLMzZWMVZITTM3b0JYdUF4SnJaeFQxSk9udWtQYV9iT1E1NFlVOGJ4QzQxVHlzNXhTSzZVR05nc2ljbmwwa0NPYy1Va1dn?oc=5" xr:uid="{60155E69-6A91-48F5-9926-C335B1130946}"/>
+    <hyperlink ref="C1567" r:id="rId72" display="https://news.google.com/rss/articles/CBMingFBVV95cUxPLVl1ODhhbkNrZzUxV0lSNDN5S1pvbldqaUgtNWV4NWExVWpfbkZwRV9kdzFOVTRzNldjNFZkdmZNN2NfbDFNQThlZzhpaGZCOENUWkJQSG1pSTNlbWhCMVBGQzBFUVo5Rmdoblp5T2wzMU81TTNoRHhRZGhUOVI2NG9PdHMtaW55Z1pyQXdNV1VhOHJYWXJrNGRqWGxXUQ?oc=5" xr:uid="{5165AA48-FBAC-440C-9173-E98608FB60E9}"/>
+    <hyperlink ref="C1568" r:id="rId73" display="https://news.google.com/rss/articles/CBMitwFBVV95cUxORVBKRUU4YnNVMDI1cnpYMWZHbHhGTTcwRnBHQ0FoU011dTV5bFlTcnU0LTF6a0tqVE10WnZxME9KejB4UTd5RW5WMDU0VE9EYnMxc2MtY3lpZ2xVY2ZmVkY5WUJqRWs2WEpsZ1FHc21LSGhvZy1FYklyVU1TUVZ1ajR2NjVoclBZcjRla3ZkNHU5SFhjYVljYXBIenJDQXNoNlJfdFJIeUNUSl9TdjlaY3Jya1NUMU0?oc=5" xr:uid="{190F6611-3361-44C1-9593-84D394B118DF}"/>
+    <hyperlink ref="C1569" r:id="rId74" display="https://news.google.com/rss/articles/CBMi7AFBVV95cUxPRThRYi1XdWJJZmp2LVo5Vk9jelI5TG91dUJTcTRVQWFzOUdjTGpOT3llUFhRRGxhZVc5T0d1RjZTNVo4YXhObEdTZHllSFhGeEdJdWxoTk9WQkpWZGFUZzJHSG9ETnczU2k5VWdoSzRKcWxKUVVFazNHU0NKUjgzSVVHUkdlUHlUQ2pYTnp6c2R6RzE1SFY4bEJLeE9NSVYweHJzTFU2Qlg4d1NjLXliMFFLaC1QMEdrNWlIY3dsc2w3NHNEWmMzQldjRXRPTjNzSDk1aVlFOUplMTNSbC1Jdl9PcjEwMWdmNi1IT9IBgAJBVV95cUxQVGEtbGs2RlUxVWc4TndkbmF3bWZxMTF2d25rbDNzdW1qcnZyYnQzZTFNZjdUOWgtVUo4UFZRNmdGZ0tKaDhuRFdOa2UyZUlyM3V1MG5GdDFNUkxsTkRSbzZVNFVxVjR6TWdYZ2IyeWpIcTZTMDdQbkJ1S1FkWjFLaHd1LUZRT0NqUVAwYlExTDFQR2ZjZGpoMlE0eXhvaFVqS1NnQ1VKaDVYNDdpeEFHTEhoYkJGaURUemNTR19YQ2xBRF9HSUF5TnZxeGZwX1JPemI3OFFETkhIOWFOQjI4dWpqQ1luU2lBeFphYXJGeUFlbVFnVGxrZlBfaW53cVNH?oc=5" xr:uid="{E432C947-91B9-4076-8670-1E3CDC1BE998}"/>
+    <hyperlink ref="C1570" r:id="rId75" display="https://news.google.com/rss/articles/CBMiiAJBVV95cUxPTHlYa1AxdTVCbWxtbHZlTDREdHQ4MEZTVFhrY1RqTld0Wmp6a2x6bDFVM3ZuaHdSM2k1RTRZbVFQY0tXd2JmZ2w5Q1UxS0xNUUo1dUdEdWl4TzVSclFoX2VJYTU3RGM0LXhTU2hLaHZwdC1sMTJvTUNiV1FJS0xyQl8yalZIc0xObFNUekxyMnRlMk14QW9qc0RJd3Y5QWNKM0hoX0NJS3c5Q1NEaGgtek5zZlJaNjh3RVJhbFVSRHZ2XzA3eDYzY0FDU0gzYVBocDB3cm1GbVl6Y2NIbUxjbk9hNTl4UXJTVVJqSGdTdHB3QmUzcWVUd1BoZ2xMc1k4T3NKSFA1UnrSAY4CQVVfeXFMTWJNVTgtWFBNZTV6UXNQV0l3OWFBVDVyZGhjclVoSnRwLW0xaTJQb0lxSTFjal9rQmFab0FZSWJsZHBNNnN6eUk4dDNJRFFtN3IwWEF4d2VwZ0JjS2pxMXMzRjVZTWM3R3JxOExna0w2MTRHZ0phbGNsM3JWaS1FeWhnZ1hVZklIUmRRMUU4aFF3ZGUtZ1k3MjlLREFuMHA4YWJYRmtZUEFZZFNXUFpscjRRX0tPTEkwd3pPODNqVUxlSjhUZ19QTVp1TFJLdFo3S0FYZ1lGdGlZWWNEejNOcTNUdXdzVHNsV1NPNDFkTUY3VWJLTG1MTUhvN0tNYkdVRW5EYVRfWUVkSGhvNHJB?oc=5" xr:uid="{C60724F2-71FF-43DA-92D6-CEBF462B8016}"/>
+    <hyperlink ref="C1571" r:id="rId76" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxPWHpjRFpOZW14UWZXcnRjU3duVUV5VWR5RjRKUWswZWo1eUEtRUlXQ0Q3ZVpIX1ZLZHFoYVBVMGgwNXJGUWFVSHROQXhjUHpURzV6cV93ZlRMb2NxbVpzX2pSUWVCWnNJbmY1SXhJQjlxMkJPME1RX2JnS3hzMGY3YTRSXzBUSURROGNUN2F4Zkw4a1lwYkVZRnRPZmsyOTJSQU1oa1p3Wmx1S1B0cUo4REtRUVlZUdIBygFBVV95cUxNakJOODk5MHJneGdNNnFKQ05zcU12QTZkVWVoZHJNWmhWemEzd0c5Y2RDcC1PZGpYclRkdmR4SzJmcUxUOTRTZU9mRHVUbFVXT2swRi1DVWtUOVV1U1RnWXFLemk4VWpnd1dpNExyaXRPUU5LWVIzZXBiOC1fUTAtOHZUam96blVMYWJXM296bl84Ui1ieUV5UDJPTTlGMndCVlVRQjZtWUdIamZ2VVRSVHdxM1lVUm9QZlNpb05pVVdwVi02QmdZclNB?oc=5" xr:uid="{0252E09D-5FC3-4B53-AB78-9608E7249F1B}"/>
+    <hyperlink ref="C1572" r:id="rId77" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxNd2VxcjZKR29rU2JKSWdhVGZDMGx6S2VPVmRPdFZNTnYwRWRkXzJ0NVN0NUJuZHNKYTRMOHU0MkFpeGpuRWhyREhzLWc1NTF1Q092RlVESkpOUnl6QkJRS1BjYVp1dUdXZWN0SGJRWTR5STBianZrNWNDbFVxNXYwMEFIS2hEN3hMbVNrQTNWd0hFVTZpYmZ6aXpVenJtSTlKRnpPdHR5d0NxNFIwb1RSVzV4bXdiWDh0c1Zrc1o5LUZNVnBBcTBZYkFrMzJfVXpHbWJLYmFMaDNjRXlkWXo0cy1MalU?oc=5" xr:uid="{2F5C2D76-D1E2-4711-967C-6F3855A60067}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/noticias_enfragen.xlsx
+++ b/noticias_enfragen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\conda24\gaseracol\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D8D0B6-D3AD-48C9-BCF9-96A52B7D8F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76659AA5-987C-4137-BFA4-286531D2CC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AD83D686-5087-4C8F-B022-6411082016C2}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11377" uniqueCount="3993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11542" uniqueCount="4047">
   <si>
     <t>Fecha</t>
   </si>
@@ -12002,6 +12002,168 @@
   </si>
   <si>
     <t>['evalúa', 'estatal', 'asuma']</t>
+  </si>
+  <si>
+    <t>Ecopetrol convocó a una nueva asamblea extraordinaria de accionistas el 5 de febrero para renovar su junta directiva</t>
+  </si>
+  <si>
+    <t>https://www.eltiempo.com/economia/sectores/ecopetrol-convoco-a-una-nueva-asamblea-extraordinaria-de-accionistas-el-5-de-febrero-para-renovar-su-junta-directiva-3525769</t>
+  </si>
+  <si>
+    <t>['nueva', 'extraordinaria', 'directiva']</t>
+  </si>
+  <si>
+    <t>Asamblea de Ecopetrol elegirá nuevos miembros de su junta: estos son algunos candidatos</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizwFBVV95cUxQc3JUVGNRZDUtODNOMkh1VnBrOVRlQUt0alpEN3RrRVMwdlhTMHp5QVRDa1lWb1VJVnEwY2RSaU8xUTdjYlExUmlYODVzTjlCQTNBWXhZWU5UUlFYZ3BrLVRKcWdvVk05UGR6RjVOY09mYXFtR0xLOUNIeWUxMDVaeEozSUlhcE96dEJNNjFCUmJSRlEwY1pVVFdiRzlrUkllSldESWxSVmRodGxVdWpZLUJKcHNyWDdwai04QXlmdU5zN25tdzFiMm5KU3RVOVU?oc=5</t>
+  </si>
+  <si>
+    <t>Esta es la plancha que votará Ecopetrol para elegir su junta el próximo 5 de febrero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixwFBVV95cUxOU0g0UHBPdE5IRUtGZGRrZGZPMDQ2UHhJVmZFZkEtcFRIbmczMnhRSldLdXkwcldrLWZJamFHYzdYdnkxcEFSUHQ5N1JKYTFzeDlzSTBTbFBoZE85NGdzM1hEZjh3bXUtemJOR1RYWVF5VnFGbm1iWmJtVl9pSHFDekt5cllRUHEzNmtlVWEyN3I1bDE4UjhGRDBQa1FIQkFhUGl5Y052ZmdIdnZJVUNZVm5wQ0dVRXhLTU1GdVBhOS1PYmtmMkVr0gHHAUFVX3lxTFAwR2h0UnhSZDBMX0tERjRyd3ZWeHktS2RRMV90RDVtQ0x6QnBJNzZKZW5VR09NODc1ank2TkFtX3RsOW1HdElVRlh0UXdDTTZYYks5SzB2VkF4d1RLLXJBNzJaZ2hPeDJHY1BUY0pndWUzWjZUOS14OVZZaWZPMl9FYWJ6cGNYR044QXJtWThXRzJLc19RS19mVnA0a29BRW5nZjkxRDdlbExxamdWdWZjemlzeXF6X2FFbGtuVE5COXo3Rm53Mm8?oc=5</t>
+  </si>
+  <si>
+    <t>['próximo']</t>
+  </si>
+  <si>
+    <t>Ecopetrol considera importar gas si Estados Unidos flexibiliza sanciones a Venezuela</t>
+  </si>
+  <si>
+    <t>https://www.larepublica.co/economia/ecopetrol-considera-importar-gas-si-estados-unidos-flexibiliza-sanciones-a-venezuela-4308586</t>
+  </si>
+  <si>
+    <t>Ecopetrol elegirá nueva junta directiva: entra presidente de la USO y sale protegido de Ricardo Roa</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMizgFBVV95cUxQRkN1N2Y1a1NLZWZiSFFJempUMFdhYi13cVlCbmh4LV9FRk5IeGV1Qzc4akNfQjFzaXNmYkx4V3NPNU1qb1J0MU9yUjNHRGxEUWlmSzktX1hiSTJRMl92cFFKY0phdDl2VlN2X1EtMXltcHJRMEpYNmNicWtNc1M3X0hDMXFvWEN1MjhRelBIU1VqWHpkNGJNWUZzTVVUUVhyMlhYZTVhSE40NmJsQ29FdnVSX0dBLU8wd2hiaExDOUYyUTJHWFN5T0ZaalBWUdIB4gFBVV95cUxOdE9PQ0J6TFV1a0E0QjI4aVJxckZKR2RkVkhmNDBaTXF4a3VqUjcyd0daWVV1b3kwX1FpYjBiY0FBZi1mUWxnUVZqUnpXOTBlTk9WN2NOQ3p2dXR6M2VwR2dzQ19KUDZWc253R1RmZ05FWUVSeXFaSWVIVktGRXBGZmR0Q3lZZm9MYlM0Z0s2U1pPZTBDTjVCTm1kUVJZS3hmd0l4WmRGb1NXRkgwYl9xWldkVUt1VVBoOXBTdTBhOV9PaE96Nk54N1FxNVVINkJDTzVuZlAwZGk4aEhKYVZ0bmFn?oc=5</t>
+  </si>
+  <si>
+    <t>['nueva', 'directiva', 'protegido']</t>
+  </si>
+  <si>
+    <t>Ecopetrol definirá su Junta Directiva en asamblea de accionistas el 5 de febrero: así va hasta ahora | El Colombiano</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikAFBVV95cUxQN08tNVRQMHhZeDUzUU8ydEtNcFh4SmU4WGI3WVNSOHlaSHRxejI4VFdtcmo2NWZ6Tl9oVWx1S3VLbm5OYks2ZkxiNFBtbGxjLTRUVlVHc0V6UWE0akstMmZKQ3dwNWJSRWk0NmNjMTRrRGxITmdiQjNIc29Fcmp0NEdCZUxEVkd5bTlsNVBieGHSAZYBQVVfeXFMTzRKSDB4dTMzOG5LQURqWEZ0RDZ2SXExSnU2d2x0Z292UjdxbGZseWoyZ3UwT25KZ3ExS3VkaUJEUldRd1RDWVVQVEZiSUZ2SkdiaTJGcVI0MlZlZ09uTlJxRDNxQ2Q1YUZwd0NndEU5T1pKRmstY0FGRUp5QkdPQjR1Qy1scjRtT210T2c1c3Z0eVhOUWRR?oc=5</t>
+  </si>
+  <si>
+    <t>Ecopetrol definirá su Junta Directiva en asamblea de accionistas el 5 de febrero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMixAFBVV95cUxQMk9qdzBYTVUtOUhycHV3TkJvLTBiR3pYVk9aZ0Y2OGl0YWZzTUdsWUdOVDhZa0JCYW9Rd3NZYmtlYW5MUEhoQll5NUFaOHFNY0tSWDVIR3Izc2hIUDJHS3FEeEhWSUdfY3hpQVNBZXdKMk1iWFlaSlRjbi1mUW1ycjYxUC1mcHNJVEtpR1lmRFBpQ0xGMVdPX21SaDl0QjVlMXcybU8xN3FWXy14QURRZnB4ZW53elNSamxCVEJYUVRJeGZW0gHfAUFVX3lxTE94NXlkMFBidEJSMndUYk9rRGxtRW1iZW5Qa1MxNXdCdVZaVGFGdE1fNnQ0blZXLWZxTjZQM3dwclFlMVF6Ykw0cTlXcXpRVmFzZFNXd3hXTVJ1WnduNG9hZWZOd2VRdnhYYjVGWHI1dnJzSnFZTXZDa2hXb3FUeG4yVTg0Y3V1WHJ6ejljZldlWnBkX0NscmRmVW9fUm9CQzktcFIxaVU2aEwzeHV4QWpKOFhYR25qenhaTGdsWE1xOHJuSXFXS3hzc1pGNWg0TFExQ3lnZzl0b2hFeWw1SWM?oc=5</t>
+  </si>
+  <si>
+    <t>Ecopetrol alista cambios en su Junta Directiva: asamblea de accionistas será el 5 de febrero</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMikgFBVV95cUxNSXF2SEpJSkRTTFR1NTFNNnFUM19kc0dOTTFsS1BaTUxoSWJvU1dvdlBTYXVhZ0xIM3h4c2t2THpKUWhTSmNacHlWZFNzRmt2ODZvWTBpanVFLWhpYzROMGRmSTlQWlBIS1RYYW5OV2NuTC1DSk5pc21qUU1xWENmS2tPZ0RaX253WFBCUEV1b3VEd9IBkgFBVV95cUxPQ3BiSkRMSkhUT3N4ZnVHMWxMbl9XbWhvZVhZMmhTbnhpVVA4R1RrU3BhaVdKZHloUkRXeEoxT01ldHVDbldKemU5SXdvaGpfaEkza1hNVVkzTEVSbElrcG1IYVN1N2NRdk82Q0Z2TVVlVm5EbUFKQ0QxRTZxUzhDdjUzNkcwZmRrbWhKX3paUHkwdw?oc=5</t>
+  </si>
+  <si>
+    <t>['alista']</t>
+  </si>
+  <si>
+    <t>Estos son los nombres que completarán la plancha de miembros de la junta directiva de Ecopetrol</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi1wFBVV95cUxNXzhGYTBQWUlrcXIyYTR3REhjMVJvS0tORmJoNVVRWDBBTjg4R0VxNUk1V1otTjZ4Y1I1c00ySm1ZZ3BOQWY3NzR2U3Zrc2diX3pGN1RpeFN0VzJQdjY3MmNXWWpHQ25heFZUZ25lN0N1OHo4M3JNQzZKMmdxUHhqNVFXbmpvUEdOUk42S1l3cVczRTVMQW9rbW1VOVgtdjJXdmdCc20tQzBhZEpveU1hZl8tUDNVQjcxejVra1BqMU5PRnZpdFF6bTRTN3hraU5ERExhdWNUWdIB3AFBVV95cUxPQmFrZ0dnQU1KT3NMZG1yaWhkSGItSG8xUHNDbTYyODdBWDNzWm5iMWFxRXlmMmVKTjJjRTkwZXFSZjlweG4zOHRCS18wTzB4Q0g5Y190STNMOGJsRnF2ZTBqS29Kdmhfa0ZDTHNoY0IwX1lpUjZTdGVYTlZoVmVXU0lyWTF4ZUYtdzFORF9tbmZvc1o4LWM3XzJibkxBY3IycTVIbzR6SGNhRHh4QVhvRlRVSkVKeVkxWUJSc2tGUjFoLWp4SVlLRGRUdERzcXdGQjB1OXdkUFZiY3Br?oc=5</t>
+  </si>
+  <si>
+    <t>Ecopetrol: Cambios en la junta directiva, asamblea se reunirá el 5 de febrero para tomar decisiones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi5gFBVV95cUxQbHVCUXBUZzVKcTNmV3lQME1ySTRVOGd4VGVrRnhPMzBGaWtIamFvRDVzN2stNG9vb2ZmYWJkLWNzZWc1RUFxNkpTZmtpSXJ4TzFuM1YzcjZ2MG5qcnFja0RLUWJqbzk4cy03S3JfdVhqVVF0Q1VVZFZxaGt4OEhiRzlqVk12NGd0c1FRM0ZQS3FydHFlNGwxSzR0eW5FUlR4ekxTY2g2MlRhLXY3enhJdDVndnY1N1lHVEhhaEpNeGRRazFXeXZnRjhfbzlvSkNVRlBxMGxwNVE5M2xBV1FOTC11WjItQQ?oc=5</t>
+  </si>
+  <si>
+    <t>Esta es la plancha de candidatos a nueva Junta de Ecopetrol: entrarían tres nuevos miembros</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiW0FVX3lxTE0tczJYTzZzbzU1RldVSkFqTGhiWnNfeDl0dlplUGdfSjRVeTlEeXl4SVRFQnpJWXF2OVFjSXVVZnJKZzFKRkpUdmItaGIxYW5kU00taU9EUk9OU2PSAWBBVV95cUxPU2pJRDF6SHhYd2pSVWQybV9vc3Nvalo0N2x3X2FRekhOMUxnT0w1MEtvTExaX1h4TTdnOXYxRXg1Y0hNQzM5V3Q4ck1UYlk4eklKMURsc3ZvUUNFc0s2a2c?oc=5</t>
+  </si>
+  <si>
+    <t>['nueva', 'nuevos']</t>
+  </si>
+  <si>
+    <t>Ecopetrol volvería a importar gas venezolano si EE. UU. suaviza sanciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMitgFBVV95cUxOSXJJaGt6aktTUVhxbWVtaDF3WW5UekdCaF9RY0tjbTBtcHpPSGM4ajJWZjlLV1VpckdMUHRHdHZkWDM5TXVqdHZXcjhTS3NiRGNuUWRERUZtNDZnRUp1b2JCY3RpMzJJWlMzbFpUblZpNF9oTXFxYzRMcDdvRFZHbXI3RFQzVzdzNHI0MXNfcGRTZ1QzZmtSMW8tYjRSVUJGQnlCQ2NXcXczTVRCZnh6dF9iTXNFUQ?oc=5</t>
+  </si>
+  <si>
+    <t>Ecopetrol tendrá cambios a partir de febrero, luego de la asamblea extraordinaria de accionistas: ¿de qué se trata?</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMi7AFBVV95cUxNZzZTTGZTeUZuLTVzbVM4cEJxM3p6VnRzTHNlSHhONWZ6NkNZRDdnelJQdkMxeDlDNnRLT1dPU2c3NF9wMXoxcVdDaGQwU2JWa1ROTkRKMDUtdUVzMklLTlEyZzhkUjIyMmkzNG04cVFPNTRTci1mX21DcVJQMHh4bC1mUzZHMjhLWWhMeFE5TWlqeUFqZ1FwU1lMaE56UnFla1EtczQwbGlnQ3RINVlhTVJXc3N6b0ZmS1lFelQyNFVsa1BXMmJ3XzNoQWtaVlpnSlRxUk04Ri05czFKVGY4V0NaLVZtd1N6eXV6S9IBhwJBVV95cUxNSEd2aURLYnBBcFFZZ0hydlJzbGI2XzFsRDRsZS1sd2tZUEhFZ3M5S3lYb1lIWkNxb3ZZT0VrUlBkQ1NMNHQxRjZ0NkxhVW5aRHhtQmdkNDJMcFdKbW5yRE13LVlxeDlwSlM3ZTNpdTg3aUVGS3JlSzRxRTNHbkV4Nld4dGNXeWJxTVpZeUN2Y05sSThfSUlEZnRzNjMwZ1dXMVlyeTFmdGF6TU9YbkNDWmxJYTYzbHozTVlqODduNzZjNWdoZkhMcHE3VjhPVUxaeXAxWlBWRW5YME04VFNNbmxtcmFTVXVGMEo3Um9TSnc1a01RSGhoVUlaSnNPaXB2UWJLQzhabw?oc=5</t>
+  </si>
+  <si>
+    <t>La colombiana Ecopetrol estudia importar gas venezolano si Estados Unidos suaviza las sanciones</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiywFBVV95cUxNT2hEQ1VFVGxKVWhwYmppVEZ0b1RhWXNEWEZGZmxBR0c0LWl4WjJKZllKOFAweDBhZHNnNlJhdG9UeC12UG41dFNNU3Qzd0lSOTFWTXhBV2xpNFJpODFjbEtFS3FFdlhlLUlXZFhaUGlJM3N5R3VSR2RubFVtTnBBTXBZa2JXNE8wTF9KdURHN1B2N3k5akhDaTM0UHNyRWxhWlhuWlo3ZVM1VTVpeHJQeFUyVkxXdk94N21IVElyRndlMGptdDNSQnBadw?oc=5</t>
+  </si>
+  <si>
+    <t>['colombiana', 'venezolano']</t>
+  </si>
+  <si>
+    <t>Gobierno requiere apropiar $5.1 billones para saldar subsidios de energía y gas</t>
+  </si>
+  <si>
+    <t>https://news.google.com/rss/articles/CBMiqwFBVV95cUxPNXdjX2VCX2xSUjNkc3FFdUdUODRQM05ocEQyUjBSMncxcUV6Xy1oYzQ1N0swWTFtbTFvZUVPd01LMmlEcTBuOS1xbFQyY3RMLXpMX2JKZm1CSmxmajYtN0lRemNuazhLdXJMbDQyWWQwSm9JWDB0eEpVV3I4ZWZvOE51YkluQlNXUTlsWHVMUm54LWZtQWo2Q1lfY2JOR1d1eVhQQmphTTZlUnM?oc=5</t>
+  </si>
+  <si>
+    <t>Estragos financieros de la crisis de EPM: La reducción en la calificación hace que el costo del endeudamiento se incremente para EPM</t>
+  </si>
+  <si>
+    <t>Factura de Celsia: así funciona el cobro de servicios de terceros</t>
+  </si>
+  <si>
+    <t>https://www.elnuevodia.com.co/ibague/factura-de-celsia-asi-funciona-el-cobro-de-servicios-de-terceros-534226</t>
+  </si>
+  <si>
+    <t>¿Dónde realizará trabajos eléctricos Air-e este MIÉRCOLES 21 de enero?: aquí te contamos</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/20/donde-realizara-trabajos-electricos-air-e-este-miercoles-21-de-enero-aqui-te-contamos/</t>
+  </si>
+  <si>
+    <t>['eléctricos', 'Air-e']</t>
+  </si>
+  <si>
+    <t>Usuarios rechazan propuesta de sobretasa eléctrica para cubrir deudas de Air-e</t>
+  </si>
+  <si>
+    <t>https://diariolalibertad.com/sitio/2026/01/20/usuarios-rechazan-propuesta-de-sobretasa-electrica-para-cubrir-deudas-de-air-e/</t>
+  </si>
+  <si>
+    <t>Colombia tendrá contratos de energía eléctrica a largo plazo para acelerar la transición energética</t>
+  </si>
+  <si>
+    <t>https://www.bluradio.com/economia/colombia-tendra-contratos-de-energia-electrica-a-largo-plazo-para-acelerar-la-transicion-energetica-rg10</t>
+  </si>
+  <si>
+    <t>Contratos de energía a 15 años: el nuevo plan del Gobierno para evitar apagones en Colombia</t>
+  </si>
+  <si>
+    <t>https://www.elcolombiano.com/amp/negocios/contratos-energia-15-anos-plan-gobierno-evitar-apagones-GG32700431</t>
+  </si>
+  <si>
+    <t>Ministerio de Minas confirmó “un rezago” en subsidios de energía y gas y pidió inyección de $5.1 billones</t>
+  </si>
+  <si>
+    <t>https://www.infobae.com/colombia/2026/01/20/ministerio-de-minas-confirmo-un-rezago-en-subsidios-de-energia-y-gas-y-pidio-inyeccion-de-51-billones/?outputType=amp-type</t>
+  </si>
+  <si>
+    <t>MinMinas define nuevo realizador de subastas para contratar energía eléctrica a largo plazo</t>
+  </si>
+  <si>
+    <t>https://www.semana.com/amp/economia/macroeconomia/articulo/minminas-define-nuevo-realizador-de-subastas-para-contratar-energia-electrica-a-largo-plazo-que-pasara-con-xm/202655/</t>
+  </si>
+  <si>
+    <t>Energía a 15 años, el nuevo plan del Gobierno para garantizar abastecimiento</t>
+  </si>
+  <si>
+    <t>https://caracol.com.co/2026/01/20/energia-a-15-anos-el-nuevo-plan-del-gobierno-para-garantizar-abastecimiento/?outputType=amp</t>
   </si>
 </sst>
 </file>
@@ -12862,10 +13024,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4800B98A-238B-432B-B2F0-7C5A642D50D0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:I1573"/>
+  <dimension ref="A1:I1597"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1535" workbookViewId="0">
-      <selection activeCell="A1552" sqref="A1552:I1573"/>
+    <sheetView tabSelected="1" topLeftCell="A1553" workbookViewId="0">
+      <selection activeCell="A1574" sqref="A1574:XFD1574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54861,6 +55023,621 @@
       </c>
       <c r="I1573" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1574" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1574" t="s">
+        <v>3993</v>
+      </c>
+      <c r="C1574" t="s">
+        <v>3994</v>
+      </c>
+      <c r="D1574" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1574" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1574" t="s">
+        <v>3995</v>
+      </c>
+      <c r="G1574" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1574" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1575" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1575" t="s">
+        <v>3996</v>
+      </c>
+      <c r="C1575" t="s">
+        <v>3997</v>
+      </c>
+      <c r="D1575" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1575" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1575" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G1575" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1575" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1576" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1576" t="s">
+        <v>3998</v>
+      </c>
+      <c r="C1576" t="s">
+        <v>3999</v>
+      </c>
+      <c r="D1576" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1576" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1576" t="s">
+        <v>4000</v>
+      </c>
+      <c r="G1576" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1576" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1577" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1577" t="s">
+        <v>4001</v>
+      </c>
+      <c r="C1577" s="3" t="s">
+        <v>4002</v>
+      </c>
+      <c r="D1577" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1577" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1577" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1577" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1577" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1578" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1578" t="s">
+        <v>4003</v>
+      </c>
+      <c r="C1578" t="s">
+        <v>4004</v>
+      </c>
+      <c r="D1578" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1578" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1578" t="s">
+        <v>4005</v>
+      </c>
+      <c r="G1578" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1578" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1579" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1579" t="s">
+        <v>4006</v>
+      </c>
+      <c r="C1579" t="s">
+        <v>4007</v>
+      </c>
+      <c r="D1579" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1579" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1579" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1579" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1579" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1580" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1580" t="s">
+        <v>4008</v>
+      </c>
+      <c r="C1580" t="s">
+        <v>4009</v>
+      </c>
+      <c r="D1580" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1580" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1580" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1580" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1580" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1581" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1581" t="s">
+        <v>4010</v>
+      </c>
+      <c r="C1581" t="s">
+        <v>4011</v>
+      </c>
+      <c r="D1581" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1581" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1581" t="s">
+        <v>4012</v>
+      </c>
+      <c r="G1581" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1581" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="1582" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1582" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1582" t="s">
+        <v>4013</v>
+      </c>
+      <c r="C1582" t="s">
+        <v>4014</v>
+      </c>
+      <c r="D1582" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1582" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1582" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1582" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1582" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1583" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1583" t="s">
+        <v>4015</v>
+      </c>
+      <c r="C1583" t="s">
+        <v>4016</v>
+      </c>
+      <c r="D1583" t="s">
+        <v>375</v>
+      </c>
+      <c r="E1583" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1583" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1583" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1583" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1584" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1584" t="s">
+        <v>4017</v>
+      </c>
+      <c r="C1584" t="s">
+        <v>4018</v>
+      </c>
+      <c r="D1584" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1584" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1584" t="s">
+        <v>4019</v>
+      </c>
+      <c r="G1584" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1584" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1585" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1585" t="s">
+        <v>4020</v>
+      </c>
+      <c r="C1585" t="s">
+        <v>4021</v>
+      </c>
+      <c r="D1585" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1585" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1585" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1585" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1585" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1586" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1586" t="s">
+        <v>4022</v>
+      </c>
+      <c r="C1586" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D1586" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1586" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1586" t="s">
+        <v>2952</v>
+      </c>
+      <c r="G1586" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1586" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1587" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1587" t="s">
+        <v>4024</v>
+      </c>
+      <c r="C1587" t="s">
+        <v>4025</v>
+      </c>
+      <c r="D1587" t="s">
+        <v>229</v>
+      </c>
+      <c r="E1587" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1587" t="s">
+        <v>4026</v>
+      </c>
+      <c r="G1587" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1587" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1588" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1588" t="s">
+        <v>4027</v>
+      </c>
+      <c r="C1588" t="s">
+        <v>4028</v>
+      </c>
+      <c r="D1588" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E1588" t="s">
+        <v>209</v>
+      </c>
+      <c r="F1588" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1588" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1588" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1589" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>4029</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>3767</v>
+      </c>
+      <c r="D1589" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1589" t="s">
+        <v>3191</v>
+      </c>
+      <c r="G1589" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1589" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1589" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1590" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>4030</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>4031</v>
+      </c>
+      <c r="D1590" t="s">
+        <v>690</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1590" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1590" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1590" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1591" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>4032</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>4033</v>
+      </c>
+      <c r="D1591" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1591" t="s">
+        <v>4034</v>
+      </c>
+      <c r="G1591" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1591" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1592" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>4035</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>4036</v>
+      </c>
+      <c r="D1592" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>477</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1592" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1592" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I1592" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1593" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>4037</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>4038</v>
+      </c>
+      <c r="D1593" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1593" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1593" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1594" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1594" t="s">
+        <v>4039</v>
+      </c>
+      <c r="C1594" t="s">
+        <v>4040</v>
+      </c>
+      <c r="D1594" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1594" t="s">
+        <v>190</v>
+      </c>
+      <c r="G1594" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1594" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1595" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1595" t="s">
+        <v>4041</v>
+      </c>
+      <c r="C1595" t="s">
+        <v>4042</v>
+      </c>
+      <c r="D1595" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1595" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1595" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1595" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1596" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1596" t="s">
+        <v>4043</v>
+      </c>
+      <c r="C1596" t="s">
+        <v>4044</v>
+      </c>
+      <c r="D1596" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1596" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1596" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1596" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1597" s="1">
+        <v>46043</v>
+      </c>
+      <c r="B1597" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C1597" t="s">
+        <v>4046</v>
+      </c>
+      <c r="D1597" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1597" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1597" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1597" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -54943,6 +55720,7 @@
     <hyperlink ref="C1570" r:id="rId75" display="https://news.google.com/rss/articles/CBMiiAJBVV95cUxPTHlYa1AxdTVCbWxtbHZlTDREdHQ4MEZTVFhrY1RqTld0Wmp6a2x6bDFVM3ZuaHdSM2k1RTRZbVFQY0tXd2JmZ2w5Q1UxS0xNUUo1dUdEdWl4TzVSclFoX2VJYTU3RGM0LXhTU2hLaHZwdC1sMTJvTUNiV1FJS0xyQl8yalZIc0xObFNUekxyMnRlMk14QW9qc0RJd3Y5QWNKM0hoX0NJS3c5Q1NEaGgtek5zZlJaNjh3RVJhbFVSRHZ2XzA3eDYzY0FDU0gzYVBocDB3cm1GbVl6Y2NIbUxjbk9hNTl4UXJTVVJqSGdTdHB3QmUzcWVUd1BoZ2xMc1k4T3NKSFA1UnrSAY4CQVVfeXFMTWJNVTgtWFBNZTV6UXNQV0l3OWFBVDVyZGhjclVoSnRwLW0xaTJQb0lxSTFjal9rQmFab0FZSWJsZHBNNnN6eUk4dDNJRFFtN3IwWEF4d2VwZ0JjS2pxMXMzRjVZTWM3R3JxOExna0w2MTRHZ0phbGNsM3JWaS1FeWhnZ1hVZklIUmRRMUU4aFF3ZGUtZ1k3MjlLREFuMHA4YWJYRmtZUEFZZFNXUFpscjRRX0tPTEkwd3pPODNqVUxlSjhUZ19QTVp1TFJLdFo3S0FYZ1lGdGlZWWNEejNOcTNUdXdzVHNsV1NPNDFkTUY3VWJLTG1MTUhvN0tNYkdVRW5EYVRfWUVkSGhvNHJB?oc=5" xr:uid="{C60724F2-71FF-43DA-92D6-CEBF462B8016}"/>
     <hyperlink ref="C1571" r:id="rId76" display="https://news.google.com/rss/articles/CBMitgFBVV95cUxPWHpjRFpOZW14UWZXcnRjU3duVUV5VWR5RjRKUWswZWo1eUEtRUlXQ0Q3ZVpIX1ZLZHFoYVBVMGgwNXJGUWFVSHROQXhjUHpURzV6cV93ZlRMb2NxbVpzX2pSUWVCWnNJbmY1SXhJQjlxMkJPME1RX2JnS3hzMGY3YTRSXzBUSURROGNUN2F4Zkw4a1lwYkVZRnRPZmsyOTJSQU1oa1p3Wmx1S1B0cUo4REtRUVlZUdIBygFBVV95cUxNakJOODk5MHJneGdNNnFKQ05zcU12QTZkVWVoZHJNWmhWemEzd0c5Y2RDcC1PZGpYclRkdmR4SzJmcUxUOTRTZU9mRHVUbFVXT2swRi1DVWtUOVV1U1RnWXFLemk4VWpnd1dpNExyaXRPUU5LWVIzZXBiOC1fUTAtOHZUam96blVMYWJXM296bl84Ui1ieUV5UDJPTTlGMndCVlVRQjZtWUdIamZ2VVRSVHdxM1lVUm9QZlNpb05pVVdwVi02QmdZclNB?oc=5" xr:uid="{0252E09D-5FC3-4B53-AB78-9608E7249F1B}"/>
     <hyperlink ref="C1572" r:id="rId77" display="https://news.google.com/rss/articles/CBMi5AFBVV95cUxNd2VxcjZKR29rU2JKSWdhVGZDMGx6S2VPVmRPdFZNTnYwRWRkXzJ0NVN0NUJuZHNKYTRMOHU0MkFpeGpuRWhyREhzLWc1NTF1Q092RlVESkpOUnl6QkJRS1BjYVp1dUdXZWN0SGJRWTR5STBianZrNWNDbFVxNXYwMEFIS2hEN3hMbVNrQTNWd0hFVTZpYmZ6aXpVenJtSTlKRnpPdHR5d0NxNFIwb1RSVzV4bXdiWDh0c1Zrc1o5LUZNVnBBcTBZYkFrMzJfVXpHbWJLYmFMaDNjRXlkWXo0cy1MalU?oc=5" xr:uid="{2F5C2D76-D1E2-4711-967C-6F3855A60067}"/>
+    <hyperlink ref="C1577" r:id="rId78" xr:uid="{DA3667C4-9A3D-4FD4-9B0B-D2EB45F2019C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
